--- a/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,22 +653,22 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.021586823532618</v>
+      </c>
+      <c r="D3">
+        <v>0.959649464367766</v>
+      </c>
+      <c r="E3">
+        <v>0.9784350888766419</v>
+      </c>
+      <c r="F3">
+        <v>0.9705780636598259</v>
+      </c>
+      <c r="G3">
         <v>0.9596568246282295</v>
       </c>
-      <c r="D3">
-        <v>1.125930036964292</v>
-      </c>
-      <c r="E3">
-        <v>1.036030106701709</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.9596568246282295</v>
-      </c>
-      <c r="G3">
-        <v>0.9705780636598257</v>
-      </c>
-      <c r="H3">
-        <v>0.9784350888766419</v>
       </c>
       <c r="I3">
         <v>0.9596568246282295</v>
@@ -725,13 +677,13 @@
         <v>1.125930036964292</v>
       </c>
       <c r="K3">
-        <v>1.036201300799909</v>
+        <v>1.036030106701709</v>
       </c>
       <c r="L3">
-        <v>0.959649464367766</v>
+        <v>1.036201300799908</v>
       </c>
       <c r="M3">
-        <v>1.021586823532618</v>
+        <v>1.125930036964292</v>
       </c>
       <c r="N3">
         <v>0.9596568246282295</v>
@@ -764,7 +716,7 @@
         <v>1.011008463691374</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,22 +724,22 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.042376477274894</v>
+      </c>
+      <c r="D4">
+        <v>0.9260153996641869</v>
+      </c>
+      <c r="E4">
+        <v>0.9571313675368037</v>
+      </c>
+      <c r="F4">
+        <v>0.9471392293895287</v>
+      </c>
+      <c r="G4">
         <v>0.9195933689058609</v>
       </c>
-      <c r="D4">
-        <v>1.236182133805722</v>
-      </c>
-      <c r="E4">
-        <v>1.064224078968316</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.9195933689058609</v>
-      </c>
-      <c r="G4">
-        <v>0.9471392293895285</v>
-      </c>
-      <c r="H4">
-        <v>0.9571313675368037</v>
       </c>
       <c r="I4">
         <v>0.9195933689058609</v>
@@ -796,13 +748,13 @@
         <v>1.236182133805722</v>
       </c>
       <c r="K4">
+        <v>1.064224078968316</v>
+      </c>
+      <c r="L4">
         <v>1.067910217664507</v>
       </c>
-      <c r="L4">
-        <v>0.9260153996641869</v>
-      </c>
       <c r="M4">
-        <v>1.042376477274894</v>
+        <v>1.236182133805722</v>
       </c>
       <c r="N4">
         <v>0.9195933689058609</v>
@@ -829,13 +781,13 @@
         <v>1.041784702767357</v>
       </c>
       <c r="V4">
-        <v>1.017346435995057</v>
+        <v>1.017346435995058</v>
       </c>
       <c r="W4">
         <v>1.020071534151227</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,22 +795,22 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.065618830399128</v>
+      </c>
+      <c r="D5">
+        <v>0.8581780003502518</v>
+      </c>
+      <c r="E5">
+        <v>0.9141264896620646</v>
+      </c>
+      <c r="F5">
+        <v>0.8982866378811838</v>
+      </c>
+      <c r="G5">
         <v>0.8552452560998917</v>
       </c>
-      <c r="D5">
-        <v>1.48343845285025</v>
-      </c>
-      <c r="E5">
-        <v>1.134359173525847</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.8552452560998917</v>
-      </c>
-      <c r="G5">
-        <v>0.8982866378811838</v>
-      </c>
-      <c r="H5">
-        <v>0.9141264896620646</v>
       </c>
       <c r="I5">
         <v>0.8552452560998917</v>
@@ -867,13 +819,13 @@
         <v>1.48343845285025</v>
       </c>
       <c r="K5">
+        <v>1.134359173525847</v>
+      </c>
+      <c r="L5">
         <v>1.136912022272485</v>
       </c>
-      <c r="L5">
-        <v>0.8581780003502518</v>
-      </c>
       <c r="M5">
-        <v>1.065618830399129</v>
+        <v>1.48343845285025</v>
       </c>
       <c r="N5">
         <v>0.8552452560998917</v>
@@ -906,7 +858,7 @@
         <v>1.043270607880138</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,22 +866,22 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.045234464782036</v>
+      </c>
+      <c r="D6">
+        <v>0.8574205850195697</v>
+      </c>
+      <c r="E6">
+        <v>0.7910807709347837</v>
+      </c>
+      <c r="F6">
+        <v>0.7843051067973776</v>
+      </c>
+      <c r="G6">
         <v>0.7059099720608917</v>
       </c>
-      <c r="D6">
-        <v>1.779055650577434</v>
-      </c>
-      <c r="E6">
-        <v>1.279631023137138</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.7059099720608917</v>
-      </c>
-      <c r="G6">
-        <v>0.7843051067973776</v>
-      </c>
-      <c r="H6">
-        <v>0.7910807709347837</v>
       </c>
       <c r="I6">
         <v>0.7059099720608917</v>
@@ -938,13 +890,13 @@
         <v>1.779055650577434</v>
       </c>
       <c r="K6">
+        <v>1.279631023137138</v>
+      </c>
+      <c r="L6">
         <v>1.277146278342816</v>
       </c>
-      <c r="L6">
-        <v>0.8574205850195696</v>
-      </c>
       <c r="M6">
-        <v>1.045234464782036</v>
+        <v>1.779055650577434</v>
       </c>
       <c r="N6">
         <v>0.7059099720608917</v>
@@ -977,7 +929,7 @@
         <v>1.064972981456506</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9985953410427887</v>
+        <v>1.002348442708834</v>
       </c>
       <c r="D7">
-        <v>1.016472351925975</v>
+        <v>0.9988296066942025</v>
       </c>
       <c r="E7">
-        <v>0.9986494786681367</v>
+        <v>0.9986807627975594</v>
       </c>
       <c r="F7">
-        <v>0.9985953410427887</v>
+        <v>0.9990466149198383</v>
       </c>
       <c r="G7">
-        <v>0.9990466149198385</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="H7">
-        <v>0.9986807627975596</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="I7">
-        <v>0.9985953410427887</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="J7">
         <v>1.016472351925975</v>
       </c>
       <c r="K7">
-        <v>0.9990715527380409</v>
+        <v>0.9986494786681364</v>
       </c>
       <c r="L7">
-        <v>0.9988296066942028</v>
+        <v>0.9990715527380405</v>
       </c>
       <c r="M7">
-        <v>1.002348442708835</v>
+        <v>1.016472351925975</v>
       </c>
       <c r="N7">
-        <v>0.9985953410427887</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="O7">
-        <v>0.9986494786681367</v>
+        <v>0.9986494786681364</v>
       </c>
       <c r="P7">
         <v>1.007560915297056</v>
       </c>
       <c r="Q7">
-        <v>0.9988480467939875</v>
+        <v>0.9988480467939873</v>
       </c>
       <c r="R7">
         <v>1.004572390545633</v>
@@ -1036,7 +988,7 @@
         <v>1.004722815171317</v>
       </c>
       <c r="T7">
-        <v>1.004572390545633</v>
+        <v>1.004572390545634</v>
       </c>
       <c r="U7">
         <v>1.003190946639185</v>
@@ -1048,7 +1000,7 @@
         <v>1.001461768936922</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1008,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9974665978581668</v>
+        <v>1.007007015384535</v>
       </c>
       <c r="D8">
-        <v>1.042648640819116</v>
+        <v>0.9955895762421789</v>
       </c>
       <c r="E8">
-        <v>0.9962161164480892</v>
+        <v>0.9963671788435361</v>
       </c>
       <c r="F8">
-        <v>0.9974665978581668</v>
+        <v>0.9981083918425919</v>
       </c>
       <c r="G8">
-        <v>0.9981083918425921</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="H8">
-        <v>0.9963671788435368</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="I8">
-        <v>0.9974665978581668</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="J8">
-        <v>1.042648640819116</v>
+        <v>1.042648640819118</v>
       </c>
       <c r="K8">
-        <v>0.9976110029654511</v>
+        <v>0.9962161164480904</v>
       </c>
       <c r="L8">
-        <v>0.9955895762421788</v>
+        <v>0.9976110029654525</v>
       </c>
       <c r="M8">
-        <v>1.007007015384535</v>
+        <v>1.042648640819118</v>
       </c>
       <c r="N8">
-        <v>0.9974665978581668</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="O8">
-        <v>0.9962161164480892</v>
+        <v>0.9962161164480904</v>
       </c>
       <c r="P8">
-        <v>1.019432378633603</v>
+        <v>1.019432378633604</v>
       </c>
       <c r="Q8">
-        <v>0.9971622541453407</v>
+        <v>0.9971622541453411</v>
       </c>
       <c r="R8">
-        <v>1.012110451708457</v>
+        <v>1.012110451708459</v>
       </c>
       <c r="S8">
-        <v>1.012324383036599</v>
+        <v>1.0123243830366</v>
       </c>
       <c r="T8">
-        <v>1.012110451708457</v>
+        <v>1.012110451708459</v>
       </c>
       <c r="U8">
-        <v>1.008609936741991</v>
+        <v>1.008609936741992</v>
       </c>
       <c r="V8">
-        <v>1.006381268965226</v>
+        <v>1.006381268965227</v>
       </c>
       <c r="W8">
-        <v>1.003876815050458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.003876815050459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,22 +1079,22 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.010330658372596</v>
+      </c>
+      <c r="D9">
+        <v>0.9950872408345374</v>
+      </c>
+      <c r="E9">
+        <v>0.9948341810682158</v>
+      </c>
+      <c r="F9">
+        <v>0.997120150821739</v>
+      </c>
+      <c r="G9">
         <v>0.9936043865654811</v>
       </c>
-      <c r="D9">
-        <v>1.060209295705491</v>
-      </c>
-      <c r="E9">
-        <v>0.9942176118145477</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.9936043865654811</v>
-      </c>
-      <c r="G9">
-        <v>0.997120150821739</v>
-      </c>
-      <c r="H9">
-        <v>0.9948341810682158</v>
       </c>
       <c r="I9">
         <v>0.9936043865654811</v>
@@ -1151,31 +1103,31 @@
         <v>1.060209295705491</v>
       </c>
       <c r="K9">
-        <v>0.9964725962396258</v>
+        <v>0.9942176118145475</v>
       </c>
       <c r="L9">
-        <v>0.9950872408345374</v>
+        <v>0.996472596239626</v>
       </c>
       <c r="M9">
-        <v>1.010330658372596</v>
+        <v>1.060209295705491</v>
       </c>
       <c r="N9">
         <v>0.9936043865654811</v>
       </c>
       <c r="O9">
-        <v>0.9942176118145477</v>
+        <v>0.9942176118145475</v>
       </c>
       <c r="P9">
         <v>1.027213453760019</v>
       </c>
       <c r="Q9">
-        <v>0.9956688813181434</v>
+        <v>0.9956688813181432</v>
       </c>
       <c r="R9">
         <v>1.01601043136184</v>
       </c>
       <c r="S9">
-        <v>1.017182352780593</v>
+        <v>1.017182352780592</v>
       </c>
       <c r="T9">
         <v>1.01601043136184</v>
@@ -1190,7 +1142,7 @@
         <v>1.005234515177779</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,22 +1150,22 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.021365538310073</v>
+      </c>
+      <c r="D10">
+        <v>0.9903457019342092</v>
+      </c>
+      <c r="E10">
+        <v>0.9887464569148783</v>
+      </c>
+      <c r="F10">
+        <v>0.9944528806216169</v>
+      </c>
+      <c r="G10">
         <v>0.9855428405368363</v>
       </c>
-      <c r="D10">
-        <v>1.131369199110381</v>
-      </c>
-      <c r="E10">
-        <v>0.9886956334514723</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.9855428405368363</v>
-      </c>
-      <c r="G10">
-        <v>0.9944528806216166</v>
-      </c>
-      <c r="H10">
-        <v>0.9887464569148783</v>
       </c>
       <c r="I10">
         <v>0.9855428405368363</v>
@@ -1222,13 +1174,13 @@
         <v>1.131369199110381</v>
       </c>
       <c r="K10">
+        <v>0.9886956334514723</v>
+      </c>
+      <c r="L10">
         <v>0.9919587945731609</v>
       </c>
-      <c r="L10">
-        <v>0.9903457019342092</v>
-      </c>
       <c r="M10">
-        <v>1.021365538310073</v>
+        <v>1.131369199110381</v>
       </c>
       <c r="N10">
         <v>0.9855428405368363</v>
@@ -1240,7 +1192,7 @@
         <v>1.060032416280926</v>
       </c>
       <c r="Q10">
-        <v>0.9915742570365444</v>
+        <v>0.9915742570365446</v>
       </c>
       <c r="R10">
         <v>1.035202557699563</v>
@@ -1261,7 +1213,7 @@
         <v>1.011559630681578</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,22 +1221,22 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.03851753328971</v>
+      </c>
+      <c r="D11">
+        <v>0.9813675773827538</v>
+      </c>
+      <c r="E11">
+        <v>0.9817626760107501</v>
+      </c>
+      <c r="F11">
+        <v>0.990969046110978</v>
+      </c>
+      <c r="G11">
         <v>0.9804402169240941</v>
       </c>
-      <c r="D11">
-        <v>1.222885826242957</v>
-      </c>
-      <c r="E11">
-        <v>0.9816717875207251</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.9804402169240941</v>
-      </c>
-      <c r="G11">
-        <v>0.990969046110978</v>
-      </c>
-      <c r="H11">
-        <v>0.9817626760107498</v>
       </c>
       <c r="I11">
         <v>0.9804402169240941</v>
@@ -1293,13 +1245,13 @@
         <v>1.222885826242957</v>
       </c>
       <c r="K11">
+        <v>0.9816717875207251</v>
+      </c>
+      <c r="L11">
         <v>0.9866888956063408</v>
       </c>
-      <c r="L11">
-        <v>0.9813675773827538</v>
-      </c>
       <c r="M11">
-        <v>1.03851753328971</v>
+        <v>1.222885826242957</v>
       </c>
       <c r="N11">
         <v>0.9804402169240941</v>
@@ -1332,7 +1284,7 @@
         <v>1.020537944886039</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.660876651418285</v>
+      </c>
+      <c r="D12">
+        <v>1.427669694193638</v>
+      </c>
+      <c r="E12">
+        <v>1.061782037455428</v>
+      </c>
+      <c r="F12">
+        <v>1.270796651127378</v>
+      </c>
+      <c r="G12">
         <v>1.776642826673861</v>
       </c>
-      <c r="D12">
-        <v>0.08773681507702431</v>
-      </c>
-      <c r="E12">
-        <v>0.3218564699133815</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.776642826673861</v>
-      </c>
-      <c r="G12">
-        <v>1.270796651127378</v>
-      </c>
-      <c r="H12">
-        <v>1.061782037455428</v>
       </c>
       <c r="I12">
         <v>1.776642826673861</v>
       </c>
       <c r="J12">
-        <v>0.08773681507702431</v>
+        <v>0.08773681507702411</v>
       </c>
       <c r="K12">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="L12">
         <v>0.6156475120409252</v>
       </c>
-      <c r="L12">
-        <v>1.427669694193637</v>
-      </c>
       <c r="M12">
-        <v>0.6608766514182856</v>
+        <v>0.08773681507702411</v>
       </c>
       <c r="N12">
         <v>1.776642826673861</v>
@@ -1379,31 +1331,31 @@
         <v>0.3218564699133815</v>
       </c>
       <c r="P12">
-        <v>0.2047966424952029</v>
+        <v>0.2047966424952028</v>
       </c>
       <c r="Q12">
-        <v>0.7963265605203799</v>
+        <v>0.7963265605203798</v>
       </c>
       <c r="R12">
-        <v>0.7287453705547557</v>
+        <v>0.7287453705547554</v>
       </c>
       <c r="S12">
-        <v>0.5601299787059281</v>
+        <v>0.5601299787059278</v>
       </c>
       <c r="T12">
-        <v>0.7287453705547557</v>
+        <v>0.7287453705547554</v>
       </c>
       <c r="U12">
-        <v>0.8642581906979114</v>
+        <v>0.8642581906979111</v>
       </c>
       <c r="V12">
         <v>1.046735117893101</v>
       </c>
       <c r="W12">
-        <v>0.9028760822374902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9028760822374901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,22 +1363,22 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.7775764663439729</v>
+      </c>
+      <c r="D13">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="E13">
+        <v>1.19400673911063</v>
+      </c>
+      <c r="F13">
+        <v>0.4024563136100975</v>
+      </c>
+      <c r="G13">
         <v>1.386083954800485</v>
       </c>
-      <c r="D13">
-        <v>1.045772899733318</v>
-      </c>
-      <c r="E13">
-        <v>1.715653053211375</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.386083954800485</v>
-      </c>
-      <c r="G13">
-        <v>0.4024563136100975</v>
-      </c>
-      <c r="H13">
-        <v>1.19400673911063</v>
       </c>
       <c r="I13">
         <v>1.386083954800485</v>
@@ -1435,13 +1387,13 @@
         <v>1.045772899733318</v>
       </c>
       <c r="K13">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="L13">
         <v>1.168360903391125</v>
       </c>
-      <c r="L13">
-        <v>0.6616939008335979</v>
-      </c>
       <c r="M13">
-        <v>0.7775764663439734</v>
+        <v>1.045772899733318</v>
       </c>
       <c r="N13">
         <v>1.386083954800485</v>
@@ -1474,7 +1426,7 @@
         <v>1.043950528879325</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.06967064365041072</v>
+        <v>0.4245048572305005</v>
       </c>
       <c r="D14">
-        <v>0.08778695144515762</v>
+        <v>0.4796082259608624</v>
       </c>
       <c r="E14">
+        <v>1.688650531238298</v>
+      </c>
+      <c r="F14">
+        <v>0.6200218931135497</v>
+      </c>
+      <c r="G14">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="H14">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="I14">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="J14">
+        <v>0.08778695144515751</v>
+      </c>
+      <c r="K14">
         <v>2.479441576350061</v>
       </c>
-      <c r="F14">
-        <v>0.06967064365041072</v>
-      </c>
-      <c r="G14">
-        <v>0.6200218931135498</v>
-      </c>
-      <c r="H14">
-        <v>1.688650531238298</v>
-      </c>
-      <c r="I14">
-        <v>0.06967064365041072</v>
-      </c>
-      <c r="J14">
-        <v>0.08778695144515762</v>
-      </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.436600523399709</v>
       </c>
-      <c r="L14">
-        <v>0.4796082259608624</v>
-      </c>
       <c r="M14">
-        <v>0.4245048572305006</v>
+        <v>0.08778695144515751</v>
       </c>
       <c r="N14">
-        <v>0.06967064365041072</v>
+        <v>0.06967064365041069</v>
       </c>
       <c r="O14">
         <v>2.479441576350061</v>
@@ -1542,10 +1494,10 @@
         <v>0.6653183416419178</v>
       </c>
       <c r="W14">
-        <v>0.9107856502985685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9107856502985686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,22 +1505,22 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.14296945523506</v>
+      </c>
+      <c r="D15">
+        <v>1.452558459160359</v>
+      </c>
+      <c r="E15">
+        <v>0.7770676009839536</v>
+      </c>
+      <c r="F15">
+        <v>1.278324178475013</v>
+      </c>
+      <c r="G15">
         <v>1.232729222016997</v>
       </c>
-      <c r="D15">
-        <v>1.050513637669476</v>
-      </c>
-      <c r="E15">
-        <v>0.3204352799556486</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.232729222016997</v>
-      </c>
-      <c r="G15">
-        <v>1.278324178475013</v>
-      </c>
-      <c r="H15">
-        <v>0.7770676009839536</v>
       </c>
       <c r="I15">
         <v>1.232729222016997</v>
@@ -1577,25 +1529,25 @@
         <v>1.050513637669476</v>
       </c>
       <c r="K15">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="L15">
         <v>0.698709861847687</v>
       </c>
-      <c r="L15">
-        <v>1.452558459160359</v>
-      </c>
       <c r="M15">
-        <v>1.142969455235061</v>
+        <v>1.050513637669476</v>
       </c>
       <c r="N15">
         <v>1.232729222016997</v>
       </c>
       <c r="O15">
-        <v>0.3204352799556486</v>
+        <v>0.3204352799556485</v>
       </c>
       <c r="P15">
-        <v>0.6854744588125623</v>
+        <v>0.6854744588125622</v>
       </c>
       <c r="Q15">
-        <v>0.7993797292153308</v>
+        <v>0.7993797292153307</v>
       </c>
       <c r="R15">
         <v>0.8678927132140405</v>
@@ -1616,7 +1568,7 @@
         <v>0.9941634619180243</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000326059968454</v>
+        <v>1.501729561181725</v>
       </c>
       <c r="D16">
-        <v>1.007960178928385</v>
+        <v>0.2602217590523916</v>
       </c>
       <c r="E16">
-        <v>0.9967545633921079</v>
+        <v>0.6072853782146768</v>
       </c>
       <c r="F16">
-        <v>1.000326059968454</v>
+        <v>0.5702218200658633</v>
       </c>
       <c r="G16">
-        <v>0.9999310610491718</v>
+        <v>0.1980865205597153</v>
       </c>
       <c r="H16">
-        <v>0.9996098327689453</v>
+        <v>0.1980865205597153</v>
       </c>
       <c r="I16">
-        <v>1.000326059968454</v>
+        <v>0.1980865205597153</v>
       </c>
       <c r="J16">
-        <v>1.007960178928385</v>
+        <v>3.281947792101732</v>
       </c>
       <c r="K16">
-        <v>0.9991962082552586</v>
+        <v>1.5656459849924</v>
       </c>
       <c r="L16">
-        <v>1.000853182802751</v>
+        <v>1.609397343003555</v>
       </c>
       <c r="M16">
-        <v>0.999363742849856</v>
+        <v>3.281947792101732</v>
       </c>
       <c r="N16">
-        <v>1.000326059968454</v>
+        <v>0.1980865205597153</v>
       </c>
       <c r="O16">
-        <v>0.9967545633921079</v>
+        <v>1.5656459849924</v>
       </c>
       <c r="P16">
-        <v>1.002357371160246</v>
+        <v>2.423796888547066</v>
       </c>
       <c r="Q16">
-        <v>0.9983428122206399</v>
+        <v>1.067933902529131</v>
       </c>
       <c r="R16">
-        <v>1.001680267429649</v>
+        <v>1.681893432551282</v>
       </c>
       <c r="S16">
-        <v>1.001548601123221</v>
+        <v>1.805938532386665</v>
       </c>
       <c r="T16">
-        <v>1.001680267429649</v>
+        <v>1.681893432551282</v>
       </c>
       <c r="U16">
-        <v>1.00124296583453</v>
+        <v>1.403975529429928</v>
       </c>
       <c r="V16">
-        <v>1.001059584661315</v>
+        <v>1.162797727655885</v>
       </c>
       <c r="W16">
-        <v>1.000499353751866</v>
+        <v>1.199317019896507</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9956905623553527</v>
+        <v>1.455204542654145</v>
       </c>
       <c r="D17">
-        <v>1.009772907272093</v>
+        <v>0.4556786955944249</v>
       </c>
       <c r="E17">
-        <v>1.004205590751648</v>
+        <v>0.6763453821020488</v>
       </c>
       <c r="F17">
-        <v>0.9956905623553527</v>
+        <v>0.7086927664552444</v>
       </c>
       <c r="G17">
-        <v>0.9979079924672032</v>
+        <v>0.394400692510626</v>
       </c>
       <c r="H17">
-        <v>0.9992239063189586</v>
+        <v>0.394400692510626</v>
       </c>
       <c r="I17">
-        <v>0.9956905623553527</v>
+        <v>0.394400692510626</v>
       </c>
       <c r="J17">
-        <v>1.009772907272093</v>
+        <v>2.952720880817494</v>
       </c>
       <c r="K17">
-        <v>0.9977213057478188</v>
+        <v>1.320160385925407</v>
       </c>
       <c r="L17">
-        <v>0.9977314616443107</v>
+        <v>1.394632294530849</v>
       </c>
       <c r="M17">
-        <v>1.004315936195868</v>
+        <v>2.952720880817494</v>
       </c>
       <c r="N17">
-        <v>0.9956905623553527</v>
+        <v>0.394400692510626</v>
       </c>
       <c r="O17">
-        <v>1.004205590751648</v>
+        <v>1.320160385925407</v>
       </c>
       <c r="P17">
-        <v>1.006989249011871</v>
+        <v>2.13644063337145</v>
       </c>
       <c r="Q17">
-        <v>1.001056791609426</v>
+        <v>1.014426576190326</v>
       </c>
       <c r="R17">
-        <v>1.003223020126365</v>
+        <v>1.555760653084509</v>
       </c>
       <c r="S17">
-        <v>1.003962163496982</v>
+        <v>1.660524677732715</v>
       </c>
       <c r="T17">
-        <v>1.003223020126365</v>
+        <v>1.555760653084509</v>
       </c>
       <c r="U17">
-        <v>1.001894263211574</v>
+        <v>1.343993681427193</v>
       </c>
       <c r="V17">
-        <v>1.00065352304033</v>
+        <v>1.154075083643879</v>
       </c>
       <c r="W17">
-        <v>1.000821207844157</v>
+        <v>1.16972945507378</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9824361395027094</v>
+        <v>1.361428413741613</v>
       </c>
       <c r="D18">
-        <v>1.067451582533975</v>
+        <v>0.8458856084586135</v>
       </c>
       <c r="E18">
-        <v>0.992657501734433</v>
+        <v>0.8146285296850746</v>
       </c>
       <c r="F18">
-        <v>0.9824361395027094</v>
+        <v>0.9852755156588561</v>
       </c>
       <c r="G18">
-        <v>0.9902354505656017</v>
+        <v>0.7862781505298861</v>
       </c>
       <c r="H18">
-        <v>0.9866417953286031</v>
+        <v>0.7862781505298861</v>
       </c>
       <c r="I18">
-        <v>0.9824361395027094</v>
+        <v>0.7862781505298861</v>
       </c>
       <c r="J18">
-        <v>1.067451582533975</v>
+        <v>2.286586310902549</v>
       </c>
       <c r="K18">
-        <v>1.020915521131927</v>
+        <v>0.8315507117708201</v>
       </c>
       <c r="L18">
-        <v>0.9934180823880121</v>
+        <v>0.9672259475900042</v>
       </c>
       <c r="M18">
-        <v>0.9963487265561012</v>
+        <v>2.286586310902549</v>
       </c>
       <c r="N18">
-        <v>0.9824361395027094</v>
+        <v>0.7862781505298861</v>
       </c>
       <c r="O18">
-        <v>0.992657501734433</v>
+        <v>0.8315507117708201</v>
       </c>
       <c r="P18">
-        <v>1.030054542134204</v>
+        <v>1.559068511336685</v>
       </c>
       <c r="Q18">
-        <v>0.9914464761500174</v>
+        <v>0.9084131137148381</v>
       </c>
       <c r="R18">
-        <v>1.014181741257039</v>
+        <v>1.301471724401085</v>
       </c>
       <c r="S18">
-        <v>1.016781511611337</v>
+        <v>1.367804179444075</v>
       </c>
       <c r="T18">
-        <v>1.014181741257039</v>
+        <v>1.301471724401085</v>
       </c>
       <c r="U18">
-        <v>1.00819516858418</v>
+        <v>1.222422672215528</v>
       </c>
       <c r="V18">
-        <v>1.003043362767886</v>
+        <v>1.135193767878399</v>
       </c>
       <c r="W18">
-        <v>1.00376309996767</v>
+        <v>1.109857398542177</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.383191752138456</v>
+      </c>
+      <c r="D19">
+        <v>0.7556100537512668</v>
+      </c>
+      <c r="E19">
+        <v>0.8534687130188695</v>
+      </c>
+      <c r="F19">
+        <v>0.8600029778280686</v>
+      </c>
+      <c r="G19">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="H19">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="I19">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="J19">
+        <v>2.735706134740153</v>
+      </c>
+      <c r="K19">
+        <v>0.8841603443545032</v>
+      </c>
+      <c r="L19">
+        <v>0.9026126108550261</v>
+      </c>
+      <c r="M19">
+        <v>2.735706134740153</v>
+      </c>
+      <c r="N19">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="O19">
+        <v>0.8841603443545032</v>
+      </c>
+      <c r="P19">
+        <v>1.809933239547328</v>
+      </c>
+      <c r="Q19">
+        <v>0.8720816610912858</v>
+      </c>
+      <c r="R19">
+        <v>1.502201477342046</v>
+      </c>
+      <c r="S19">
+        <v>1.493289818974241</v>
+      </c>
+      <c r="T19">
+        <v>1.502201477342046</v>
+      </c>
+      <c r="U19">
+        <v>1.341651852463552</v>
+      </c>
+      <c r="V19">
+        <v>1.250669072557138</v>
+      </c>
+      <c r="W19">
+        <v>1.157686317452228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9993637428498556</v>
+      </c>
+      <c r="D20">
+        <v>1.00085318280275</v>
+      </c>
+      <c r="E20">
+        <v>0.9996098327689438</v>
+      </c>
+      <c r="F20">
+        <v>0.9999310610491722</v>
+      </c>
+      <c r="G20">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="H20">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="I20">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="J20">
+        <v>1.007960178928386</v>
+      </c>
+      <c r="K20">
+        <v>0.9967545633921079</v>
+      </c>
+      <c r="L20">
+        <v>0.9991962082552593</v>
+      </c>
+      <c r="M20">
+        <v>1.007960178928386</v>
+      </c>
+      <c r="N20">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="O20">
+        <v>0.9967545633921079</v>
+      </c>
+      <c r="P20">
+        <v>1.002357371160247</v>
+      </c>
+      <c r="Q20">
+        <v>0.99834281222064</v>
+      </c>
+      <c r="R20">
+        <v>1.001680267429649</v>
+      </c>
+      <c r="S20">
+        <v>1.001548601123222</v>
+      </c>
+      <c r="T20">
+        <v>1.001680267429649</v>
+      </c>
+      <c r="U20">
+        <v>1.00124296583453</v>
+      </c>
+      <c r="V20">
+        <v>1.001059584661315</v>
+      </c>
+      <c r="W20">
+        <v>1.000499353751866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.004315936195868</v>
+      </c>
+      <c r="D21">
+        <v>0.9977314616443103</v>
+      </c>
+      <c r="E21">
+        <v>0.9992239063189589</v>
+      </c>
+      <c r="F21">
+        <v>0.9979079924672032</v>
+      </c>
+      <c r="G21">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="H21">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="I21">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="J21">
+        <v>1.009772907272094</v>
+      </c>
+      <c r="K21">
+        <v>1.004205590751649</v>
+      </c>
+      <c r="L21">
+        <v>0.9977213057478186</v>
+      </c>
+      <c r="M21">
+        <v>1.009772907272094</v>
+      </c>
+      <c r="N21">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="O21">
+        <v>1.004205590751649</v>
+      </c>
+      <c r="P21">
+        <v>1.006989249011871</v>
+      </c>
+      <c r="Q21">
+        <v>1.001056791609426</v>
+      </c>
+      <c r="R21">
+        <v>1.003223020126365</v>
+      </c>
+      <c r="S21">
+        <v>1.003962163496982</v>
+      </c>
+      <c r="T21">
+        <v>1.003223020126365</v>
+      </c>
+      <c r="U21">
+        <v>1.001894263211575</v>
+      </c>
+      <c r="V21">
+        <v>1.00065352304033</v>
+      </c>
+      <c r="W21">
+        <v>1.000821207844157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9963487265561007</v>
+      </c>
+      <c r="D22">
+        <v>0.9934180823880113</v>
+      </c>
+      <c r="E22">
+        <v>0.9866417953286036</v>
+      </c>
+      <c r="F22">
+        <v>0.9902354505656015</v>
+      </c>
+      <c r="G22">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="H22">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="I22">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="J22">
+        <v>1.067451582533976</v>
+      </c>
+      <c r="K22">
+        <v>0.9926575017344336</v>
+      </c>
+      <c r="L22">
+        <v>1.020915521131927</v>
+      </c>
+      <c r="M22">
+        <v>1.067451582533976</v>
+      </c>
+      <c r="N22">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="O22">
+        <v>0.9926575017344336</v>
+      </c>
+      <c r="P22">
+        <v>1.030054542134205</v>
+      </c>
+      <c r="Q22">
+        <v>0.9914464761500175</v>
+      </c>
+      <c r="R22">
+        <v>1.01418174125704</v>
+      </c>
+      <c r="S22">
+        <v>1.016781511611337</v>
+      </c>
+      <c r="T22">
+        <v>1.01418174125704</v>
+      </c>
+      <c r="U22">
+        <v>1.00819516858418</v>
+      </c>
+      <c r="V22">
+        <v>1.003043362767886</v>
+      </c>
+      <c r="W22">
+        <v>1.00376309996767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.006066406568989</v>
+      </c>
+      <c r="D23">
+        <v>0.9786261394529606</v>
+      </c>
+      <c r="E23">
+        <v>0.9787611785893472</v>
+      </c>
+      <c r="F23">
+        <v>0.981303631399551</v>
+      </c>
+      <c r="G23">
         <v>0.9590268200120297</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>0.9590268200120297</v>
+      </c>
+      <c r="I23">
+        <v>0.9590268200120297</v>
+      </c>
+      <c r="J23">
         <v>1.104622480534508</v>
       </c>
-      <c r="E19">
+      <c r="K23">
         <v>1.022181498117591</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>1.035647046575315</v>
+      </c>
+      <c r="M23">
+        <v>1.104622480534508</v>
+      </c>
+      <c r="N23">
         <v>0.9590268200120297</v>
       </c>
-      <c r="G19">
-        <v>0.981303631399551</v>
-      </c>
-      <c r="H19">
-        <v>0.9787611785893472</v>
-      </c>
-      <c r="I19">
-        <v>0.9590268200120297</v>
-      </c>
-      <c r="J19">
-        <v>1.104622480534508</v>
-      </c>
-      <c r="K19">
-        <v>1.035647046575315</v>
-      </c>
-      <c r="L19">
-        <v>0.9786261394529606</v>
-      </c>
-      <c r="M19">
-        <v>1.006066406568989</v>
-      </c>
-      <c r="N19">
-        <v>0.9590268200120297</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.022181498117591</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.063401989326049</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001742564758571</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.028610266221376</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.036035870017217</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.028610266221376</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.01678360751592</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.005232250015142</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.008279400156286</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.021586823532618</v>
+        <v>1.400802427714176</v>
       </c>
       <c r="D3">
-        <v>0.959649464367766</v>
+        <v>0.7987585782818425</v>
       </c>
       <c r="E3">
-        <v>0.9784350888766419</v>
+        <v>0.7853138167603624</v>
       </c>
       <c r="F3">
-        <v>0.9705780636598259</v>
+        <v>0.9467503814971158</v>
       </c>
       <c r="G3">
-        <v>0.9596568246282295</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="H3">
-        <v>0.9596568246282295</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="I3">
-        <v>0.9596568246282295</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="J3">
-        <v>1.125930036964292</v>
+        <v>2.650737425273654</v>
       </c>
       <c r="K3">
-        <v>1.036030106701709</v>
+        <v>0.8443567291136985</v>
       </c>
       <c r="L3">
-        <v>1.036201300799908</v>
+        <v>0.9752996456838299</v>
       </c>
       <c r="M3">
-        <v>1.125930036964292</v>
+        <v>2.650737425273654</v>
       </c>
       <c r="N3">
-        <v>0.9596568246282295</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="O3">
-        <v>1.036030106701709</v>
+        <v>0.8443567291136985</v>
       </c>
       <c r="P3">
-        <v>1.080980071833</v>
+        <v>1.747547077193676</v>
       </c>
       <c r="Q3">
-        <v>1.003304085180768</v>
+        <v>0.8955535553054071</v>
       </c>
       <c r="R3">
-        <v>1.04053898943141</v>
+        <v>1.41180571064327</v>
       </c>
       <c r="S3">
-        <v>1.044179402441942</v>
+        <v>1.480614845294823</v>
       </c>
       <c r="T3">
-        <v>1.04053898943141</v>
+        <v>1.41180571064327</v>
       </c>
       <c r="U3">
-        <v>1.023048757988514</v>
+        <v>1.295541878356731</v>
       </c>
       <c r="V3">
-        <v>1.010370371316457</v>
+        <v>1.184498098193876</v>
       </c>
       <c r="W3">
-        <v>1.011008463691374</v>
+        <v>1.142792747733392</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.042376477274894</v>
+        <v>1.378820768720772</v>
       </c>
       <c r="D4">
-        <v>0.9260153996641869</v>
+        <v>0.8250940747969463</v>
       </c>
       <c r="E4">
-        <v>0.9571313675368037</v>
+        <v>0.8016790856833559</v>
       </c>
       <c r="F4">
-        <v>0.9471392293895287</v>
+        <v>0.9682856055333509</v>
       </c>
       <c r="G4">
-        <v>0.9195933689058609</v>
+        <v>0.7660054413641451</v>
       </c>
       <c r="H4">
-        <v>0.9195933689058609</v>
+        <v>0.7660054413641451</v>
       </c>
       <c r="I4">
-        <v>0.9195933689058609</v>
+        <v>0.7660054413641451</v>
       </c>
       <c r="J4">
-        <v>1.236182133805722</v>
+        <v>2.447223109945006</v>
       </c>
       <c r="K4">
-        <v>1.064224078968316</v>
+        <v>0.8371795573711214</v>
       </c>
       <c r="L4">
-        <v>1.067910217664507</v>
+        <v>0.9707936453329559</v>
       </c>
       <c r="M4">
-        <v>1.236182133805722</v>
+        <v>2.447223109945006</v>
       </c>
       <c r="N4">
-        <v>0.9195933689058609</v>
+        <v>0.7660054413641451</v>
       </c>
       <c r="O4">
-        <v>1.064224078968316</v>
+        <v>0.8371795573711214</v>
       </c>
       <c r="P4">
-        <v>1.150203106387019</v>
+        <v>1.642201333658064</v>
       </c>
       <c r="Q4">
-        <v>1.005681654178922</v>
+        <v>0.9027325814522361</v>
       </c>
       <c r="R4">
-        <v>1.0733331938933</v>
+        <v>1.350136036226758</v>
       </c>
       <c r="S4">
-        <v>1.082515147387856</v>
+        <v>1.417562757616493</v>
       </c>
       <c r="T4">
-        <v>1.0733331938933</v>
+        <v>1.350136036226758</v>
       </c>
       <c r="U4">
-        <v>1.041784702767357</v>
+        <v>1.254673428553406</v>
       </c>
       <c r="V4">
-        <v>1.017346435995058</v>
+        <v>1.156939831115554</v>
       </c>
       <c r="W4">
-        <v>1.020071534151227</v>
+        <v>1.124385161093457</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.065618830399128</v>
+        <v>1.443185724188675</v>
       </c>
       <c r="D5">
-        <v>0.8581780003502518</v>
+        <v>0.7495386282582214</v>
       </c>
       <c r="E5">
-        <v>0.9141264896620646</v>
+        <v>0.7541434595589488</v>
       </c>
       <c r="F5">
-        <v>0.8982866378811838</v>
+        <v>0.906263738113208</v>
       </c>
       <c r="G5">
-        <v>0.8552452560998917</v>
+        <v>0.6923871387167665</v>
       </c>
       <c r="H5">
-        <v>0.8552452560998917</v>
+        <v>0.6923871387167665</v>
       </c>
       <c r="I5">
-        <v>0.8552452560998917</v>
+        <v>0.6923871387167665</v>
       </c>
       <c r="J5">
-        <v>1.48343845285025</v>
+        <v>3.044269057470307</v>
       </c>
       <c r="K5">
-        <v>1.134359173525847</v>
+        <v>0.8556270962094064</v>
       </c>
       <c r="L5">
-        <v>1.136912022272485</v>
+        <v>0.9816992010393527</v>
       </c>
       <c r="M5">
-        <v>1.48343845285025</v>
+        <v>3.044269057470307</v>
       </c>
       <c r="N5">
-        <v>0.8552452560998917</v>
+        <v>0.6923871387167665</v>
       </c>
       <c r="O5">
-        <v>1.134359173525847</v>
+        <v>0.8556270962094064</v>
       </c>
       <c r="P5">
-        <v>1.308898813188049</v>
+        <v>1.949948076839856</v>
       </c>
       <c r="Q5">
-        <v>1.016322905703515</v>
+        <v>0.8809454171613071</v>
       </c>
       <c r="R5">
-        <v>1.15768096082533</v>
+        <v>1.530761097465493</v>
       </c>
       <c r="S5">
-        <v>1.17202808808576</v>
+        <v>1.602053297264307</v>
       </c>
       <c r="T5">
-        <v>1.15768096082533</v>
+        <v>1.530761097465493</v>
       </c>
       <c r="U5">
-        <v>1.092832380089293</v>
+        <v>1.374636757627422</v>
       </c>
       <c r="V5">
-        <v>1.045314955291413</v>
+        <v>1.238186833845291</v>
       </c>
       <c r="W5">
-        <v>1.043270607880138</v>
+        <v>1.178389255444361</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.045234464782036</v>
+        <v>1.484804438584205</v>
       </c>
       <c r="D6">
-        <v>0.8574205850195697</v>
+        <v>0.7035432618045452</v>
       </c>
       <c r="E6">
-        <v>0.7910807709347837</v>
+        <v>0.7276185844909089</v>
       </c>
       <c r="F6">
-        <v>0.7843051067973776</v>
+        <v>0.8686580493068188</v>
       </c>
       <c r="G6">
-        <v>0.7059099720608917</v>
+        <v>0.6468607018926595</v>
       </c>
       <c r="H6">
-        <v>0.7059099720608917</v>
+        <v>0.6468607018926595</v>
       </c>
       <c r="I6">
-        <v>0.7059099720608917</v>
+        <v>0.6468607018926595</v>
       </c>
       <c r="J6">
-        <v>1.779055650577434</v>
+        <v>3.427903429740115</v>
       </c>
       <c r="K6">
-        <v>1.279631023137138</v>
+        <v>0.8666527376107391</v>
       </c>
       <c r="L6">
-        <v>1.277146278342816</v>
+        <v>0.9858467915522717</v>
       </c>
       <c r="M6">
-        <v>1.779055650577434</v>
+        <v>3.427903429740115</v>
       </c>
       <c r="N6">
-        <v>0.7059099720608917</v>
+        <v>0.6468607018926595</v>
       </c>
       <c r="O6">
-        <v>1.279631023137138</v>
+        <v>0.8666527376107391</v>
       </c>
       <c r="P6">
-        <v>1.529343336857286</v>
+        <v>2.147278083675427</v>
       </c>
       <c r="Q6">
-        <v>1.031968064967258</v>
+        <v>0.867655393458779</v>
       </c>
       <c r="R6">
-        <v>1.254865548591821</v>
+        <v>1.647138956414505</v>
       </c>
       <c r="S6">
-        <v>1.28099726017065</v>
+        <v>1.721071405552558</v>
       </c>
       <c r="T6">
-        <v>1.254865548591821</v>
+        <v>1.647138956414505</v>
       </c>
       <c r="U6">
-        <v>1.137225438143211</v>
+        <v>1.452518729637583</v>
       </c>
       <c r="V6">
-        <v>1.050962344926747</v>
+        <v>1.291387124088599</v>
       </c>
       <c r="W6">
-        <v>1.064972981456506</v>
+        <v>1.213985999372783</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002348442708834</v>
+        <v>1.479502105980057</v>
       </c>
       <c r="D7">
-        <v>0.9988296066942025</v>
+        <v>0.06737292963579973</v>
       </c>
       <c r="E7">
-        <v>0.9986807627975594</v>
+        <v>0.5661248843718026</v>
       </c>
       <c r="F7">
-        <v>0.9990466149198383</v>
+        <v>0.4413365625333885</v>
       </c>
       <c r="G7">
-        <v>0.998595341042789</v>
+        <v>0.001458704385713896</v>
       </c>
       <c r="H7">
-        <v>0.998595341042789</v>
+        <v>0.001458704385713896</v>
       </c>
       <c r="I7">
-        <v>0.998595341042789</v>
+        <v>0.001458704385713896</v>
       </c>
       <c r="J7">
-        <v>1.016472351925975</v>
+        <v>3.073834383619757</v>
       </c>
       <c r="K7">
-        <v>0.9986494786681364</v>
+        <v>1.906361387800796</v>
       </c>
       <c r="L7">
-        <v>0.9990715527380405</v>
+        <v>1.910925391194075</v>
       </c>
       <c r="M7">
-        <v>1.016472351925975</v>
+        <v>3.073834383619757</v>
       </c>
       <c r="N7">
-        <v>0.998595341042789</v>
+        <v>0.001458704385713896</v>
       </c>
       <c r="O7">
-        <v>0.9986494786681364</v>
+        <v>1.906361387800796</v>
       </c>
       <c r="P7">
-        <v>1.007560915297056</v>
+        <v>2.490097885710276</v>
       </c>
       <c r="Q7">
-        <v>0.9988480467939873</v>
+        <v>1.173848975167092</v>
       </c>
       <c r="R7">
-        <v>1.004572390545633</v>
+        <v>1.660551491935422</v>
       </c>
       <c r="S7">
-        <v>1.004722815171317</v>
+        <v>1.807177444651314</v>
       </c>
       <c r="T7">
-        <v>1.004572390545634</v>
+        <v>1.660551491935422</v>
       </c>
       <c r="U7">
-        <v>1.003190946639185</v>
+        <v>1.355747759584914</v>
       </c>
       <c r="V7">
-        <v>1.002271825519906</v>
+        <v>1.084889948545074</v>
       </c>
       <c r="W7">
-        <v>1.001461768936922</v>
+        <v>1.180864543690174</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.007007015384535</v>
+        <v>1.486810545173058</v>
       </c>
       <c r="D8">
-        <v>0.9955895762421789</v>
+        <v>0.0670037482878134</v>
       </c>
       <c r="E8">
-        <v>0.9963671788435361</v>
+        <v>0.5630341910592233</v>
       </c>
       <c r="F8">
-        <v>0.9981083918425919</v>
+        <v>0.4398462942079613</v>
       </c>
       <c r="G8">
-        <v>0.9974665978581672</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="H8">
-        <v>0.9974665978581672</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="I8">
-        <v>0.9974665978581672</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="J8">
-        <v>1.042648640819118</v>
+        <v>3.14134882808633</v>
       </c>
       <c r="K8">
-        <v>0.9962161164480904</v>
+        <v>1.895926573382535</v>
       </c>
       <c r="L8">
-        <v>0.9976110029654525</v>
+        <v>1.900501486359128</v>
       </c>
       <c r="M8">
-        <v>1.042648640819118</v>
+        <v>3.14134882808633</v>
       </c>
       <c r="N8">
-        <v>0.9974665978581672</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="O8">
-        <v>0.9962161164480904</v>
+        <v>1.895926573382535</v>
       </c>
       <c r="P8">
-        <v>1.019432378633604</v>
+        <v>2.518637700734433</v>
       </c>
       <c r="Q8">
-        <v>0.9971622541453411</v>
+        <v>1.167886433795248</v>
       </c>
       <c r="R8">
-        <v>1.012110451708459</v>
+        <v>1.679571261502359</v>
       </c>
       <c r="S8">
-        <v>1.0123243830366</v>
+        <v>1.825707231892276</v>
       </c>
       <c r="T8">
-        <v>1.012110451708459</v>
+        <v>1.679571261502359</v>
       </c>
       <c r="U8">
-        <v>1.008609936741992</v>
+        <v>1.36964001967876</v>
       </c>
       <c r="V8">
-        <v>1.006381268965227</v>
+        <v>1.09599969235065</v>
       </c>
       <c r="W8">
-        <v>1.003876815050459</v>
+        <v>1.186988756199283</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.010330658372596</v>
+        <v>1.491518455002043</v>
       </c>
       <c r="D9">
-        <v>0.9950872408345374</v>
+        <v>0.06671233388861084</v>
       </c>
       <c r="E9">
-        <v>0.9948341810682158</v>
+        <v>0.5609720344514263</v>
       </c>
       <c r="F9">
-        <v>0.997120150821739</v>
+        <v>0.4383712683606075</v>
       </c>
       <c r="G9">
-        <v>0.9936043865654811</v>
+        <v>0.001419608744929821</v>
       </c>
       <c r="H9">
-        <v>0.9936043865654811</v>
+        <v>0.001419608744929821</v>
       </c>
       <c r="I9">
-        <v>0.9936043865654811</v>
+        <v>0.001419608744929821</v>
       </c>
       <c r="J9">
-        <v>1.060209295705491</v>
+        <v>3.196528385523723</v>
       </c>
       <c r="K9">
-        <v>0.9942176118145475</v>
+        <v>1.88895567285901</v>
       </c>
       <c r="L9">
-        <v>0.996472596239626</v>
+        <v>1.892246721900368</v>
       </c>
       <c r="M9">
-        <v>1.060209295705491</v>
+        <v>3.196528385523723</v>
       </c>
       <c r="N9">
-        <v>0.9936043865654811</v>
+        <v>0.001419608744929821</v>
       </c>
       <c r="O9">
-        <v>0.9942176118145475</v>
+        <v>1.88895567285901</v>
       </c>
       <c r="P9">
-        <v>1.027213453760019</v>
+        <v>2.542742029191366</v>
       </c>
       <c r="Q9">
-        <v>0.9956688813181432</v>
+        <v>1.163663470609809</v>
       </c>
       <c r="R9">
-        <v>1.01601043136184</v>
+        <v>1.695634555709221</v>
       </c>
       <c r="S9">
-        <v>1.017182352780592</v>
+        <v>1.841285108914447</v>
       </c>
       <c r="T9">
-        <v>1.01601043136184</v>
+        <v>1.695634555709221</v>
       </c>
       <c r="U9">
-        <v>1.011287861226815</v>
+        <v>1.381318733872068</v>
       </c>
       <c r="V9">
-        <v>1.007751166294548</v>
+        <v>1.10533890884664</v>
       </c>
       <c r="W9">
-        <v>1.005234515177779</v>
+        <v>1.19209056009134</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.021365538310073</v>
+        <v>1.508525685499595</v>
       </c>
       <c r="D10">
-        <v>0.9903457019342092</v>
+        <v>0.06566560853159754</v>
       </c>
       <c r="E10">
-        <v>0.9887464569148783</v>
+        <v>0.5530933036172292</v>
       </c>
       <c r="F10">
-        <v>0.9944528806216169</v>
+        <v>0.4330871226116277</v>
       </c>
       <c r="G10">
-        <v>0.9855428405368363</v>
+        <v>0.001341823060316034</v>
       </c>
       <c r="H10">
-        <v>0.9855428405368363</v>
+        <v>0.001341823060316034</v>
       </c>
       <c r="I10">
-        <v>0.9855428405368363</v>
+        <v>0.001341823060316034</v>
       </c>
       <c r="J10">
-        <v>1.131369199110381</v>
+        <v>3.400667187424455</v>
       </c>
       <c r="K10">
-        <v>0.9886956334514723</v>
+        <v>1.862309413253359</v>
       </c>
       <c r="L10">
-        <v>0.9919587945731609</v>
+        <v>1.862523425430838</v>
       </c>
       <c r="M10">
-        <v>1.131369199110381</v>
+        <v>3.400667187424455</v>
       </c>
       <c r="N10">
-        <v>0.9855428405368363</v>
+        <v>0.001341823060316034</v>
       </c>
       <c r="O10">
-        <v>0.9886956334514723</v>
+        <v>1.862309413253359</v>
       </c>
       <c r="P10">
-        <v>1.060032416280926</v>
+        <v>2.631488300338907</v>
       </c>
       <c r="Q10">
-        <v>0.9915742570365446</v>
+        <v>1.147698267932493</v>
       </c>
       <c r="R10">
-        <v>1.035202557699563</v>
+        <v>1.75477280791271</v>
       </c>
       <c r="S10">
-        <v>1.038172571061157</v>
+        <v>1.898687907763147</v>
       </c>
       <c r="T10">
-        <v>1.035202557699563</v>
+        <v>1.75477280791271</v>
       </c>
       <c r="U10">
-        <v>1.025015138430077</v>
+        <v>1.42435138658744</v>
       </c>
       <c r="V10">
-        <v>1.017120678851428</v>
+        <v>1.139749473882015</v>
       </c>
       <c r="W10">
-        <v>1.011559630681578</v>
+        <v>1.210901696178627</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.03851753328971</v>
+        <v>1.030469500256761</v>
       </c>
       <c r="D11">
-        <v>0.9813675773827538</v>
+        <v>0.95515156086687</v>
       </c>
       <c r="E11">
-        <v>0.9817626760107501</v>
+        <v>0.9765986885718745</v>
       </c>
       <c r="F11">
-        <v>0.990969046110978</v>
+        <v>0.9750651406826434</v>
       </c>
       <c r="G11">
-        <v>0.9804402169240941</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="H11">
-        <v>0.9804402169240941</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="I11">
-        <v>0.9804402169240941</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="J11">
-        <v>1.222885826242957</v>
+        <v>1.121670763127518</v>
       </c>
       <c r="K11">
-        <v>0.9816717875207251</v>
+        <v>1.033113997757159</v>
       </c>
       <c r="L11">
-        <v>0.9866888956063408</v>
+        <v>1.038882323044549</v>
       </c>
       <c r="M11">
-        <v>1.222885826242957</v>
+        <v>1.121670763127518</v>
       </c>
       <c r="N11">
-        <v>0.9804402169240941</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="O11">
-        <v>0.9816717875207251</v>
+        <v>1.033113997757159</v>
       </c>
       <c r="P11">
-        <v>1.102278806881841</v>
+        <v>1.077392380442339</v>
       </c>
       <c r="Q11">
-        <v>0.9863204168158516</v>
+        <v>1.004089569219901</v>
       </c>
       <c r="R11">
-        <v>1.061665943562592</v>
+        <v>1.035509504919182</v>
       </c>
       <c r="S11">
-        <v>1.065175553291553</v>
+        <v>1.04328330052244</v>
       </c>
       <c r="T11">
-        <v>1.061665943562592</v>
+        <v>1.035509504919182</v>
       </c>
       <c r="U11">
-        <v>1.043991719199689</v>
+        <v>1.020398413860047</v>
       </c>
       <c r="V11">
-        <v>1.03128141874457</v>
+        <v>1.006667481862611</v>
       </c>
       <c r="W11">
-        <v>1.020537944886039</v>
+        <v>1.010336966022531</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.660876651418285</v>
+        <v>1.014341570855568</v>
       </c>
       <c r="D12">
-        <v>1.427669694193638</v>
+        <v>0.9756584482843881</v>
       </c>
       <c r="E12">
-        <v>1.061782037455428</v>
+        <v>0.9881282850389355</v>
       </c>
       <c r="F12">
-        <v>1.270796651127378</v>
+        <v>0.9844979848452585</v>
       </c>
       <c r="G12">
-        <v>1.776642826673861</v>
+        <v>0.9735989669621854</v>
       </c>
       <c r="H12">
-        <v>1.776642826673861</v>
+        <v>0.9735989669621854</v>
       </c>
       <c r="I12">
-        <v>1.776642826673861</v>
+        <v>0.9735989669621854</v>
       </c>
       <c r="J12">
-        <v>0.08773681507702411</v>
+        <v>1.072992978345551</v>
       </c>
       <c r="K12">
-        <v>0.3218564699133815</v>
+        <v>1.022366330498055</v>
       </c>
       <c r="L12">
-        <v>0.6156475120409252</v>
+        <v>1.020258535628642</v>
       </c>
       <c r="M12">
-        <v>0.08773681507702411</v>
+        <v>1.072992978345551</v>
       </c>
       <c r="N12">
-        <v>1.776642826673861</v>
+        <v>0.9735989669621854</v>
       </c>
       <c r="O12">
-        <v>0.3218564699133815</v>
+        <v>1.022366330498055</v>
       </c>
       <c r="P12">
-        <v>0.2047966424952028</v>
+        <v>1.047679654421803</v>
       </c>
       <c r="Q12">
-        <v>0.7963265605203798</v>
+        <v>1.003432157671657</v>
       </c>
       <c r="R12">
-        <v>0.7287453705547554</v>
+        <v>1.022986091935264</v>
       </c>
       <c r="S12">
-        <v>0.5601299787059278</v>
+        <v>1.026619097896288</v>
       </c>
       <c r="T12">
-        <v>0.7287453705547554</v>
+        <v>1.022986091935264</v>
       </c>
       <c r="U12">
-        <v>0.8642581906979111</v>
+        <v>1.013364065162762</v>
       </c>
       <c r="V12">
-        <v>1.046735117893101</v>
+        <v>1.005411045522647</v>
       </c>
       <c r="W12">
-        <v>0.9028760822374901</v>
+        <v>1.006480387557323</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7775764663439729</v>
+        <v>1.050861055319817</v>
       </c>
       <c r="D13">
-        <v>0.6616939008335981</v>
+        <v>0.9125277789913232</v>
       </c>
       <c r="E13">
-        <v>1.19400673911063</v>
+        <v>0.959755606653438</v>
       </c>
       <c r="F13">
-        <v>0.4024563136100975</v>
+        <v>0.9439740651118288</v>
       </c>
       <c r="G13">
-        <v>1.386083954800485</v>
+        <v>0.9110956763111696</v>
       </c>
       <c r="H13">
-        <v>1.386083954800485</v>
+        <v>0.9110956763111696</v>
       </c>
       <c r="I13">
-        <v>1.386083954800485</v>
+        <v>0.9110956763111696</v>
       </c>
       <c r="J13">
-        <v>1.045772899733318</v>
+        <v>1.250733787730523</v>
       </c>
       <c r="K13">
-        <v>1.715653053211375</v>
+        <v>1.082834018009193</v>
       </c>
       <c r="L13">
-        <v>1.168360903391125</v>
+        <v>1.0705440260392</v>
       </c>
       <c r="M13">
-        <v>1.045772899733318</v>
+        <v>1.250733787730523</v>
       </c>
       <c r="N13">
-        <v>1.386083954800485</v>
+        <v>0.9110956763111696</v>
       </c>
       <c r="O13">
-        <v>1.715653053211375</v>
+        <v>1.082834018009193</v>
       </c>
       <c r="P13">
-        <v>1.380712976472346</v>
+        <v>1.166783902869858</v>
       </c>
       <c r="Q13">
-        <v>1.059054683410736</v>
+        <v>1.013404041560511</v>
       </c>
       <c r="R13">
-        <v>1.382503302581726</v>
+        <v>1.081554494016962</v>
       </c>
       <c r="S13">
-        <v>1.05462742218493</v>
+        <v>1.092513956950515</v>
       </c>
       <c r="T13">
-        <v>1.382503302581726</v>
+        <v>1.081554494016962</v>
       </c>
       <c r="U13">
-        <v>1.137491555338819</v>
+        <v>1.047159386790679</v>
       </c>
       <c r="V13">
-        <v>1.187210035231152</v>
+        <v>1.019946644694777</v>
       </c>
       <c r="W13">
-        <v>1.043950528879325</v>
+        <v>1.022790751770811</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4245048572305005</v>
+        <v>1.065431540398049</v>
       </c>
       <c r="D14">
-        <v>0.4796082259608624</v>
+        <v>0.8867245762363478</v>
       </c>
       <c r="E14">
-        <v>1.688650531238298</v>
+        <v>0.9452191058829</v>
       </c>
       <c r="F14">
-        <v>0.6200218931135497</v>
+        <v>0.9281474391291786</v>
       </c>
       <c r="G14">
-        <v>0.06967064365041069</v>
+        <v>0.8820451394835682</v>
       </c>
       <c r="H14">
-        <v>0.06967064365041069</v>
+        <v>0.8820451394835682</v>
       </c>
       <c r="I14">
-        <v>0.06967064365041069</v>
+        <v>0.8820451394835682</v>
       </c>
       <c r="J14">
-        <v>0.08778695144515751</v>
+        <v>1.344969772097135</v>
       </c>
       <c r="K14">
-        <v>2.479441576350061</v>
+        <v>1.100904774415052</v>
       </c>
       <c r="L14">
-        <v>1.436600523399709</v>
+        <v>1.094832588935186</v>
       </c>
       <c r="M14">
-        <v>0.08778695144515751</v>
+        <v>1.344969772097135</v>
       </c>
       <c r="N14">
-        <v>0.06967064365041069</v>
+        <v>0.8820451394835682</v>
       </c>
       <c r="O14">
-        <v>2.479441576350061</v>
+        <v>1.100904774415052</v>
       </c>
       <c r="P14">
-        <v>1.283614263897609</v>
+        <v>1.222937273256093</v>
       </c>
       <c r="Q14">
-        <v>1.549731734731805</v>
+        <v>1.014526106772115</v>
       </c>
       <c r="R14">
-        <v>0.8789663904818763</v>
+        <v>1.109306561998585</v>
       </c>
       <c r="S14">
-        <v>1.062416806969589</v>
+        <v>1.124673995213788</v>
       </c>
       <c r="T14">
-        <v>0.8789663904818763</v>
+        <v>1.109306561998585</v>
       </c>
       <c r="U14">
-        <v>0.8142302661397947</v>
+        <v>1.064016781281233</v>
       </c>
       <c r="V14">
-        <v>0.6653183416419178</v>
+        <v>1.0276224529217</v>
       </c>
       <c r="W14">
-        <v>0.9107856502985686</v>
+        <v>1.031034367072177</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.14296945523506</v>
+        <v>1.021586823532618</v>
       </c>
       <c r="D15">
-        <v>1.452558459160359</v>
+        <v>0.959649464367766</v>
       </c>
       <c r="E15">
-        <v>0.7770676009839536</v>
+        <v>0.9784350888766419</v>
       </c>
       <c r="F15">
-        <v>1.278324178475013</v>
+        <v>0.9705780636598259</v>
       </c>
       <c r="G15">
-        <v>1.232729222016997</v>
+        <v>0.9596568246282295</v>
       </c>
       <c r="H15">
-        <v>1.232729222016997</v>
+        <v>0.9596568246282295</v>
       </c>
       <c r="I15">
-        <v>1.232729222016997</v>
+        <v>0.9596568246282295</v>
       </c>
       <c r="J15">
-        <v>1.050513637669476</v>
+        <v>1.125930036964292</v>
       </c>
       <c r="K15">
-        <v>0.3204352799556485</v>
+        <v>1.036030106701709</v>
       </c>
       <c r="L15">
-        <v>0.698709861847687</v>
+        <v>1.036201300799908</v>
       </c>
       <c r="M15">
-        <v>1.050513637669476</v>
+        <v>1.125930036964292</v>
       </c>
       <c r="N15">
-        <v>1.232729222016997</v>
+        <v>0.9596568246282295</v>
       </c>
       <c r="O15">
-        <v>0.3204352799556485</v>
+        <v>1.036030106701709</v>
       </c>
       <c r="P15">
-        <v>0.6854744588125622</v>
+        <v>1.080980071833</v>
       </c>
       <c r="Q15">
-        <v>0.7993797292153307</v>
+        <v>1.003304085180768</v>
       </c>
       <c r="R15">
-        <v>0.8678927132140405</v>
+        <v>1.04053898943141</v>
       </c>
       <c r="S15">
-        <v>0.8830910320333792</v>
+        <v>1.044179402441942</v>
       </c>
       <c r="T15">
-        <v>0.8678927132140405</v>
+        <v>1.04053898943141</v>
       </c>
       <c r="U15">
-        <v>0.9705005795292836</v>
+        <v>1.023048757988514</v>
       </c>
       <c r="V15">
-        <v>1.022946308026826</v>
+        <v>1.010370371316457</v>
       </c>
       <c r="W15">
-        <v>0.9941634619180243</v>
+        <v>1.011008463691374</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.501729561181725</v>
+        <v>1.042376477274894</v>
       </c>
       <c r="D16">
-        <v>0.2602217590523916</v>
+        <v>0.9260153996641869</v>
       </c>
       <c r="E16">
-        <v>0.6072853782146768</v>
+        <v>0.9571313675368037</v>
       </c>
       <c r="F16">
-        <v>0.5702218200658633</v>
+        <v>0.9471392293895287</v>
       </c>
       <c r="G16">
-        <v>0.1980865205597153</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="H16">
-        <v>0.1980865205597153</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="I16">
-        <v>0.1980865205597153</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="J16">
-        <v>3.281947792101732</v>
+        <v>1.236182133805722</v>
       </c>
       <c r="K16">
-        <v>1.5656459849924</v>
+        <v>1.064224078968316</v>
       </c>
       <c r="L16">
-        <v>1.609397343003555</v>
+        <v>1.067910217664507</v>
       </c>
       <c r="M16">
-        <v>3.281947792101732</v>
+        <v>1.236182133805722</v>
       </c>
       <c r="N16">
-        <v>0.1980865205597153</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="O16">
-        <v>1.5656459849924</v>
+        <v>1.064224078968316</v>
       </c>
       <c r="P16">
-        <v>2.423796888547066</v>
+        <v>1.150203106387019</v>
       </c>
       <c r="Q16">
-        <v>1.067933902529131</v>
+        <v>1.005681654178922</v>
       </c>
       <c r="R16">
-        <v>1.681893432551282</v>
+        <v>1.0733331938933</v>
       </c>
       <c r="S16">
-        <v>1.805938532386665</v>
+        <v>1.082515147387856</v>
       </c>
       <c r="T16">
-        <v>1.681893432551282</v>
+        <v>1.0733331938933</v>
       </c>
       <c r="U16">
-        <v>1.403975529429928</v>
+        <v>1.041784702767357</v>
       </c>
       <c r="V16">
-        <v>1.162797727655885</v>
+        <v>1.017346435995058</v>
       </c>
       <c r="W16">
-        <v>1.199317019896507</v>
+        <v>1.020071534151227</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.455204542654145</v>
+        <v>1.065618830399128</v>
       </c>
       <c r="D17">
-        <v>0.4556786955944249</v>
+        <v>0.8581780003502518</v>
       </c>
       <c r="E17">
-        <v>0.6763453821020488</v>
+        <v>0.9141264896620646</v>
       </c>
       <c r="F17">
-        <v>0.7086927664552444</v>
+        <v>0.8982866378811838</v>
       </c>
       <c r="G17">
-        <v>0.394400692510626</v>
+        <v>0.8552452560998917</v>
       </c>
       <c r="H17">
-        <v>0.394400692510626</v>
+        <v>0.8552452560998917</v>
       </c>
       <c r="I17">
-        <v>0.394400692510626</v>
+        <v>0.8552452560998917</v>
       </c>
       <c r="J17">
-        <v>2.952720880817494</v>
+        <v>1.48343845285025</v>
       </c>
       <c r="K17">
-        <v>1.320160385925407</v>
+        <v>1.134359173525847</v>
       </c>
       <c r="L17">
-        <v>1.394632294530849</v>
+        <v>1.136912022272485</v>
       </c>
       <c r="M17">
-        <v>2.952720880817494</v>
+        <v>1.48343845285025</v>
       </c>
       <c r="N17">
-        <v>0.394400692510626</v>
+        <v>0.8552452560998917</v>
       </c>
       <c r="O17">
-        <v>1.320160385925407</v>
+        <v>1.134359173525847</v>
       </c>
       <c r="P17">
-        <v>2.13644063337145</v>
+        <v>1.308898813188049</v>
       </c>
       <c r="Q17">
-        <v>1.014426576190326</v>
+        <v>1.016322905703515</v>
       </c>
       <c r="R17">
-        <v>1.555760653084509</v>
+        <v>1.15768096082533</v>
       </c>
       <c r="S17">
-        <v>1.660524677732715</v>
+        <v>1.17202808808576</v>
       </c>
       <c r="T17">
-        <v>1.555760653084509</v>
+        <v>1.15768096082533</v>
       </c>
       <c r="U17">
-        <v>1.343993681427193</v>
+        <v>1.092832380089293</v>
       </c>
       <c r="V17">
-        <v>1.154075083643879</v>
+        <v>1.045314955291413</v>
       </c>
       <c r="W17">
-        <v>1.16972945507378</v>
+        <v>1.043270607880138</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.361428413741613</v>
+        <v>1.045234464782036</v>
       </c>
       <c r="D18">
-        <v>0.8458856084586135</v>
+        <v>0.8574205850195697</v>
       </c>
       <c r="E18">
-        <v>0.8146285296850746</v>
+        <v>0.7910807709347837</v>
       </c>
       <c r="F18">
-        <v>0.9852755156588561</v>
+        <v>0.7843051067973776</v>
       </c>
       <c r="G18">
-        <v>0.7862781505298861</v>
+        <v>0.7059099720608917</v>
       </c>
       <c r="H18">
-        <v>0.7862781505298861</v>
+        <v>0.7059099720608917</v>
       </c>
       <c r="I18">
-        <v>0.7862781505298861</v>
+        <v>0.7059099720608917</v>
       </c>
       <c r="J18">
-        <v>2.286586310902549</v>
+        <v>1.779055650577434</v>
       </c>
       <c r="K18">
-        <v>0.8315507117708201</v>
+        <v>1.279631023137138</v>
       </c>
       <c r="L18">
-        <v>0.9672259475900042</v>
+        <v>1.277146278342816</v>
       </c>
       <c r="M18">
-        <v>2.286586310902549</v>
+        <v>1.779055650577434</v>
       </c>
       <c r="N18">
-        <v>0.7862781505298861</v>
+        <v>0.7059099720608917</v>
       </c>
       <c r="O18">
-        <v>0.8315507117708201</v>
+        <v>1.279631023137138</v>
       </c>
       <c r="P18">
-        <v>1.559068511336685</v>
+        <v>1.529343336857286</v>
       </c>
       <c r="Q18">
-        <v>0.9084131137148381</v>
+        <v>1.031968064967258</v>
       </c>
       <c r="R18">
-        <v>1.301471724401085</v>
+        <v>1.254865548591821</v>
       </c>
       <c r="S18">
-        <v>1.367804179444075</v>
+        <v>1.28099726017065</v>
       </c>
       <c r="T18">
-        <v>1.301471724401085</v>
+        <v>1.254865548591821</v>
       </c>
       <c r="U18">
-        <v>1.222422672215528</v>
+        <v>1.137225438143211</v>
       </c>
       <c r="V18">
-        <v>1.135193767878399</v>
+        <v>1.050962344926747</v>
       </c>
       <c r="W18">
-        <v>1.109857398542177</v>
+        <v>1.064972981456506</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.383191752138456</v>
+        <v>1.002348442708834</v>
       </c>
       <c r="D19">
-        <v>0.7556100537512668</v>
+        <v>0.9988296066942025</v>
       </c>
       <c r="E19">
-        <v>0.8534687130188695</v>
+        <v>0.9986807627975594</v>
       </c>
       <c r="F19">
-        <v>0.8600029778280686</v>
+        <v>0.9990466149198383</v>
       </c>
       <c r="G19">
-        <v>0.8867379529314829</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="H19">
-        <v>0.8867379529314829</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="I19">
-        <v>0.8867379529314829</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="J19">
-        <v>2.735706134740153</v>
+        <v>1.016472351925975</v>
       </c>
       <c r="K19">
-        <v>0.8841603443545032</v>
+        <v>0.9986494786681364</v>
       </c>
       <c r="L19">
-        <v>0.9026126108550261</v>
+        <v>0.9990715527380405</v>
       </c>
       <c r="M19">
-        <v>2.735706134740153</v>
+        <v>1.016472351925975</v>
       </c>
       <c r="N19">
-        <v>0.8867379529314829</v>
+        <v>0.998595341042789</v>
       </c>
       <c r="O19">
-        <v>0.8841603443545032</v>
+        <v>0.9986494786681364</v>
       </c>
       <c r="P19">
-        <v>1.809933239547328</v>
+        <v>1.007560915297056</v>
       </c>
       <c r="Q19">
-        <v>0.8720816610912858</v>
+        <v>0.9988480467939873</v>
       </c>
       <c r="R19">
-        <v>1.502201477342046</v>
+        <v>1.004572390545633</v>
       </c>
       <c r="S19">
-        <v>1.493289818974241</v>
+        <v>1.004722815171317</v>
       </c>
       <c r="T19">
-        <v>1.502201477342046</v>
+        <v>1.004572390545634</v>
       </c>
       <c r="U19">
-        <v>1.341651852463552</v>
+        <v>1.003190946639185</v>
       </c>
       <c r="V19">
-        <v>1.250669072557138</v>
+        <v>1.002271825519906</v>
       </c>
       <c r="W19">
-        <v>1.157686317452228</v>
+        <v>1.001461768936922</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9993637428498556</v>
+        <v>1.007007015384535</v>
       </c>
       <c r="D20">
-        <v>1.00085318280275</v>
+        <v>0.9955895762421789</v>
       </c>
       <c r="E20">
-        <v>0.9996098327689438</v>
+        <v>0.9963671788435361</v>
       </c>
       <c r="F20">
-        <v>0.9999310610491722</v>
+        <v>0.9981083918425919</v>
       </c>
       <c r="G20">
-        <v>1.000326059968454</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="H20">
-        <v>1.000326059968454</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="I20">
-        <v>1.000326059968454</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="J20">
-        <v>1.007960178928386</v>
+        <v>1.042648640819118</v>
       </c>
       <c r="K20">
-        <v>0.9967545633921079</v>
+        <v>0.9962161164480904</v>
       </c>
       <c r="L20">
-        <v>0.9991962082552593</v>
+        <v>0.9976110029654525</v>
       </c>
       <c r="M20">
-        <v>1.007960178928386</v>
+        <v>1.042648640819118</v>
       </c>
       <c r="N20">
-        <v>1.000326059968454</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="O20">
-        <v>0.9967545633921079</v>
+        <v>0.9962161164480904</v>
       </c>
       <c r="P20">
-        <v>1.002357371160247</v>
+        <v>1.019432378633604</v>
       </c>
       <c r="Q20">
-        <v>0.99834281222064</v>
+        <v>0.9971622541453411</v>
       </c>
       <c r="R20">
-        <v>1.001680267429649</v>
+        <v>1.012110451708459</v>
       </c>
       <c r="S20">
-        <v>1.001548601123222</v>
+        <v>1.0123243830366</v>
       </c>
       <c r="T20">
-        <v>1.001680267429649</v>
+        <v>1.012110451708459</v>
       </c>
       <c r="U20">
-        <v>1.00124296583453</v>
+        <v>1.008609936741992</v>
       </c>
       <c r="V20">
-        <v>1.001059584661315</v>
+        <v>1.006381268965227</v>
       </c>
       <c r="W20">
-        <v>1.000499353751866</v>
+        <v>1.003876815050459</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.004315936195868</v>
+        <v>1.010330658372596</v>
       </c>
       <c r="D21">
-        <v>0.9977314616443103</v>
+        <v>0.9950872408345374</v>
       </c>
       <c r="E21">
-        <v>0.9992239063189589</v>
+        <v>0.9948341810682158</v>
       </c>
       <c r="F21">
-        <v>0.9979079924672032</v>
+        <v>0.997120150821739</v>
       </c>
       <c r="G21">
-        <v>0.9956905623553521</v>
+        <v>0.9936043865654811</v>
       </c>
       <c r="H21">
-        <v>0.9956905623553521</v>
+        <v>0.9936043865654811</v>
       </c>
       <c r="I21">
-        <v>0.9956905623553521</v>
+        <v>0.9936043865654811</v>
       </c>
       <c r="J21">
-        <v>1.009772907272094</v>
+        <v>1.060209295705491</v>
       </c>
       <c r="K21">
-        <v>1.004205590751649</v>
+        <v>0.9942176118145475</v>
       </c>
       <c r="L21">
-        <v>0.9977213057478186</v>
+        <v>0.996472596239626</v>
       </c>
       <c r="M21">
-        <v>1.009772907272094</v>
+        <v>1.060209295705491</v>
       </c>
       <c r="N21">
-        <v>0.9956905623553521</v>
+        <v>0.9936043865654811</v>
       </c>
       <c r="O21">
-        <v>1.004205590751649</v>
+        <v>0.9942176118145475</v>
       </c>
       <c r="P21">
-        <v>1.006989249011871</v>
+        <v>1.027213453760019</v>
       </c>
       <c r="Q21">
-        <v>1.001056791609426</v>
+        <v>0.9956688813181432</v>
       </c>
       <c r="R21">
-        <v>1.003223020126365</v>
+        <v>1.01601043136184</v>
       </c>
       <c r="S21">
-        <v>1.003962163496982</v>
+        <v>1.017182352780592</v>
       </c>
       <c r="T21">
-        <v>1.003223020126365</v>
+        <v>1.01601043136184</v>
       </c>
       <c r="U21">
-        <v>1.001894263211575</v>
+        <v>1.011287861226815</v>
       </c>
       <c r="V21">
-        <v>1.00065352304033</v>
+        <v>1.007751166294548</v>
       </c>
       <c r="W21">
-        <v>1.000821207844157</v>
+        <v>1.005234515177779</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9963487265561007</v>
+        <v>1.021365538310073</v>
       </c>
       <c r="D22">
-        <v>0.9934180823880113</v>
+        <v>0.9903457019342092</v>
       </c>
       <c r="E22">
-        <v>0.9866417953286036</v>
+        <v>0.9887464569148783</v>
       </c>
       <c r="F22">
-        <v>0.9902354505656015</v>
+        <v>0.9944528806216169</v>
       </c>
       <c r="G22">
-        <v>0.9824361395027095</v>
+        <v>0.9855428405368363</v>
       </c>
       <c r="H22">
-        <v>0.9824361395027095</v>
+        <v>0.9855428405368363</v>
       </c>
       <c r="I22">
-        <v>0.9824361395027095</v>
+        <v>0.9855428405368363</v>
       </c>
       <c r="J22">
-        <v>1.067451582533976</v>
+        <v>1.131369199110381</v>
       </c>
       <c r="K22">
-        <v>0.9926575017344336</v>
+        <v>0.9886956334514723</v>
       </c>
       <c r="L22">
-        <v>1.020915521131927</v>
+        <v>0.9919587945731609</v>
       </c>
       <c r="M22">
-        <v>1.067451582533976</v>
+        <v>1.131369199110381</v>
       </c>
       <c r="N22">
-        <v>0.9824361395027095</v>
+        <v>0.9855428405368363</v>
       </c>
       <c r="O22">
-        <v>0.9926575017344336</v>
+        <v>0.9886956334514723</v>
       </c>
       <c r="P22">
-        <v>1.030054542134205</v>
+        <v>1.060032416280926</v>
       </c>
       <c r="Q22">
-        <v>0.9914464761500175</v>
+        <v>0.9915742570365446</v>
       </c>
       <c r="R22">
-        <v>1.01418174125704</v>
+        <v>1.035202557699563</v>
       </c>
       <c r="S22">
-        <v>1.016781511611337</v>
+        <v>1.038172571061157</v>
       </c>
       <c r="T22">
-        <v>1.01418174125704</v>
+        <v>1.035202557699563</v>
       </c>
       <c r="U22">
-        <v>1.00819516858418</v>
+        <v>1.025015138430077</v>
       </c>
       <c r="V22">
-        <v>1.003043362767886</v>
+        <v>1.017120678851428</v>
       </c>
       <c r="W22">
-        <v>1.00376309996767</v>
+        <v>1.011559630681578</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.03851753328971</v>
+      </c>
+      <c r="D23">
+        <v>0.9813675773827538</v>
+      </c>
+      <c r="E23">
+        <v>0.9817626760107501</v>
+      </c>
+      <c r="F23">
+        <v>0.990969046110978</v>
+      </c>
+      <c r="G23">
+        <v>0.9804402169240941</v>
+      </c>
+      <c r="H23">
+        <v>0.9804402169240941</v>
+      </c>
+      <c r="I23">
+        <v>0.9804402169240941</v>
+      </c>
+      <c r="J23">
+        <v>1.222885826242957</v>
+      </c>
+      <c r="K23">
+        <v>0.9816717875207251</v>
+      </c>
+      <c r="L23">
+        <v>0.9866888956063408</v>
+      </c>
+      <c r="M23">
+        <v>1.222885826242957</v>
+      </c>
+      <c r="N23">
+        <v>0.9804402169240941</v>
+      </c>
+      <c r="O23">
+        <v>0.9816717875207251</v>
+      </c>
+      <c r="P23">
+        <v>1.102278806881841</v>
+      </c>
+      <c r="Q23">
+        <v>0.9863204168158516</v>
+      </c>
+      <c r="R23">
+        <v>1.061665943562592</v>
+      </c>
+      <c r="S23">
+        <v>1.065175553291553</v>
+      </c>
+      <c r="T23">
+        <v>1.061665943562592</v>
+      </c>
+      <c r="U23">
+        <v>1.043991719199689</v>
+      </c>
+      <c r="V23">
+        <v>1.03128141874457</v>
+      </c>
+      <c r="W23">
+        <v>1.020537944886039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.660876651418285</v>
+      </c>
+      <c r="D24">
+        <v>1.427669694193638</v>
+      </c>
+      <c r="E24">
+        <v>1.061782037455428</v>
+      </c>
+      <c r="F24">
+        <v>1.270796651127378</v>
+      </c>
+      <c r="G24">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="H24">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="I24">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="J24">
+        <v>0.08773681507702411</v>
+      </c>
+      <c r="K24">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="L24">
+        <v>0.6156475120409252</v>
+      </c>
+      <c r="M24">
+        <v>0.08773681507702411</v>
+      </c>
+      <c r="N24">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="O24">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="P24">
+        <v>0.2047966424952028</v>
+      </c>
+      <c r="Q24">
+        <v>0.7963265605203798</v>
+      </c>
+      <c r="R24">
+        <v>0.7287453705547554</v>
+      </c>
+      <c r="S24">
+        <v>0.5601299787059278</v>
+      </c>
+      <c r="T24">
+        <v>0.7287453705547554</v>
+      </c>
+      <c r="U24">
+        <v>0.8642581906979111</v>
+      </c>
+      <c r="V24">
+        <v>1.046735117893101</v>
+      </c>
+      <c r="W24">
+        <v>0.9028760822374901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7775764663439729</v>
+      </c>
+      <c r="D25">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="E25">
+        <v>1.19400673911063</v>
+      </c>
+      <c r="F25">
+        <v>0.4024563136100975</v>
+      </c>
+      <c r="G25">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="H25">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="I25">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="J25">
+        <v>1.045772899733318</v>
+      </c>
+      <c r="K25">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="L25">
+        <v>1.168360903391125</v>
+      </c>
+      <c r="M25">
+        <v>1.045772899733318</v>
+      </c>
+      <c r="N25">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="O25">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="P25">
+        <v>1.380712976472346</v>
+      </c>
+      <c r="Q25">
+        <v>1.059054683410736</v>
+      </c>
+      <c r="R25">
+        <v>1.382503302581726</v>
+      </c>
+      <c r="S25">
+        <v>1.05462742218493</v>
+      </c>
+      <c r="T25">
+        <v>1.382503302581726</v>
+      </c>
+      <c r="U25">
+        <v>1.137491555338819</v>
+      </c>
+      <c r="V25">
+        <v>1.187210035231152</v>
+      </c>
+      <c r="W25">
+        <v>1.043950528879325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4245048572305005</v>
+      </c>
+      <c r="D26">
+        <v>0.4796082259608624</v>
+      </c>
+      <c r="E26">
+        <v>1.688650531238298</v>
+      </c>
+      <c r="F26">
+        <v>0.6200218931135497</v>
+      </c>
+      <c r="G26">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="H26">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="I26">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="J26">
+        <v>0.08778695144515751</v>
+      </c>
+      <c r="K26">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="L26">
+        <v>1.436600523399709</v>
+      </c>
+      <c r="M26">
+        <v>0.08778695144515751</v>
+      </c>
+      <c r="N26">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="O26">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="P26">
+        <v>1.283614263897609</v>
+      </c>
+      <c r="Q26">
+        <v>1.549731734731805</v>
+      </c>
+      <c r="R26">
+        <v>0.8789663904818763</v>
+      </c>
+      <c r="S26">
+        <v>1.062416806969589</v>
+      </c>
+      <c r="T26">
+        <v>0.8789663904818763</v>
+      </c>
+      <c r="U26">
+        <v>0.8142302661397947</v>
+      </c>
+      <c r="V26">
+        <v>0.6653183416419178</v>
+      </c>
+      <c r="W26">
+        <v>0.9107856502985686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.14296945523506</v>
+      </c>
+      <c r="D27">
+        <v>1.452558459160359</v>
+      </c>
+      <c r="E27">
+        <v>0.7770676009839536</v>
+      </c>
+      <c r="F27">
+        <v>1.278324178475013</v>
+      </c>
+      <c r="G27">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="H27">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="I27">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="J27">
+        <v>1.050513637669476</v>
+      </c>
+      <c r="K27">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="L27">
+        <v>0.698709861847687</v>
+      </c>
+      <c r="M27">
+        <v>1.050513637669476</v>
+      </c>
+      <c r="N27">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="O27">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="P27">
+        <v>0.6854744588125622</v>
+      </c>
+      <c r="Q27">
+        <v>0.7993797292153307</v>
+      </c>
+      <c r="R27">
+        <v>0.8678927132140405</v>
+      </c>
+      <c r="S27">
+        <v>0.8830910320333792</v>
+      </c>
+      <c r="T27">
+        <v>0.8678927132140405</v>
+      </c>
+      <c r="U27">
+        <v>0.9705005795292836</v>
+      </c>
+      <c r="V27">
+        <v>1.022946308026826</v>
+      </c>
+      <c r="W27">
+        <v>0.9941634619180243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.501729561181725</v>
+      </c>
+      <c r="D28">
+        <v>0.2602217590523916</v>
+      </c>
+      <c r="E28">
+        <v>0.6072853782146768</v>
+      </c>
+      <c r="F28">
+        <v>0.5702218200658633</v>
+      </c>
+      <c r="G28">
+        <v>0.1980865205597153</v>
+      </c>
+      <c r="H28">
+        <v>0.1980865205597153</v>
+      </c>
+      <c r="I28">
+        <v>0.1980865205597153</v>
+      </c>
+      <c r="J28">
+        <v>3.281947792101732</v>
+      </c>
+      <c r="K28">
+        <v>1.5656459849924</v>
+      </c>
+      <c r="L28">
+        <v>1.609397343003555</v>
+      </c>
+      <c r="M28">
+        <v>3.281947792101732</v>
+      </c>
+      <c r="N28">
+        <v>0.1980865205597153</v>
+      </c>
+      <c r="O28">
+        <v>1.5656459849924</v>
+      </c>
+      <c r="P28">
+        <v>2.423796888547066</v>
+      </c>
+      <c r="Q28">
+        <v>1.067933902529131</v>
+      </c>
+      <c r="R28">
+        <v>1.681893432551282</v>
+      </c>
+      <c r="S28">
+        <v>1.805938532386665</v>
+      </c>
+      <c r="T28">
+        <v>1.681893432551282</v>
+      </c>
+      <c r="U28">
+        <v>1.403975529429928</v>
+      </c>
+      <c r="V28">
+        <v>1.162797727655885</v>
+      </c>
+      <c r="W28">
+        <v>1.199317019896507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.455204542654145</v>
+      </c>
+      <c r="D29">
+        <v>0.4556786955944249</v>
+      </c>
+      <c r="E29">
+        <v>0.6763453821020488</v>
+      </c>
+      <c r="F29">
+        <v>0.7086927664552444</v>
+      </c>
+      <c r="G29">
+        <v>0.394400692510626</v>
+      </c>
+      <c r="H29">
+        <v>0.394400692510626</v>
+      </c>
+      <c r="I29">
+        <v>0.394400692510626</v>
+      </c>
+      <c r="J29">
+        <v>2.952720880817494</v>
+      </c>
+      <c r="K29">
+        <v>1.320160385925407</v>
+      </c>
+      <c r="L29">
+        <v>1.394632294530849</v>
+      </c>
+      <c r="M29">
+        <v>2.952720880817494</v>
+      </c>
+      <c r="N29">
+        <v>0.394400692510626</v>
+      </c>
+      <c r="O29">
+        <v>1.320160385925407</v>
+      </c>
+      <c r="P29">
+        <v>2.13644063337145</v>
+      </c>
+      <c r="Q29">
+        <v>1.014426576190326</v>
+      </c>
+      <c r="R29">
+        <v>1.555760653084509</v>
+      </c>
+      <c r="S29">
+        <v>1.660524677732715</v>
+      </c>
+      <c r="T29">
+        <v>1.555760653084509</v>
+      </c>
+      <c r="U29">
+        <v>1.343993681427193</v>
+      </c>
+      <c r="V29">
+        <v>1.154075083643879</v>
+      </c>
+      <c r="W29">
+        <v>1.16972945507378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.361428413741613</v>
+      </c>
+      <c r="D30">
+        <v>0.8458856084586135</v>
+      </c>
+      <c r="E30">
+        <v>0.8146285296850746</v>
+      </c>
+      <c r="F30">
+        <v>0.9852755156588561</v>
+      </c>
+      <c r="G30">
+        <v>0.7862781505298861</v>
+      </c>
+      <c r="H30">
+        <v>0.7862781505298861</v>
+      </c>
+      <c r="I30">
+        <v>0.7862781505298861</v>
+      </c>
+      <c r="J30">
+        <v>2.286586310902549</v>
+      </c>
+      <c r="K30">
+        <v>0.8315507117708201</v>
+      </c>
+      <c r="L30">
+        <v>0.9672259475900042</v>
+      </c>
+      <c r="M30">
+        <v>2.286586310902549</v>
+      </c>
+      <c r="N30">
+        <v>0.7862781505298861</v>
+      </c>
+      <c r="O30">
+        <v>0.8315507117708201</v>
+      </c>
+      <c r="P30">
+        <v>1.559068511336685</v>
+      </c>
+      <c r="Q30">
+        <v>0.9084131137148381</v>
+      </c>
+      <c r="R30">
+        <v>1.301471724401085</v>
+      </c>
+      <c r="S30">
+        <v>1.367804179444075</v>
+      </c>
+      <c r="T30">
+        <v>1.301471724401085</v>
+      </c>
+      <c r="U30">
+        <v>1.222422672215528</v>
+      </c>
+      <c r="V30">
+        <v>1.135193767878399</v>
+      </c>
+      <c r="W30">
+        <v>1.109857398542177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.383191752138456</v>
+      </c>
+      <c r="D31">
+        <v>0.7556100537512668</v>
+      </c>
+      <c r="E31">
+        <v>0.8534687130188695</v>
+      </c>
+      <c r="F31">
+        <v>0.8600029778280686</v>
+      </c>
+      <c r="G31">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="H31">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="I31">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="J31">
+        <v>2.735706134740153</v>
+      </c>
+      <c r="K31">
+        <v>0.8841603443545032</v>
+      </c>
+      <c r="L31">
+        <v>0.9026126108550261</v>
+      </c>
+      <c r="M31">
+        <v>2.735706134740153</v>
+      </c>
+      <c r="N31">
+        <v>0.8867379529314829</v>
+      </c>
+      <c r="O31">
+        <v>0.8841603443545032</v>
+      </c>
+      <c r="P31">
+        <v>1.809933239547328</v>
+      </c>
+      <c r="Q31">
+        <v>0.8720816610912858</v>
+      </c>
+      <c r="R31">
+        <v>1.502201477342046</v>
+      </c>
+      <c r="S31">
+        <v>1.493289818974241</v>
+      </c>
+      <c r="T31">
+        <v>1.502201477342046</v>
+      </c>
+      <c r="U31">
+        <v>1.341651852463552</v>
+      </c>
+      <c r="V31">
+        <v>1.250669072557138</v>
+      </c>
+      <c r="W31">
+        <v>1.157686317452228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.565122554460275</v>
+      </c>
+      <c r="D32">
+        <v>0.06343907497260275</v>
+      </c>
+      <c r="E32">
+        <v>0.5303198361758906</v>
+      </c>
+      <c r="F32">
+        <v>0.4277807186301369</v>
+      </c>
+      <c r="G32">
+        <v>0.001251438003835616</v>
+      </c>
+      <c r="H32">
+        <v>0.001251438003835616</v>
+      </c>
+      <c r="I32">
+        <v>0.001251438003835616</v>
+      </c>
+      <c r="J32">
+        <v>3.781065092736985</v>
+      </c>
+      <c r="K32">
+        <v>1.78551079483926</v>
+      </c>
+      <c r="L32">
+        <v>1.79988401589041</v>
+      </c>
+      <c r="M32">
+        <v>3.781065092736985</v>
+      </c>
+      <c r="N32">
+        <v>0.001251438003835616</v>
+      </c>
+      <c r="O32">
+        <v>1.78551079483926</v>
+      </c>
+      <c r="P32">
+        <v>2.783287943788123</v>
+      </c>
+      <c r="Q32">
+        <v>1.106645756734699</v>
+      </c>
+      <c r="R32">
+        <v>1.855942441860027</v>
+      </c>
+      <c r="S32">
+        <v>1.998118868735461</v>
+      </c>
+      <c r="T32">
+        <v>1.855942441860027</v>
+      </c>
+      <c r="U32">
+        <v>1.498902011052555</v>
+      </c>
+      <c r="V32">
+        <v>1.199371896442811</v>
+      </c>
+      <c r="W32">
+        <v>1.244296690713675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.610215453626316</v>
+      </c>
+      <c r="D33">
+        <v>0.06109292085263159</v>
+      </c>
+      <c r="E33">
+        <v>0.5094802321252631</v>
+      </c>
+      <c r="F33">
+        <v>0.4179614952631579</v>
+      </c>
+      <c r="G33">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="H33">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="I33">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="J33">
+        <v>4.236078957497369</v>
+      </c>
+      <c r="K33">
+        <v>1.715055710909737</v>
+      </c>
+      <c r="L33">
+        <v>1.733220705789474</v>
+      </c>
+      <c r="M33">
+        <v>4.236078957497369</v>
+      </c>
+      <c r="N33">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="O33">
+        <v>1.715055710909737</v>
+      </c>
+      <c r="P33">
+        <v>2.975567334203553</v>
+      </c>
+      <c r="Q33">
+        <v>1.066508603086447</v>
+      </c>
+      <c r="R33">
+        <v>1.984069397946579</v>
+      </c>
+      <c r="S33">
+        <v>2.123032054556754</v>
+      </c>
+      <c r="T33">
+        <v>1.984069397946579</v>
+      </c>
+      <c r="U33">
+        <v>1.592542422275724</v>
+      </c>
+      <c r="V33">
+        <v>1.274248642907105</v>
+      </c>
+      <c r="W33">
+        <v>1.285522375187072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.610215453626316</v>
+      </c>
+      <c r="D34">
+        <v>0.06109292085263159</v>
+      </c>
+      <c r="E34">
+        <v>0.5094802321252631</v>
+      </c>
+      <c r="F34">
+        <v>0.4179614952631579</v>
+      </c>
+      <c r="G34">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="H34">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="I34">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="J34">
+        <v>4.236078957496842</v>
+      </c>
+      <c r="K34">
+        <v>1.715055710909737</v>
+      </c>
+      <c r="L34">
+        <v>1.733220705789474</v>
+      </c>
+      <c r="M34">
+        <v>4.236078957496842</v>
+      </c>
+      <c r="N34">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="O34">
+        <v>1.715055710909737</v>
+      </c>
+      <c r="P34">
+        <v>2.975567334203289</v>
+      </c>
+      <c r="Q34">
+        <v>1.066508603086447</v>
+      </c>
+      <c r="R34">
+        <v>1.984069397946403</v>
+      </c>
+      <c r="S34">
+        <v>2.123032054556579</v>
+      </c>
+      <c r="T34">
+        <v>1.984069397946403</v>
+      </c>
+      <c r="U34">
+        <v>1.592542422275592</v>
+      </c>
+      <c r="V34">
+        <v>1.274248642907</v>
+      </c>
+      <c r="W34">
+        <v>1.285522375187007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>2.031936812507892</v>
+      </c>
+      <c r="D35">
+        <v>0.4282332769150691</v>
+      </c>
+      <c r="E35">
+        <v>0.410458577785469</v>
+      </c>
+      <c r="F35">
+        <v>0.5848528564178073</v>
+      </c>
+      <c r="G35">
+        <v>0.3948905199154836</v>
+      </c>
+      <c r="H35">
+        <v>0.3948905199154836</v>
+      </c>
+      <c r="I35">
+        <v>0.3948905199154836</v>
+      </c>
+      <c r="J35">
+        <v>8.773531102745347</v>
+      </c>
+      <c r="K35">
+        <v>0.4148113736716975</v>
+      </c>
+      <c r="L35">
+        <v>0.5382601927955851</v>
+      </c>
+      <c r="M35">
+        <v>8.773531102745347</v>
+      </c>
+      <c r="N35">
+        <v>0.3948905199154836</v>
+      </c>
+      <c r="O35">
+        <v>0.4148113736716975</v>
+      </c>
+      <c r="P35">
+        <v>4.594171238208522</v>
+      </c>
+      <c r="Q35">
+        <v>0.4998321150447524</v>
+      </c>
+      <c r="R35">
+        <v>3.19441099877751</v>
+      </c>
+      <c r="S35">
+        <v>3.257731777611617</v>
+      </c>
+      <c r="T35">
+        <v>3.19441099877751</v>
+      </c>
+      <c r="U35">
+        <v>2.542021463187584</v>
+      </c>
+      <c r="V35">
+        <v>2.112595274533164</v>
+      </c>
+      <c r="W35">
+        <v>1.697121839094294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9993637428498556</v>
+      </c>
+      <c r="D36">
+        <v>1.00085318280275</v>
+      </c>
+      <c r="E36">
+        <v>0.9996098327689438</v>
+      </c>
+      <c r="F36">
+        <v>0.9999310610491722</v>
+      </c>
+      <c r="G36">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="H36">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="I36">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="J36">
+        <v>1.007960178928386</v>
+      </c>
+      <c r="K36">
+        <v>0.9967545633921079</v>
+      </c>
+      <c r="L36">
+        <v>0.9991962082552593</v>
+      </c>
+      <c r="M36">
+        <v>1.007960178928386</v>
+      </c>
+      <c r="N36">
+        <v>1.000326059968454</v>
+      </c>
+      <c r="O36">
+        <v>0.9967545633921079</v>
+      </c>
+      <c r="P36">
+        <v>1.002357371160247</v>
+      </c>
+      <c r="Q36">
+        <v>0.99834281222064</v>
+      </c>
+      <c r="R36">
+        <v>1.001680267429649</v>
+      </c>
+      <c r="S36">
+        <v>1.001548601123222</v>
+      </c>
+      <c r="T36">
+        <v>1.001680267429649</v>
+      </c>
+      <c r="U36">
+        <v>1.00124296583453</v>
+      </c>
+      <c r="V36">
+        <v>1.001059584661315</v>
+      </c>
+      <c r="W36">
+        <v>1.000499353751866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.004315936195868</v>
+      </c>
+      <c r="D37">
+        <v>0.9977314616443103</v>
+      </c>
+      <c r="E37">
+        <v>0.9992239063189589</v>
+      </c>
+      <c r="F37">
+        <v>0.9979079924672032</v>
+      </c>
+      <c r="G37">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="H37">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="I37">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="J37">
+        <v>1.009772907272094</v>
+      </c>
+      <c r="K37">
+        <v>1.004205590751649</v>
+      </c>
+      <c r="L37">
+        <v>0.9977213057478186</v>
+      </c>
+      <c r="M37">
+        <v>1.009772907272094</v>
+      </c>
+      <c r="N37">
+        <v>0.9956905623553521</v>
+      </c>
+      <c r="O37">
+        <v>1.004205590751649</v>
+      </c>
+      <c r="P37">
+        <v>1.006989249011871</v>
+      </c>
+      <c r="Q37">
+        <v>1.001056791609426</v>
+      </c>
+      <c r="R37">
+        <v>1.003223020126365</v>
+      </c>
+      <c r="S37">
+        <v>1.003962163496982</v>
+      </c>
+      <c r="T37">
+        <v>1.003223020126365</v>
+      </c>
+      <c r="U37">
+        <v>1.001894263211575</v>
+      </c>
+      <c r="V37">
+        <v>1.00065352304033</v>
+      </c>
+      <c r="W37">
+        <v>1.000821207844157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9963487265561007</v>
+      </c>
+      <c r="D38">
+        <v>0.9934180823880113</v>
+      </c>
+      <c r="E38">
+        <v>0.9866417953286036</v>
+      </c>
+      <c r="F38">
+        <v>0.9902354505656015</v>
+      </c>
+      <c r="G38">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="H38">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="I38">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="J38">
+        <v>1.067451582533976</v>
+      </c>
+      <c r="K38">
+        <v>0.9926575017344336</v>
+      </c>
+      <c r="L38">
+        <v>1.020915521131927</v>
+      </c>
+      <c r="M38">
+        <v>1.067451582533976</v>
+      </c>
+      <c r="N38">
+        <v>0.9824361395027095</v>
+      </c>
+      <c r="O38">
+        <v>0.9926575017344336</v>
+      </c>
+      <c r="P38">
+        <v>1.030054542134205</v>
+      </c>
+      <c r="Q38">
+        <v>0.9914464761500175</v>
+      </c>
+      <c r="R38">
+        <v>1.01418174125704</v>
+      </c>
+      <c r="S38">
+        <v>1.016781511611337</v>
+      </c>
+      <c r="T38">
+        <v>1.01418174125704</v>
+      </c>
+      <c r="U38">
+        <v>1.00819516858418</v>
+      </c>
+      <c r="V38">
+        <v>1.003043362767886</v>
+      </c>
+      <c r="W38">
+        <v>1.00376309996767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.006066406568989</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9786261394529606</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9787611785893472</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.981303631399551</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9590268200120297</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9590268200120297</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9590268200120297</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.104622480534508</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.022181498117591</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.035647046575315</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.104622480534508</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9590268200120297</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.022181498117591</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.063401989326049</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001742564758571</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.028610266221376</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.036035870017217</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.028610266221376</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.01678360751592</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.005232250015142</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.008279400156286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.368519218242629</v>
+      </c>
+      <c r="D40">
+        <v>0.8354347730597865</v>
+      </c>
+      <c r="E40">
+        <v>0.8142994276591105</v>
+      </c>
+      <c r="F40">
+        <v>0.9879684074624983</v>
+      </c>
+      <c r="G40">
+        <v>0.7736295549325469</v>
+      </c>
+      <c r="H40">
+        <v>0.7736295549325469</v>
+      </c>
+      <c r="I40">
+        <v>0.7736295549325469</v>
+      </c>
+      <c r="J40">
+        <v>2.133125066943822</v>
+      </c>
+      <c r="K40">
+        <v>0.8552546968427708</v>
+      </c>
+      <c r="L40">
+        <v>0.9948214789656357</v>
+      </c>
+      <c r="M40">
+        <v>2.133125066943822</v>
+      </c>
+      <c r="N40">
+        <v>0.7736295549325469</v>
+      </c>
+      <c r="O40">
+        <v>0.8552546968427708</v>
+      </c>
+      <c r="P40">
+        <v>1.494189881893296</v>
+      </c>
+      <c r="Q40">
+        <v>0.9216115521526345</v>
+      </c>
+      <c r="R40">
+        <v>1.254003106239713</v>
+      </c>
+      <c r="S40">
+        <v>1.325449390416364</v>
+      </c>
+      <c r="T40">
+        <v>1.254003106239713</v>
+      </c>
+      <c r="U40">
+        <v>1.187494431545409</v>
+      </c>
+      <c r="V40">
+        <v>1.104721456222837</v>
+      </c>
+      <c r="W40">
+        <v>1.0953815780136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.8436539230071169</v>
+      </c>
+      <c r="D41">
+        <v>1.116945781681075</v>
+      </c>
+      <c r="E41">
+        <v>1.059535589153997</v>
+      </c>
+      <c r="F41">
+        <v>0.9422182621709869</v>
+      </c>
+      <c r="G41">
+        <v>1.357241662202558</v>
+      </c>
+      <c r="H41">
+        <v>1.357241662202558</v>
+      </c>
+      <c r="I41">
+        <v>1.357241662202558</v>
+      </c>
+      <c r="J41">
+        <v>0.791814292755906</v>
+      </c>
+      <c r="K41">
+        <v>0.966671352557076</v>
+      </c>
+      <c r="L41">
+        <v>0.8796838239920808</v>
+      </c>
+      <c r="M41">
+        <v>0.791814292755906</v>
+      </c>
+      <c r="N41">
+        <v>1.357241662202558</v>
+      </c>
+      <c r="O41">
+        <v>0.966671352557076</v>
+      </c>
+      <c r="P41">
+        <v>0.879242822656491</v>
+      </c>
+      <c r="Q41">
+        <v>0.9544448073640315</v>
+      </c>
+      <c r="R41">
+        <v>1.038575769171847</v>
+      </c>
+      <c r="S41">
+        <v>0.9002346358279896</v>
+      </c>
+      <c r="T41">
+        <v>1.038575769171847</v>
+      </c>
+      <c r="U41">
+        <v>1.014486392421632</v>
+      </c>
+      <c r="V41">
+        <v>1.083037446377817</v>
+      </c>
+      <c r="W41">
+        <v>0.9947205859400996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.485905670206567</v>
+      </c>
+      <c r="D42">
+        <v>0.7120575612734921</v>
+      </c>
+      <c r="E42">
+        <v>0.7742379941242349</v>
+      </c>
+      <c r="F42">
+        <v>1.028229163298159</v>
+      </c>
+      <c r="G42">
+        <v>0.2984021492714004</v>
+      </c>
+      <c r="H42">
+        <v>0.2984021492714004</v>
+      </c>
+      <c r="I42">
+        <v>0.2984021492714004</v>
+      </c>
+      <c r="J42">
+        <v>2.257626548520887</v>
+      </c>
+      <c r="K42">
+        <v>0.8918819554026979</v>
+      </c>
+      <c r="L42">
+        <v>1.174033260491087</v>
+      </c>
+      <c r="M42">
+        <v>2.257626548520887</v>
+      </c>
+      <c r="N42">
+        <v>0.2984021492714004</v>
+      </c>
+      <c r="O42">
+        <v>0.8918819554026979</v>
+      </c>
+      <c r="P42">
+        <v>1.574754251961792</v>
+      </c>
+      <c r="Q42">
+        <v>0.9600555593504285</v>
+      </c>
+      <c r="R42">
+        <v>1.149303551064995</v>
+      </c>
+      <c r="S42">
+        <v>1.392579222407248</v>
+      </c>
+      <c r="T42">
+        <v>1.149303551064995</v>
+      </c>
+      <c r="U42">
+        <v>1.119034954123286</v>
+      </c>
+      <c r="V42">
+        <v>0.9549083931529088</v>
+      </c>
+      <c r="W42">
+        <v>1.077796787823566</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9596568246282295</v>
+        <v>1.007007015384535</v>
       </c>
       <c r="D3">
-        <v>1.125930036964292</v>
+        <v>0.9955895762421789</v>
       </c>
       <c r="E3">
-        <v>1.036030106701709</v>
+        <v>0.9963671788435361</v>
       </c>
       <c r="F3">
-        <v>0.9596568246282295</v>
+        <v>0.9981083918425919</v>
       </c>
       <c r="G3">
-        <v>0.9705780636598257</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="H3">
-        <v>0.9784350888766419</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="I3">
-        <v>0.9596568246282295</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="J3">
-        <v>1.125930036964292</v>
+        <v>1.042648640819118</v>
       </c>
       <c r="K3">
-        <v>1.036201300799909</v>
+        <v>0.9962161164480904</v>
       </c>
       <c r="L3">
-        <v>0.959649464367766</v>
+        <v>0.9976110029654525</v>
       </c>
       <c r="M3">
-        <v>1.021586823532618</v>
+        <v>1.042648640819118</v>
       </c>
       <c r="N3">
-        <v>0.9596568246282295</v>
+        <v>0.9974665978581672</v>
       </c>
       <c r="O3">
-        <v>1.036030106701709</v>
+        <v>0.9962161164480904</v>
       </c>
       <c r="P3">
-        <v>1.080980071833</v>
+        <v>1.019432378633604</v>
       </c>
       <c r="Q3">
-        <v>1.003304085180768</v>
+        <v>0.9971622541453411</v>
       </c>
       <c r="R3">
-        <v>1.04053898943141</v>
+        <v>1.012110451708459</v>
       </c>
       <c r="S3">
-        <v>1.044179402441942</v>
+        <v>1.0123243830366</v>
       </c>
       <c r="T3">
-        <v>1.04053898943141</v>
+        <v>1.012110451708459</v>
       </c>
       <c r="U3">
-        <v>1.023048757988514</v>
+        <v>1.008609936741992</v>
       </c>
       <c r="V3">
-        <v>1.010370371316457</v>
+        <v>1.006381268965227</v>
       </c>
       <c r="W3">
-        <v>1.011008463691374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.003876815050459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9195933689058609</v>
+        <v>1.368519218242629</v>
       </c>
       <c r="D4">
-        <v>1.236182133805722</v>
+        <v>0.8354347730597865</v>
       </c>
       <c r="E4">
-        <v>1.064224078968316</v>
+        <v>0.8142994276591105</v>
       </c>
       <c r="F4">
-        <v>0.9195933689058609</v>
+        <v>0.9879684074624983</v>
       </c>
       <c r="G4">
-        <v>0.9471392293895285</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="H4">
-        <v>0.9571313675368037</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="I4">
-        <v>0.9195933689058609</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="J4">
-        <v>1.236182133805722</v>
+        <v>2.133125066943822</v>
       </c>
       <c r="K4">
-        <v>1.067910217664507</v>
+        <v>0.8552546968427708</v>
       </c>
       <c r="L4">
-        <v>0.9260153996641869</v>
+        <v>0.9948214789656357</v>
       </c>
       <c r="M4">
-        <v>1.042376477274894</v>
+        <v>2.133125066943822</v>
       </c>
       <c r="N4">
-        <v>0.9195933689058609</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="O4">
-        <v>1.064224078968316</v>
+        <v>0.8552546968427708</v>
       </c>
       <c r="P4">
-        <v>1.150203106387019</v>
+        <v>1.494189881893296</v>
       </c>
       <c r="Q4">
-        <v>1.005681654178922</v>
+        <v>0.9216115521526345</v>
       </c>
       <c r="R4">
-        <v>1.0733331938933</v>
+        <v>1.254003106239713</v>
       </c>
       <c r="S4">
-        <v>1.082515147387856</v>
+        <v>1.325449390416364</v>
       </c>
       <c r="T4">
-        <v>1.0733331938933</v>
+        <v>1.254003106239713</v>
       </c>
       <c r="U4">
-        <v>1.041784702767357</v>
+        <v>1.187494431545409</v>
       </c>
       <c r="V4">
-        <v>1.017346435995057</v>
+        <v>1.104721456222837</v>
       </c>
       <c r="W4">
-        <v>1.020071534151227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.0953815780136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8552452560998917</v>
+        <v>1.400802427714176</v>
       </c>
       <c r="D5">
-        <v>1.48343845285025</v>
+        <v>0.7987585782818425</v>
       </c>
       <c r="E5">
-        <v>1.134359173525847</v>
+        <v>0.7853138167603624</v>
       </c>
       <c r="F5">
-        <v>0.8552452560998917</v>
+        <v>0.9467503814971158</v>
       </c>
       <c r="G5">
-        <v>0.8982866378811838</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="H5">
-        <v>0.9141264896620646</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="I5">
-        <v>0.8552452560998917</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="J5">
-        <v>1.48343845285025</v>
+        <v>2.650737425273654</v>
       </c>
       <c r="K5">
-        <v>1.136912022272485</v>
+        <v>0.8443567291136985</v>
       </c>
       <c r="L5">
-        <v>0.8581780003502518</v>
+        <v>0.9752996456838299</v>
       </c>
       <c r="M5">
-        <v>1.065618830399129</v>
+        <v>2.650737425273654</v>
       </c>
       <c r="N5">
-        <v>0.8552452560998917</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="O5">
-        <v>1.134359173525847</v>
+        <v>0.8443567291136985</v>
       </c>
       <c r="P5">
-        <v>1.308898813188049</v>
+        <v>1.747547077193676</v>
       </c>
       <c r="Q5">
-        <v>1.016322905703515</v>
+        <v>0.8955535553054071</v>
       </c>
       <c r="R5">
-        <v>1.15768096082533</v>
+        <v>1.41180571064327</v>
       </c>
       <c r="S5">
-        <v>1.17202808808576</v>
+        <v>1.480614845294823</v>
       </c>
       <c r="T5">
-        <v>1.15768096082533</v>
+        <v>1.41180571064327</v>
       </c>
       <c r="U5">
-        <v>1.092832380089293</v>
+        <v>1.295541878356731</v>
       </c>
       <c r="V5">
-        <v>1.045314955291413</v>
+        <v>1.184498098193876</v>
       </c>
       <c r="W5">
-        <v>1.043270607880138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.142792747733392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7059099720608917</v>
+        <v>2.031936812507892</v>
       </c>
       <c r="D6">
-        <v>1.779055650577434</v>
+        <v>0.4282332769150691</v>
       </c>
       <c r="E6">
-        <v>1.279631023137138</v>
+        <v>0.410458577785469</v>
       </c>
       <c r="F6">
-        <v>0.7059099720608917</v>
+        <v>0.5848528564178073</v>
       </c>
       <c r="G6">
-        <v>0.7843051067973776</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="H6">
-        <v>0.7910807709347837</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="I6">
-        <v>0.7059099720608917</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="J6">
-        <v>1.779055650577434</v>
+        <v>8.773531102745347</v>
       </c>
       <c r="K6">
-        <v>1.277146278342816</v>
+        <v>0.4148113736716975</v>
       </c>
       <c r="L6">
-        <v>0.8574205850195696</v>
+        <v>0.5382601927955851</v>
       </c>
       <c r="M6">
-        <v>1.045234464782036</v>
+        <v>8.773531102745347</v>
       </c>
       <c r="N6">
-        <v>0.7059099720608917</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="O6">
-        <v>1.279631023137138</v>
+        <v>0.4148113736716975</v>
       </c>
       <c r="P6">
-        <v>1.529343336857286</v>
+        <v>4.594171238208522</v>
       </c>
       <c r="Q6">
-        <v>1.031968064967258</v>
+        <v>0.4998321150447524</v>
       </c>
       <c r="R6">
-        <v>1.254865548591821</v>
+        <v>3.19441099877751</v>
       </c>
       <c r="S6">
-        <v>1.28099726017065</v>
+        <v>3.257731777611617</v>
       </c>
       <c r="T6">
-        <v>1.254865548591821</v>
+        <v>3.19441099877751</v>
       </c>
       <c r="U6">
-        <v>1.137225438143211</v>
+        <v>2.542021463187584</v>
       </c>
       <c r="V6">
-        <v>1.050962344926747</v>
+        <v>2.112595274533164</v>
       </c>
       <c r="W6">
-        <v>1.064972981456506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.697121839094294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9985953410427887</v>
+        <v>1.030469500256761</v>
       </c>
       <c r="D7">
-        <v>1.016472351925975</v>
+        <v>0.95515156086687</v>
       </c>
       <c r="E7">
-        <v>0.9986494786681367</v>
+        <v>0.9765986885718745</v>
       </c>
       <c r="F7">
-        <v>0.9985953410427887</v>
+        <v>0.9750651406826434</v>
       </c>
       <c r="G7">
-        <v>0.9990466149198385</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="H7">
-        <v>0.9986807627975596</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="I7">
-        <v>0.9985953410427887</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="J7">
-        <v>1.016472351925975</v>
+        <v>1.121670763127518</v>
       </c>
       <c r="K7">
-        <v>0.9990715527380409</v>
+        <v>1.033113997757159</v>
       </c>
       <c r="L7">
-        <v>0.9988296066942028</v>
+        <v>1.038882323044549</v>
       </c>
       <c r="M7">
-        <v>1.002348442708835</v>
+        <v>1.121670763127518</v>
       </c>
       <c r="N7">
-        <v>0.9985953410427887</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="O7">
-        <v>0.9986494786681367</v>
+        <v>1.033113997757159</v>
       </c>
       <c r="P7">
-        <v>1.007560915297056</v>
+        <v>1.077392380442339</v>
       </c>
       <c r="Q7">
-        <v>0.9988480467939875</v>
+        <v>1.004089569219901</v>
       </c>
       <c r="R7">
-        <v>1.004572390545633</v>
+        <v>1.035509504919182</v>
       </c>
       <c r="S7">
-        <v>1.004722815171317</v>
+        <v>1.04328330052244</v>
       </c>
       <c r="T7">
-        <v>1.004572390545633</v>
+        <v>1.035509504919182</v>
       </c>
       <c r="U7">
-        <v>1.003190946639185</v>
+        <v>1.020398413860047</v>
       </c>
       <c r="V7">
-        <v>1.002271825519906</v>
+        <v>1.006667481862611</v>
       </c>
       <c r="W7">
-        <v>1.001461768936922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.010336966022531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9974665978581668</v>
+        <v>1.004315936195868</v>
       </c>
       <c r="D8">
-        <v>1.042648640819116</v>
+        <v>0.9977314616443103</v>
       </c>
       <c r="E8">
-        <v>0.9962161164480892</v>
+        <v>0.9992239063189589</v>
       </c>
       <c r="F8">
-        <v>0.9974665978581668</v>
+        <v>0.9979079924672032</v>
       </c>
       <c r="G8">
-        <v>0.9981083918425921</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="H8">
-        <v>0.9963671788435368</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="I8">
-        <v>0.9974665978581668</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="J8">
-        <v>1.042648640819116</v>
+        <v>1.009772907272094</v>
       </c>
       <c r="K8">
-        <v>0.9976110029654511</v>
+        <v>1.004205590751649</v>
       </c>
       <c r="L8">
-        <v>0.9955895762421788</v>
+        <v>0.9977213057478186</v>
       </c>
       <c r="M8">
-        <v>1.007007015384535</v>
+        <v>1.009772907272094</v>
       </c>
       <c r="N8">
-        <v>0.9974665978581668</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="O8">
-        <v>0.9962161164480892</v>
+        <v>1.004205590751649</v>
       </c>
       <c r="P8">
-        <v>1.019432378633603</v>
+        <v>1.006989249011871</v>
       </c>
       <c r="Q8">
-        <v>0.9971622541453407</v>
+        <v>1.001056791609426</v>
       </c>
       <c r="R8">
-        <v>1.012110451708457</v>
+        <v>1.003223020126365</v>
       </c>
       <c r="S8">
-        <v>1.012324383036599</v>
+        <v>1.003962163496982</v>
       </c>
       <c r="T8">
-        <v>1.012110451708457</v>
+        <v>1.003223020126365</v>
       </c>
       <c r="U8">
-        <v>1.008609936741991</v>
+        <v>1.001894263211575</v>
       </c>
       <c r="V8">
-        <v>1.006381268965226</v>
+        <v>1.00065352304033</v>
       </c>
       <c r="W8">
-        <v>1.003876815050458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000821207844157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9936043865654811</v>
+        <v>1.042376477274894</v>
       </c>
       <c r="D9">
-        <v>1.060209295705491</v>
+        <v>0.9260153996641869</v>
       </c>
       <c r="E9">
-        <v>0.9942176118145477</v>
+        <v>0.9571313675368037</v>
       </c>
       <c r="F9">
-        <v>0.9936043865654811</v>
+        <v>0.9471392293895287</v>
       </c>
       <c r="G9">
-        <v>0.997120150821739</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="H9">
-        <v>0.9948341810682158</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="I9">
-        <v>0.9936043865654811</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="J9">
-        <v>1.060209295705491</v>
+        <v>1.236182133805722</v>
       </c>
       <c r="K9">
-        <v>0.9964725962396258</v>
+        <v>1.064224078968316</v>
       </c>
       <c r="L9">
-        <v>0.9950872408345374</v>
+        <v>1.067910217664507</v>
       </c>
       <c r="M9">
-        <v>1.010330658372596</v>
+        <v>1.236182133805722</v>
       </c>
       <c r="N9">
-        <v>0.9936043865654811</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="O9">
-        <v>0.9942176118145477</v>
+        <v>1.064224078968316</v>
       </c>
       <c r="P9">
-        <v>1.027213453760019</v>
+        <v>1.150203106387019</v>
       </c>
       <c r="Q9">
-        <v>0.9956688813181434</v>
+        <v>1.005681654178922</v>
       </c>
       <c r="R9">
-        <v>1.01601043136184</v>
+        <v>1.0733331938933</v>
       </c>
       <c r="S9">
-        <v>1.017182352780593</v>
+        <v>1.082515147387856</v>
       </c>
       <c r="T9">
-        <v>1.01601043136184</v>
+        <v>1.0733331938933</v>
       </c>
       <c r="U9">
-        <v>1.011287861226815</v>
+        <v>1.041784702767357</v>
       </c>
       <c r="V9">
-        <v>1.007751166294548</v>
+        <v>1.017346435995058</v>
       </c>
       <c r="W9">
-        <v>1.005234515177779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.020071534151227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9855428405368363</v>
+        <v>2.04800510740337</v>
       </c>
       <c r="D10">
-        <v>1.131369199110381</v>
+        <v>0.3799363193779295</v>
       </c>
       <c r="E10">
-        <v>0.9886956334514723</v>
+        <v>0.4303393436879847</v>
       </c>
       <c r="F10">
-        <v>0.9855428405368363</v>
+        <v>0.5219362927658436</v>
       </c>
       <c r="G10">
-        <v>0.9944528806216166</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="H10">
-        <v>0.9887464569148783</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="I10">
-        <v>0.9855428405368363</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="J10">
-        <v>1.131369199110381</v>
+        <v>9.011782766051748</v>
       </c>
       <c r="K10">
-        <v>0.9919587945731609</v>
+        <v>0.4441354832478719</v>
       </c>
       <c r="L10">
-        <v>0.9903457019342092</v>
+        <v>0.5034976880201288</v>
       </c>
       <c r="M10">
-        <v>1.021365538310073</v>
+        <v>9.011782766051748</v>
       </c>
       <c r="N10">
-        <v>0.9855428405368363</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="O10">
-        <v>0.9886956334514723</v>
+        <v>0.4441354832478719</v>
       </c>
       <c r="P10">
-        <v>1.060032416280926</v>
+        <v>4.72795912464981</v>
       </c>
       <c r="Q10">
-        <v>0.9915742570365444</v>
+        <v>0.4830358880068578</v>
       </c>
       <c r="R10">
-        <v>1.035202557699563</v>
+        <v>3.298631083046436</v>
       </c>
       <c r="S10">
-        <v>1.038172571061157</v>
+        <v>3.325951514021821</v>
       </c>
       <c r="T10">
-        <v>1.035202557699563</v>
+        <v>3.298631083046436</v>
       </c>
       <c r="U10">
-        <v>1.025015138430077</v>
+        <v>2.604457385476288</v>
       </c>
       <c r="V10">
-        <v>1.017120678851428</v>
+        <v>2.171560908348968</v>
       </c>
       <c r="W10">
-        <v>1.011559630681578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.722451000049321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9804402169240941</v>
+        <v>1.273978319227537</v>
       </c>
       <c r="D11">
-        <v>1.222885826242957</v>
+        <v>0.9698675999846321</v>
       </c>
       <c r="E11">
-        <v>0.9816717875207251</v>
+        <v>0.8435518402024655</v>
       </c>
       <c r="F11">
-        <v>0.9804402169240941</v>
+        <v>0.9940233626903766</v>
       </c>
       <c r="G11">
-        <v>0.990969046110978</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="H11">
-        <v>0.9817626760107498</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="I11">
-        <v>0.9804402169240941</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="J11">
-        <v>1.222885826242957</v>
+        <v>1.97517435812649</v>
       </c>
       <c r="K11">
-        <v>0.9866888956063408</v>
+        <v>0.7630116272921368</v>
       </c>
       <c r="L11">
-        <v>0.9813675773827538</v>
+        <v>0.8541926233232205</v>
       </c>
       <c r="M11">
-        <v>1.03851753328971</v>
+        <v>1.97517435812649</v>
       </c>
       <c r="N11">
-        <v>0.9804402169240941</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="O11">
-        <v>0.9816717875207251</v>
+        <v>0.7630116272921368</v>
       </c>
       <c r="P11">
-        <v>1.102278806881841</v>
+        <v>1.369092992709313</v>
       </c>
       <c r="Q11">
-        <v>0.9863204168158516</v>
+        <v>0.8785174949912566</v>
       </c>
       <c r="R11">
-        <v>1.061665943562592</v>
+        <v>1.271509966827016</v>
       </c>
       <c r="S11">
-        <v>1.065175553291553</v>
+        <v>1.244069782703001</v>
       </c>
       <c r="T11">
-        <v>1.061665943562592</v>
+        <v>1.271509966827016</v>
       </c>
       <c r="U11">
-        <v>1.043991719199689</v>
+        <v>1.202138315792856</v>
       </c>
       <c r="V11">
-        <v>1.03128141874457</v>
+        <v>1.17697943564677</v>
       </c>
       <c r="W11">
-        <v>1.020537944886039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.09376795573866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.776642826673861</v>
+        <v>1.390943221059859</v>
       </c>
       <c r="D12">
-        <v>0.08773681507702431</v>
+        <v>0.7496960998991572</v>
       </c>
       <c r="E12">
-        <v>0.3218564699133815</v>
+        <v>0.8202803881058941</v>
       </c>
       <c r="F12">
-        <v>1.776642826673861</v>
+        <v>0.8240117180484204</v>
       </c>
       <c r="G12">
-        <v>1.270796651127378</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="H12">
-        <v>1.061782037455428</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="I12">
-        <v>1.776642826673861</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="J12">
-        <v>0.08773681507702431</v>
+        <v>3.108518671464549</v>
       </c>
       <c r="K12">
-        <v>0.6156475120409252</v>
+        <v>0.8591405548877017</v>
       </c>
       <c r="L12">
-        <v>1.427669694193637</v>
+        <v>0.8803454469679551</v>
       </c>
       <c r="M12">
-        <v>0.6608766514182856</v>
+        <v>3.108518671464549</v>
       </c>
       <c r="N12">
-        <v>1.776642826673861</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="O12">
-        <v>0.3218564699133815</v>
+        <v>0.8591405548877017</v>
       </c>
       <c r="P12">
-        <v>0.2047966424952029</v>
+        <v>1.983829613176125</v>
       </c>
       <c r="Q12">
-        <v>0.7963265605203799</v>
+        <v>0.8415761364680611</v>
       </c>
       <c r="R12">
-        <v>0.7287453705547557</v>
+        <v>1.624012700535814</v>
       </c>
       <c r="S12">
-        <v>0.5601299787059281</v>
+        <v>1.597223648133557</v>
       </c>
       <c r="T12">
-        <v>0.7287453705547557</v>
+        <v>1.624012700535814</v>
       </c>
       <c r="U12">
-        <v>0.8642581906979114</v>
+        <v>1.424012454913965</v>
       </c>
       <c r="V12">
-        <v>1.046735117893101</v>
+        <v>1.32008573898221</v>
       </c>
       <c r="W12">
-        <v>0.9028760822374902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.192164371961091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.386083954800485</v>
+        <v>0.6886390299208103</v>
       </c>
       <c r="D13">
-        <v>1.045772899733318</v>
+        <v>0.9800701920045574</v>
       </c>
       <c r="E13">
-        <v>1.715653053211375</v>
+        <v>1.258935602700319</v>
       </c>
       <c r="F13">
-        <v>1.386083954800485</v>
+        <v>0.7575743379882698</v>
       </c>
       <c r="G13">
-        <v>0.4024563136100975</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="H13">
-        <v>1.19400673911063</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="I13">
-        <v>1.386083954800485</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="J13">
-        <v>1.045772899733318</v>
+        <v>0.692334958022255</v>
       </c>
       <c r="K13">
-        <v>1.168360903391125</v>
+        <v>1.274253656135463</v>
       </c>
       <c r="L13">
-        <v>0.6616939008335979</v>
+        <v>0.8876369946711401</v>
       </c>
       <c r="M13">
-        <v>0.7775764663439734</v>
+        <v>0.692334958022255</v>
       </c>
       <c r="N13">
-        <v>1.386083954800485</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="O13">
-        <v>1.715653053211375</v>
+        <v>1.274253656135463</v>
       </c>
       <c r="P13">
-        <v>1.380712976472346</v>
+        <v>0.9832943070788589</v>
       </c>
       <c r="Q13">
-        <v>1.059054683410736</v>
+        <v>1.015913997061866</v>
       </c>
       <c r="R13">
-        <v>1.382503302581726</v>
+        <v>1.125279337953688</v>
       </c>
       <c r="S13">
-        <v>1.05462742218493</v>
+        <v>0.9080543173819958</v>
       </c>
       <c r="T13">
-        <v>1.382503302581726</v>
+        <v>1.125279337953688</v>
       </c>
       <c r="U13">
-        <v>1.137491555338819</v>
+        <v>1.033353087962333</v>
       </c>
       <c r="V13">
-        <v>1.187210035231152</v>
+        <v>1.108532350310536</v>
       </c>
       <c r="W13">
-        <v>1.043950528879325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.99358677139327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.06967064365041072</v>
+        <v>2.707476000000005</v>
       </c>
       <c r="D14">
-        <v>0.08778695144515762</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="E14">
-        <v>2.479441576350061</v>
+        <v>0.002383200199999999</v>
       </c>
       <c r="F14">
-        <v>0.06967064365041072</v>
+        <v>0.1790270599999998</v>
       </c>
       <c r="G14">
-        <v>0.6200218931135498</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="H14">
-        <v>1.688650531238298</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="I14">
-        <v>0.06967064365041072</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="J14">
-        <v>0.08778695144515762</v>
+        <v>15.308083</v>
       </c>
       <c r="K14">
-        <v>1.436600523399709</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="L14">
-        <v>0.4796082259608624</v>
+        <v>0.1110801600000001</v>
       </c>
       <c r="M14">
-        <v>0.4245048572305006</v>
+        <v>15.308083</v>
       </c>
       <c r="N14">
-        <v>0.06967064365041072</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="O14">
-        <v>2.479441576350061</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="P14">
-        <v>1.283614263897609</v>
+        <v>7.654365834320001</v>
       </c>
       <c r="Q14">
-        <v>1.549731734731805</v>
+        <v>0.08983786431999988</v>
       </c>
       <c r="R14">
-        <v>0.8789663904818763</v>
+        <v>5.101825329613334</v>
       </c>
       <c r="S14">
-        <v>1.062416806969589</v>
+        <v>5.162586242880001</v>
       </c>
       <c r="T14">
-        <v>0.8789663904818763</v>
+        <v>5.101825329613334</v>
       </c>
       <c r="U14">
-        <v>0.8142302661397947</v>
+        <v>3.87112576221</v>
       </c>
       <c r="V14">
-        <v>0.6653183416419178</v>
+        <v>3.096249473808</v>
       </c>
       <c r="W14">
-        <v>0.9107856502985685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>2.288680697455001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.232729222016997</v>
+        <v>2.707476</v>
       </c>
       <c r="D15">
-        <v>1.050513637669476</v>
+        <v>0.0040031706</v>
       </c>
       <c r="E15">
-        <v>0.3204352799556486</v>
+        <v>0.0023832002</v>
       </c>
       <c r="F15">
-        <v>1.232729222016997</v>
+        <v>0.17902706</v>
       </c>
       <c r="G15">
-        <v>1.278324178475013</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H15">
-        <v>0.7770676009839536</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="I15">
-        <v>1.232729222016997</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="J15">
-        <v>1.050513637669476</v>
+        <v>15.308083</v>
       </c>
       <c r="K15">
-        <v>0.698709861847687</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L15">
-        <v>1.452558459160359</v>
+        <v>0.11108016</v>
       </c>
       <c r="M15">
-        <v>1.142969455235061</v>
+        <v>15.308083</v>
       </c>
       <c r="N15">
-        <v>1.232729222016997</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="O15">
-        <v>0.3204352799556486</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="P15">
-        <v>0.6854744588125623</v>
+        <v>7.654365834325</v>
       </c>
       <c r="Q15">
-        <v>0.7993797292153308</v>
+        <v>0.08983786432499999</v>
       </c>
       <c r="R15">
-        <v>0.8678927132140405</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="S15">
-        <v>0.8830910320333792</v>
+        <v>5.162586242883333</v>
       </c>
       <c r="T15">
-        <v>0.8678927132140405</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="U15">
-        <v>0.9705005795292836</v>
+        <v>3.871125762212499</v>
       </c>
       <c r="V15">
-        <v>1.022946308026826</v>
+        <v>3.096249473809999</v>
       </c>
       <c r="W15">
-        <v>0.9941634619180243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>2.28868069745625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000326059968454</v>
+        <v>2.707476</v>
       </c>
       <c r="D16">
-        <v>1.007960178928385</v>
+        <v>0.0040031706</v>
       </c>
       <c r="E16">
-        <v>0.9967545633921079</v>
+        <v>0.0023832002</v>
       </c>
       <c r="F16">
-        <v>1.000326059968454</v>
+        <v>0.17902706</v>
       </c>
       <c r="G16">
-        <v>0.9999310610491718</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H16">
-        <v>0.9996098327689453</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="I16">
-        <v>1.000326059968454</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="J16">
-        <v>1.007960178928385</v>
+        <v>15.308083</v>
       </c>
       <c r="K16">
-        <v>0.9991962082552586</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L16">
-        <v>1.000853182802751</v>
+        <v>0.11108016</v>
       </c>
       <c r="M16">
-        <v>0.999363742849856</v>
+        <v>15.308083</v>
       </c>
       <c r="N16">
-        <v>1.000326059968454</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="O16">
-        <v>0.9967545633921079</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="P16">
-        <v>1.002357371160246</v>
+        <v>7.654365834325</v>
       </c>
       <c r="Q16">
-        <v>0.9983428122206399</v>
+        <v>0.08983786432499999</v>
       </c>
       <c r="R16">
-        <v>1.001680267429649</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="S16">
-        <v>1.001548601123221</v>
+        <v>5.162586242883333</v>
       </c>
       <c r="T16">
-        <v>1.001680267429649</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="U16">
-        <v>1.00124296583453</v>
+        <v>3.871125762212499</v>
       </c>
       <c r="V16">
-        <v>1.001059584661315</v>
+        <v>3.096249473809999</v>
       </c>
       <c r="W16">
-        <v>1.000499353751866</v>
+        <v>2.28868069745625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9956905623553527</v>
+        <v>0.29532771</v>
       </c>
       <c r="D17">
-        <v>1.009772907272093</v>
+        <v>0.12273799</v>
       </c>
       <c r="E17">
-        <v>1.004205590751648</v>
+        <v>0.48503886</v>
       </c>
       <c r="F17">
-        <v>0.9956905623553527</v>
+        <v>0.3653806</v>
       </c>
       <c r="G17">
-        <v>0.9979079924672032</v>
+        <v>0.002431345</v>
       </c>
       <c r="H17">
-        <v>0.9992239063189586</v>
+        <v>0.002431345</v>
       </c>
       <c r="I17">
-        <v>0.9956905623553527</v>
+        <v>0.002431345</v>
       </c>
       <c r="J17">
-        <v>1.009772907272093</v>
+        <v>0.028143529</v>
       </c>
       <c r="K17">
-        <v>0.9977213057478188</v>
+        <v>1.6038159</v>
       </c>
       <c r="L17">
-        <v>0.9977314616443107</v>
+        <v>3.5297467</v>
       </c>
       <c r="M17">
-        <v>1.004315936195868</v>
+        <v>0.028143529</v>
       </c>
       <c r="N17">
-        <v>0.9956905623553527</v>
+        <v>0.002431345</v>
       </c>
       <c r="O17">
-        <v>1.004205590751648</v>
+        <v>1.6038159</v>
       </c>
       <c r="P17">
-        <v>1.006989249011871</v>
+        <v>0.8159797145000001</v>
       </c>
       <c r="Q17">
-        <v>1.001056791609426</v>
+        <v>0.98459825</v>
       </c>
       <c r="R17">
-        <v>1.003223020126365</v>
+        <v>0.5447969246666667</v>
       </c>
       <c r="S17">
-        <v>1.003962163496982</v>
+        <v>0.6657800096666667</v>
       </c>
       <c r="T17">
-        <v>1.003223020126365</v>
+        <v>0.5447969246666667</v>
       </c>
       <c r="U17">
-        <v>1.001894263211574</v>
+        <v>0.4999428435</v>
       </c>
       <c r="V17">
-        <v>1.00065352304033</v>
+        <v>0.4004405438</v>
       </c>
       <c r="W17">
-        <v>1.000821207844157</v>
+        <v>0.8040778292499999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9824361395027094</v>
+        <v>1.565122554460275</v>
       </c>
       <c r="D18">
-        <v>1.067451582533975</v>
+        <v>0.06343907497260275</v>
       </c>
       <c r="E18">
-        <v>0.992657501734433</v>
+        <v>0.5303198361758906</v>
       </c>
       <c r="F18">
-        <v>0.9824361395027094</v>
+        <v>0.4277807186301369</v>
       </c>
       <c r="G18">
-        <v>0.9902354505656017</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="H18">
-        <v>0.9866417953286031</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="I18">
-        <v>0.9824361395027094</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="J18">
-        <v>1.067451582533975</v>
+        <v>3.781065092736985</v>
       </c>
       <c r="K18">
-        <v>1.020915521131927</v>
+        <v>1.78551079483926</v>
       </c>
       <c r="L18">
-        <v>0.9934180823880121</v>
+        <v>1.79988401589041</v>
       </c>
       <c r="M18">
-        <v>0.9963487265561012</v>
+        <v>3.781065092736985</v>
       </c>
       <c r="N18">
-        <v>0.9824361395027094</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="O18">
-        <v>0.992657501734433</v>
+        <v>1.78551079483926</v>
       </c>
       <c r="P18">
-        <v>1.030054542134204</v>
+        <v>2.783287943788123</v>
       </c>
       <c r="Q18">
-        <v>0.9914464761500174</v>
+        <v>1.106645756734699</v>
       </c>
       <c r="R18">
-        <v>1.014181741257039</v>
+        <v>1.855942441860027</v>
       </c>
       <c r="S18">
-        <v>1.016781511611337</v>
+        <v>1.998118868735461</v>
       </c>
       <c r="T18">
-        <v>1.014181741257039</v>
+        <v>1.855942441860027</v>
       </c>
       <c r="U18">
-        <v>1.00819516858418</v>
+        <v>1.498902011052555</v>
       </c>
       <c r="V18">
-        <v>1.003043362767886</v>
+        <v>1.199371896442811</v>
       </c>
       <c r="W18">
-        <v>1.00376309996767</v>
+        <v>1.244296690713675</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9590268200120297</v>
+        <v>1.610215453626316</v>
       </c>
       <c r="D19">
-        <v>1.104622480534508</v>
+        <v>0.06109292085263159</v>
       </c>
       <c r="E19">
-        <v>1.022181498117591</v>
+        <v>0.5094802321252631</v>
       </c>
       <c r="F19">
-        <v>0.9590268200120297</v>
+        <v>0.4179614952631579</v>
       </c>
       <c r="G19">
-        <v>0.981303631399551</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="H19">
-        <v>0.9787611785893472</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="I19">
-        <v>0.9590268200120297</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="J19">
-        <v>1.104622480534508</v>
+        <v>4.236078957497369</v>
       </c>
       <c r="K19">
-        <v>1.035647046575315</v>
+        <v>1.715055710909737</v>
       </c>
       <c r="L19">
-        <v>0.9786261394529606</v>
+        <v>1.733220705789474</v>
       </c>
       <c r="M19">
-        <v>1.006066406568989</v>
+        <v>4.236078957497369</v>
       </c>
       <c r="N19">
-        <v>0.9590268200120297</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="O19">
-        <v>1.022181498117591</v>
+        <v>1.715055710909737</v>
       </c>
       <c r="P19">
-        <v>1.063401989326049</v>
+        <v>2.975567334203553</v>
       </c>
       <c r="Q19">
-        <v>1.001742564758571</v>
+        <v>1.066508603086447</v>
       </c>
       <c r="R19">
-        <v>1.028610266221376</v>
+        <v>1.984069397946579</v>
       </c>
       <c r="S19">
-        <v>1.036035870017217</v>
+        <v>2.123032054556754</v>
       </c>
       <c r="T19">
-        <v>1.028610266221376</v>
+        <v>1.984069397946579</v>
       </c>
       <c r="U19">
-        <v>1.01678360751592</v>
+        <v>1.592542422275724</v>
       </c>
       <c r="V19">
-        <v>1.005232250015142</v>
+        <v>1.274248642907105</v>
       </c>
       <c r="W19">
-        <v>1.008279400156286</v>
+        <v>1.285522375187072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.610215453626316</v>
+      </c>
+      <c r="D20">
+        <v>0.06109292085263159</v>
+      </c>
+      <c r="E20">
+        <v>0.5094802321252631</v>
+      </c>
+      <c r="F20">
+        <v>0.4179614952631579</v>
+      </c>
+      <c r="G20">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="H20">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="I20">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="J20">
+        <v>4.236078957496842</v>
+      </c>
+      <c r="K20">
+        <v>1.715055710909737</v>
+      </c>
+      <c r="L20">
+        <v>1.733220705789474</v>
+      </c>
+      <c r="M20">
+        <v>4.236078957496842</v>
+      </c>
+      <c r="N20">
+        <v>0.001073525432631579</v>
+      </c>
+      <c r="O20">
+        <v>1.715055710909737</v>
+      </c>
+      <c r="P20">
+        <v>2.975567334203289</v>
+      </c>
+      <c r="Q20">
+        <v>1.066508603086447</v>
+      </c>
+      <c r="R20">
+        <v>1.984069397946403</v>
+      </c>
+      <c r="S20">
+        <v>2.123032054556579</v>
+      </c>
+      <c r="T20">
+        <v>1.984069397946403</v>
+      </c>
+      <c r="U20">
+        <v>1.592542422275592</v>
+      </c>
+      <c r="V20">
+        <v>1.274248642907</v>
+      </c>
+      <c r="W20">
+        <v>1.285522375187007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.4245048572305005</v>
+      </c>
+      <c r="D21">
+        <v>0.4796082259608624</v>
+      </c>
+      <c r="E21">
+        <v>1.688650531238298</v>
+      </c>
+      <c r="F21">
+        <v>0.6200218931135497</v>
+      </c>
+      <c r="G21">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="H21">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="I21">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="J21">
+        <v>0.08778695144515751</v>
+      </c>
+      <c r="K21">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="L21">
+        <v>1.436600523399709</v>
+      </c>
+      <c r="M21">
+        <v>0.08778695144515751</v>
+      </c>
+      <c r="N21">
+        <v>0.06967064365041069</v>
+      </c>
+      <c r="O21">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="P21">
+        <v>1.283614263897609</v>
+      </c>
+      <c r="Q21">
+        <v>1.549731734731805</v>
+      </c>
+      <c r="R21">
+        <v>0.8789663904818763</v>
+      </c>
+      <c r="S21">
+        <v>1.062416806969589</v>
+      </c>
+      <c r="T21">
+        <v>0.8789663904818763</v>
+      </c>
+      <c r="U21">
+        <v>0.8142302661397947</v>
+      </c>
+      <c r="V21">
+        <v>0.6653183416419178</v>
+      </c>
+      <c r="W21">
+        <v>0.9107856502985686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.14296945523506</v>
+      </c>
+      <c r="D22">
+        <v>1.452558459160359</v>
+      </c>
+      <c r="E22">
+        <v>0.7770676009839536</v>
+      </c>
+      <c r="F22">
+        <v>1.278324178475013</v>
+      </c>
+      <c r="G22">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="H22">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="I22">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="J22">
+        <v>1.050513637669476</v>
+      </c>
+      <c r="K22">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="L22">
+        <v>0.698709861847687</v>
+      </c>
+      <c r="M22">
+        <v>1.050513637669476</v>
+      </c>
+      <c r="N22">
+        <v>1.232729222016997</v>
+      </c>
+      <c r="O22">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="P22">
+        <v>0.6854744588125622</v>
+      </c>
+      <c r="Q22">
+        <v>0.7993797292153307</v>
+      </c>
+      <c r="R22">
+        <v>0.8678927132140405</v>
+      </c>
+      <c r="S22">
+        <v>0.8830910320333792</v>
+      </c>
+      <c r="T22">
+        <v>0.8678927132140405</v>
+      </c>
+      <c r="U22">
+        <v>0.9705005795292836</v>
+      </c>
+      <c r="V22">
+        <v>1.022946308026826</v>
+      </c>
+      <c r="W22">
+        <v>0.9941634619180243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.660876651418285</v>
+      </c>
+      <c r="D23">
+        <v>1.427669694193638</v>
+      </c>
+      <c r="E23">
+        <v>1.061782037455428</v>
+      </c>
+      <c r="F23">
+        <v>1.270796651127378</v>
+      </c>
+      <c r="G23">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="H23">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="I23">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="J23">
+        <v>0.08773681507702411</v>
+      </c>
+      <c r="K23">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="L23">
+        <v>0.6156475120409252</v>
+      </c>
+      <c r="M23">
+        <v>0.08773681507702411</v>
+      </c>
+      <c r="N23">
+        <v>1.776642826673861</v>
+      </c>
+      <c r="O23">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="P23">
+        <v>0.2047966424952028</v>
+      </c>
+      <c r="Q23">
+        <v>0.7963265605203798</v>
+      </c>
+      <c r="R23">
+        <v>0.7287453705547554</v>
+      </c>
+      <c r="S23">
+        <v>0.5601299787059278</v>
+      </c>
+      <c r="T23">
+        <v>0.7287453705547554</v>
+      </c>
+      <c r="U23">
+        <v>0.8642581906979111</v>
+      </c>
+      <c r="V23">
+        <v>1.046735117893101</v>
+      </c>
+      <c r="W23">
+        <v>0.9028760822374901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7775764663439729</v>
+      </c>
+      <c r="D24">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="E24">
+        <v>1.19400673911063</v>
+      </c>
+      <c r="F24">
+        <v>0.4024563136100975</v>
+      </c>
+      <c r="G24">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="H24">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="I24">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="J24">
+        <v>1.045772899733318</v>
+      </c>
+      <c r="K24">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="L24">
+        <v>1.168360903391125</v>
+      </c>
+      <c r="M24">
+        <v>1.045772899733318</v>
+      </c>
+      <c r="N24">
+        <v>1.386083954800485</v>
+      </c>
+      <c r="O24">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="P24">
+        <v>1.380712976472346</v>
+      </c>
+      <c r="Q24">
+        <v>1.059054683410736</v>
+      </c>
+      <c r="R24">
+        <v>1.382503302581726</v>
+      </c>
+      <c r="S24">
+        <v>1.05462742218493</v>
+      </c>
+      <c r="T24">
+        <v>1.382503302581726</v>
+      </c>
+      <c r="U24">
+        <v>1.137491555338819</v>
+      </c>
+      <c r="V24">
+        <v>1.187210035231152</v>
+      </c>
+      <c r="W24">
+        <v>1.043950528879325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.4245048572305006</v>
+      </c>
+      <c r="D25">
+        <v>0.4796082259608624</v>
+      </c>
+      <c r="E25">
+        <v>1.688650531238298</v>
+      </c>
+      <c r="F25">
+        <v>0.6200218931135497</v>
+      </c>
+      <c r="G25">
+        <v>0.0696706436504106</v>
+      </c>
+      <c r="H25">
+        <v>0.0696706436504106</v>
+      </c>
+      <c r="I25">
+        <v>0.0696706436504106</v>
+      </c>
+      <c r="J25">
+        <v>0.08778695144335412</v>
+      </c>
+      <c r="K25">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="L25">
+        <v>1.436600523399709</v>
+      </c>
+      <c r="M25">
+        <v>0.08778695144335412</v>
+      </c>
+      <c r="N25">
+        <v>0.0696706436504106</v>
+      </c>
+      <c r="O25">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="P25">
+        <v>1.283614263896707</v>
+      </c>
+      <c r="Q25">
+        <v>1.549731734731805</v>
+      </c>
+      <c r="R25">
+        <v>0.8789663904812751</v>
+      </c>
+      <c r="S25">
+        <v>1.062416806968988</v>
+      </c>
+      <c r="T25">
+        <v>0.8789663904812751</v>
+      </c>
+      <c r="U25">
+        <v>0.8142302661393438</v>
+      </c>
+      <c r="V25">
+        <v>0.6653183416415571</v>
+      </c>
+      <c r="W25">
+        <v>0.9107856502983431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.14296945523506</v>
+      </c>
+      <c r="D26">
+        <v>1.45255845916036</v>
+      </c>
+      <c r="E26">
+        <v>0.7770676009839534</v>
+      </c>
+      <c r="F26">
+        <v>1.278324178475013</v>
+      </c>
+      <c r="G26">
+        <v>1.232729222016998</v>
+      </c>
+      <c r="H26">
+        <v>1.232729222016998</v>
+      </c>
+      <c r="I26">
+        <v>1.232729222016998</v>
+      </c>
+      <c r="J26">
+        <v>1.050513637669339</v>
+      </c>
+      <c r="K26">
+        <v>0.3204352799556483</v>
+      </c>
+      <c r="L26">
+        <v>0.698709861847687</v>
+      </c>
+      <c r="M26">
+        <v>1.050513637669339</v>
+      </c>
+      <c r="N26">
+        <v>1.232729222016998</v>
+      </c>
+      <c r="O26">
+        <v>0.3204352799556483</v>
+      </c>
+      <c r="P26">
+        <v>0.6854744588124938</v>
+      </c>
+      <c r="Q26">
+        <v>0.7993797292153305</v>
+      </c>
+      <c r="R26">
+        <v>0.8678927132139952</v>
+      </c>
+      <c r="S26">
+        <v>0.8830910320333335</v>
+      </c>
+      <c r="T26">
+        <v>0.867892713213995</v>
+      </c>
+      <c r="U26">
+        <v>0.9705005795292494</v>
+      </c>
+      <c r="V26">
+        <v>1.022946308026799</v>
+      </c>
+      <c r="W26">
+        <v>0.9941634619180073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8928320473508142</v>
+      </c>
+      <c r="D27">
+        <v>1.022730233556913</v>
+      </c>
+      <c r="E27">
+        <v>0.8541498648614197</v>
+      </c>
+      <c r="F27">
+        <v>1.055887478948314</v>
+      </c>
+      <c r="G27">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="H27">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="I27">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="J27">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="K27">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="L27">
+        <v>1.555219637067031</v>
+      </c>
+      <c r="M27">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="N27">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="O27">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="P27">
+        <v>0.8655866848984013</v>
+      </c>
+      <c r="Q27">
+        <v>0.8191839385562772</v>
+      </c>
+      <c r="R27">
+        <v>0.7702108593462098</v>
+      </c>
+      <c r="S27">
+        <v>0.9290202829150389</v>
+      </c>
+      <c r="T27">
+        <v>0.7702108593462098</v>
+      </c>
+      <c r="U27">
+        <v>0.8416300142467359</v>
+      </c>
+      <c r="V27">
+        <v>0.7891958530457541</v>
+      </c>
+      <c r="W27">
+        <v>0.9614314799778902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8377801767605091</v>
+      </c>
+      <c r="D28">
+        <v>0.832097806296764</v>
+      </c>
+      <c r="E28">
+        <v>0.7703521159836741</v>
+      </c>
+      <c r="F28">
+        <v>0.7078989533830953</v>
+      </c>
+      <c r="G28">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="H28">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="I28">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="J28">
+        <v>0.8677869340826457</v>
+      </c>
+      <c r="K28">
+        <v>1.515416701784269</v>
+      </c>
+      <c r="L28">
+        <v>1.595464814861386</v>
+      </c>
+      <c r="M28">
+        <v>0.8677869340826457</v>
+      </c>
+      <c r="N28">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="O28">
+        <v>1.515416701784269</v>
+      </c>
+      <c r="P28">
+        <v>1.191601817933458</v>
+      </c>
+      <c r="Q28">
+        <v>1.111657827583682</v>
+      </c>
+      <c r="R28">
+        <v>1.029444666701942</v>
+      </c>
+      <c r="S28">
+        <v>1.030367529750003</v>
+      </c>
+      <c r="T28">
+        <v>1.029444666701942</v>
+      </c>
+      <c r="U28">
+        <v>0.9490582383722304</v>
+      </c>
+      <c r="V28">
+        <v>0.9002726635455666</v>
+      </c>
+      <c r="W28">
+        <v>0.9789909834239068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.2683739323448412</v>
+      </c>
+      <c r="D29">
+        <v>0.9487979639580104</v>
+      </c>
+      <c r="E29">
+        <v>0.9584673584257501</v>
+      </c>
+      <c r="F29">
+        <v>0.7359292240733223</v>
+      </c>
+      <c r="G29">
+        <v>1.020657967640932</v>
+      </c>
+      <c r="H29">
+        <v>1.020657967640932</v>
+      </c>
+      <c r="I29">
+        <v>1.020657967640932</v>
+      </c>
+      <c r="J29">
+        <v>0.01398267068274775</v>
+      </c>
+      <c r="K29">
+        <v>1.615793327821739</v>
+      </c>
+      <c r="L29">
+        <v>1.61362507861986</v>
+      </c>
+      <c r="M29">
+        <v>0.01398267068274775</v>
+      </c>
+      <c r="N29">
+        <v>1.020657967640932</v>
+      </c>
+      <c r="O29">
+        <v>1.615793327821739</v>
+      </c>
+      <c r="P29">
+        <v>0.8148879992522435</v>
+      </c>
+      <c r="Q29">
+        <v>1.175861275947531</v>
+      </c>
+      <c r="R29">
+        <v>0.8834779887151397</v>
+      </c>
+      <c r="S29">
+        <v>0.7885684075259364</v>
+      </c>
+      <c r="T29">
+        <v>0.8834779887151397</v>
+      </c>
+      <c r="U29">
+        <v>0.8465907975546854</v>
+      </c>
+      <c r="V29">
+        <v>0.8814042315719348</v>
+      </c>
+      <c r="W29">
+        <v>0.8969534404459005</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.368519218242629</v>
+        <v>1.351177834186845</v>
       </c>
       <c r="D4">
-        <v>0.8354347730597865</v>
+        <v>0.8509937765500977</v>
       </c>
       <c r="E4">
-        <v>0.8142994276591105</v>
+        <v>0.8196452820131747</v>
       </c>
       <c r="F4">
-        <v>0.9879684074624983</v>
+        <v>0.9885178281562134</v>
       </c>
       <c r="G4">
-        <v>0.7736295549325469</v>
+        <v>0.7911462813420937</v>
       </c>
       <c r="H4">
-        <v>0.7736295549325469</v>
+        <v>0.7911462813420937</v>
       </c>
       <c r="I4">
-        <v>0.7736295549325469</v>
+        <v>0.7911462813420937</v>
       </c>
       <c r="J4">
-        <v>2.133125066943822</v>
+        <v>2.240218902125241</v>
       </c>
       <c r="K4">
-        <v>0.8552546968427708</v>
+        <v>0.8366516096531795</v>
       </c>
       <c r="L4">
-        <v>0.9948214789656357</v>
+        <v>0.969462559568168</v>
       </c>
       <c r="M4">
-        <v>2.133125066943822</v>
+        <v>2.240218902125241</v>
       </c>
       <c r="N4">
-        <v>0.7736295549325469</v>
+        <v>0.7911462813420937</v>
       </c>
       <c r="O4">
-        <v>0.8552546968427708</v>
+        <v>0.8366516096531795</v>
       </c>
       <c r="P4">
-        <v>1.494189881893296</v>
+        <v>1.53843525588921</v>
       </c>
       <c r="Q4">
-        <v>0.9216115521526345</v>
+        <v>0.9125847189046965</v>
       </c>
       <c r="R4">
-        <v>1.254003106239713</v>
+        <v>1.289338931040172</v>
       </c>
       <c r="S4">
-        <v>1.325449390416364</v>
+        <v>1.355129446644878</v>
       </c>
       <c r="T4">
-        <v>1.254003106239713</v>
+        <v>1.289338931040171</v>
       </c>
       <c r="U4">
-        <v>1.187494431545409</v>
+        <v>1.214133655319182</v>
       </c>
       <c r="V4">
-        <v>1.104721456222837</v>
+        <v>1.129536180523764</v>
       </c>
       <c r="W4">
-        <v>1.0953815780136</v>
+        <v>1.105976759199377</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.400802427714176</v>
+        <v>1.486810545173058</v>
       </c>
       <c r="D5">
-        <v>0.7987585782818425</v>
+        <v>0.0670037482878134</v>
       </c>
       <c r="E5">
-        <v>0.7853138167603624</v>
+        <v>0.5630341910592233</v>
       </c>
       <c r="F5">
-        <v>0.9467503814971158</v>
+        <v>0.4398462942079613</v>
       </c>
       <c r="G5">
-        <v>0.7403229775424568</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="H5">
-        <v>0.7403229775424568</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="I5">
-        <v>0.7403229775424568</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="J5">
-        <v>2.650737425273654</v>
+        <v>3.14134882808633</v>
       </c>
       <c r="K5">
-        <v>0.8443567291136985</v>
+        <v>1.895926573382535</v>
       </c>
       <c r="L5">
-        <v>0.9752996456838299</v>
+        <v>1.900501486359128</v>
       </c>
       <c r="M5">
-        <v>2.650737425273654</v>
+        <v>3.14134882808633</v>
       </c>
       <c r="N5">
-        <v>0.7403229775424568</v>
+        <v>0.001438383038212555</v>
       </c>
       <c r="O5">
-        <v>0.8443567291136985</v>
+        <v>1.895926573382535</v>
       </c>
       <c r="P5">
-        <v>1.747547077193676</v>
+        <v>2.518637700734433</v>
       </c>
       <c r="Q5">
-        <v>0.8955535553054071</v>
+        <v>1.167886433795248</v>
       </c>
       <c r="R5">
-        <v>1.41180571064327</v>
+        <v>1.679571261502359</v>
       </c>
       <c r="S5">
-        <v>1.480614845294823</v>
+        <v>1.825707231892276</v>
       </c>
       <c r="T5">
-        <v>1.41180571064327</v>
+        <v>1.679571261502359</v>
       </c>
       <c r="U5">
-        <v>1.295541878356731</v>
+        <v>1.36964001967876</v>
       </c>
       <c r="V5">
-        <v>1.184498098193876</v>
+        <v>1.09599969235065</v>
       </c>
       <c r="W5">
-        <v>1.142792747733392</v>
+        <v>1.186988756199283</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.031936812507892</v>
+        <v>1.368519218242629</v>
       </c>
       <c r="D6">
-        <v>0.4282332769150691</v>
+        <v>0.8354347730597865</v>
       </c>
       <c r="E6">
-        <v>0.410458577785469</v>
+        <v>0.8142994276591105</v>
       </c>
       <c r="F6">
-        <v>0.5848528564178073</v>
+        <v>0.9879684074624983</v>
       </c>
       <c r="G6">
-        <v>0.3948905199154836</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="H6">
-        <v>0.3948905199154836</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="I6">
-        <v>0.3948905199154836</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="J6">
-        <v>8.773531102745347</v>
+        <v>2.133125066943822</v>
       </c>
       <c r="K6">
-        <v>0.4148113736716975</v>
+        <v>0.8552546968427708</v>
       </c>
       <c r="L6">
-        <v>0.5382601927955851</v>
+        <v>0.9948214789656357</v>
       </c>
       <c r="M6">
-        <v>8.773531102745347</v>
+        <v>2.133125066943822</v>
       </c>
       <c r="N6">
-        <v>0.3948905199154836</v>
+        <v>0.7736295549325469</v>
       </c>
       <c r="O6">
-        <v>0.4148113736716975</v>
+        <v>0.8552546968427708</v>
       </c>
       <c r="P6">
-        <v>4.594171238208522</v>
+        <v>1.494189881893296</v>
       </c>
       <c r="Q6">
-        <v>0.4998321150447524</v>
+        <v>0.9216115521526345</v>
       </c>
       <c r="R6">
-        <v>3.19441099877751</v>
+        <v>1.254003106239713</v>
       </c>
       <c r="S6">
-        <v>3.257731777611617</v>
+        <v>1.325449390416364</v>
       </c>
       <c r="T6">
-        <v>3.19441099877751</v>
+        <v>1.254003106239713</v>
       </c>
       <c r="U6">
-        <v>2.542021463187584</v>
+        <v>1.187494431545409</v>
       </c>
       <c r="V6">
-        <v>2.112595274533164</v>
+        <v>1.104721456222837</v>
       </c>
       <c r="W6">
-        <v>1.697121839094294</v>
+        <v>1.0953815780136</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.030469500256761</v>
+        <v>1.400802427714176</v>
       </c>
       <c r="D7">
-        <v>0.95515156086687</v>
+        <v>0.7987585782818425</v>
       </c>
       <c r="E7">
-        <v>0.9765986885718745</v>
+        <v>0.7853138167603624</v>
       </c>
       <c r="F7">
-        <v>0.9750651406826434</v>
+        <v>0.9467503814971158</v>
       </c>
       <c r="G7">
-        <v>0.9517437538728678</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="H7">
-        <v>0.9517437538728678</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="I7">
-        <v>0.9517437538728678</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="J7">
-        <v>1.121670763127518</v>
+        <v>2.650737425273654</v>
       </c>
       <c r="K7">
-        <v>1.033113997757159</v>
+        <v>0.8443567291136985</v>
       </c>
       <c r="L7">
-        <v>1.038882323044549</v>
+        <v>0.9752996456838299</v>
       </c>
       <c r="M7">
-        <v>1.121670763127518</v>
+        <v>2.650737425273654</v>
       </c>
       <c r="N7">
-        <v>0.9517437538728678</v>
+        <v>0.7403229775424568</v>
       </c>
       <c r="O7">
-        <v>1.033113997757159</v>
+        <v>0.8443567291136985</v>
       </c>
       <c r="P7">
-        <v>1.077392380442339</v>
+        <v>1.747547077193676</v>
       </c>
       <c r="Q7">
-        <v>1.004089569219901</v>
+        <v>0.8955535553054071</v>
       </c>
       <c r="R7">
-        <v>1.035509504919182</v>
+        <v>1.41180571064327</v>
       </c>
       <c r="S7">
-        <v>1.04328330052244</v>
+        <v>1.480614845294823</v>
       </c>
       <c r="T7">
-        <v>1.035509504919182</v>
+        <v>1.41180571064327</v>
       </c>
       <c r="U7">
-        <v>1.020398413860047</v>
+        <v>1.295541878356731</v>
       </c>
       <c r="V7">
-        <v>1.006667481862611</v>
+        <v>1.184498098193876</v>
       </c>
       <c r="W7">
-        <v>1.010336966022531</v>
+        <v>1.142792747733392</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.004315936195868</v>
+        <v>2.031936812507892</v>
       </c>
       <c r="D8">
-        <v>0.9977314616443103</v>
+        <v>0.4282332769150691</v>
       </c>
       <c r="E8">
-        <v>0.9992239063189589</v>
+        <v>0.410458577785469</v>
       </c>
       <c r="F8">
-        <v>0.9979079924672032</v>
+        <v>0.5848528564178073</v>
       </c>
       <c r="G8">
-        <v>0.9956905623553521</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="H8">
-        <v>0.9956905623553521</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="I8">
-        <v>0.9956905623553521</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="J8">
-        <v>1.009772907272094</v>
+        <v>8.773531102745347</v>
       </c>
       <c r="K8">
-        <v>1.004205590751649</v>
+        <v>0.4148113736716975</v>
       </c>
       <c r="L8">
-        <v>0.9977213057478186</v>
+        <v>0.5382601927955851</v>
       </c>
       <c r="M8">
-        <v>1.009772907272094</v>
+        <v>8.773531102745347</v>
       </c>
       <c r="N8">
-        <v>0.9956905623553521</v>
+        <v>0.3948905199154836</v>
       </c>
       <c r="O8">
-        <v>1.004205590751649</v>
+        <v>0.4148113736716975</v>
       </c>
       <c r="P8">
-        <v>1.006989249011871</v>
+        <v>4.594171238208522</v>
       </c>
       <c r="Q8">
-        <v>1.001056791609426</v>
+        <v>0.4998321150447524</v>
       </c>
       <c r="R8">
-        <v>1.003223020126365</v>
+        <v>3.19441099877751</v>
       </c>
       <c r="S8">
-        <v>1.003962163496982</v>
+        <v>3.257731777611617</v>
       </c>
       <c r="T8">
-        <v>1.003223020126365</v>
+        <v>3.19441099877751</v>
       </c>
       <c r="U8">
-        <v>1.001894263211575</v>
+        <v>2.542021463187584</v>
       </c>
       <c r="V8">
-        <v>1.00065352304033</v>
+        <v>2.112595274533164</v>
       </c>
       <c r="W8">
-        <v>1.000821207844157</v>
+        <v>1.697121839094294</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.042376477274894</v>
+        <v>1.030469500256761</v>
       </c>
       <c r="D9">
-        <v>0.9260153996641869</v>
+        <v>0.95515156086687</v>
       </c>
       <c r="E9">
-        <v>0.9571313675368037</v>
+        <v>0.9765986885718745</v>
       </c>
       <c r="F9">
-        <v>0.9471392293895287</v>
+        <v>0.9750651406826434</v>
       </c>
       <c r="G9">
-        <v>0.9195933689058609</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="H9">
-        <v>0.9195933689058609</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="I9">
-        <v>0.9195933689058609</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="J9">
-        <v>1.236182133805722</v>
+        <v>1.121670763127518</v>
       </c>
       <c r="K9">
-        <v>1.064224078968316</v>
+        <v>1.033113997757159</v>
       </c>
       <c r="L9">
-        <v>1.067910217664507</v>
+        <v>1.038882323044549</v>
       </c>
       <c r="M9">
-        <v>1.236182133805722</v>
+        <v>1.121670763127518</v>
       </c>
       <c r="N9">
-        <v>0.9195933689058609</v>
+        <v>0.9517437538728678</v>
       </c>
       <c r="O9">
-        <v>1.064224078968316</v>
+        <v>1.033113997757159</v>
       </c>
       <c r="P9">
-        <v>1.150203106387019</v>
+        <v>1.077392380442339</v>
       </c>
       <c r="Q9">
-        <v>1.005681654178922</v>
+        <v>1.004089569219901</v>
       </c>
       <c r="R9">
-        <v>1.0733331938933</v>
+        <v>1.035509504919182</v>
       </c>
       <c r="S9">
-        <v>1.082515147387856</v>
+        <v>1.04328330052244</v>
       </c>
       <c r="T9">
-        <v>1.0733331938933</v>
+        <v>1.035509504919182</v>
       </c>
       <c r="U9">
-        <v>1.041784702767357</v>
+        <v>1.020398413860047</v>
       </c>
       <c r="V9">
-        <v>1.017346435995058</v>
+        <v>1.006667481862611</v>
       </c>
       <c r="W9">
-        <v>1.020071534151227</v>
+        <v>1.010336966022531</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.04800510740337</v>
+        <v>1.004315936195868</v>
       </c>
       <c r="D10">
-        <v>0.3799363193779295</v>
+        <v>0.9977314616443103</v>
       </c>
       <c r="E10">
-        <v>0.4303393436879847</v>
+        <v>0.9992239063189589</v>
       </c>
       <c r="F10">
-        <v>0.5219362927658436</v>
+        <v>0.9979079924672032</v>
       </c>
       <c r="G10">
-        <v>0.4399749998396892</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="H10">
-        <v>0.4399749998396892</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="I10">
-        <v>0.4399749998396892</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="J10">
-        <v>9.011782766051748</v>
+        <v>1.009772907272094</v>
       </c>
       <c r="K10">
-        <v>0.4441354832478719</v>
+        <v>1.004205590751649</v>
       </c>
       <c r="L10">
-        <v>0.5034976880201288</v>
+        <v>0.9977213057478186</v>
       </c>
       <c r="M10">
-        <v>9.011782766051748</v>
+        <v>1.009772907272094</v>
       </c>
       <c r="N10">
-        <v>0.4399749998396892</v>
+        <v>0.9956905623553521</v>
       </c>
       <c r="O10">
-        <v>0.4441354832478719</v>
+        <v>1.004205590751649</v>
       </c>
       <c r="P10">
-        <v>4.72795912464981</v>
+        <v>1.006989249011871</v>
       </c>
       <c r="Q10">
-        <v>0.4830358880068578</v>
+        <v>1.001056791609426</v>
       </c>
       <c r="R10">
-        <v>3.298631083046436</v>
+        <v>1.003223020126365</v>
       </c>
       <c r="S10">
-        <v>3.325951514021821</v>
+        <v>1.003962163496982</v>
       </c>
       <c r="T10">
-        <v>3.298631083046436</v>
+        <v>1.003223020126365</v>
       </c>
       <c r="U10">
-        <v>2.604457385476288</v>
+        <v>1.001894263211575</v>
       </c>
       <c r="V10">
-        <v>2.171560908348968</v>
+        <v>1.00065352304033</v>
       </c>
       <c r="W10">
-        <v>1.722451000049321</v>
+        <v>1.000821207844157</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.273978319227537</v>
+        <v>1.042376477274894</v>
       </c>
       <c r="D11">
-        <v>0.9698675999846321</v>
+        <v>0.9260153996641869</v>
       </c>
       <c r="E11">
-        <v>0.8435518402024655</v>
+        <v>0.9571313675368037</v>
       </c>
       <c r="F11">
-        <v>0.9940233626903766</v>
+        <v>0.9471392293895287</v>
       </c>
       <c r="G11">
-        <v>1.076343915062423</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="H11">
-        <v>1.076343915062423</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="I11">
-        <v>1.076343915062423</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="J11">
-        <v>1.97517435812649</v>
+        <v>1.236182133805722</v>
       </c>
       <c r="K11">
-        <v>0.7630116272921368</v>
+        <v>1.064224078968316</v>
       </c>
       <c r="L11">
-        <v>0.8541926233232205</v>
+        <v>1.067910217664507</v>
       </c>
       <c r="M11">
-        <v>1.97517435812649</v>
+        <v>1.236182133805722</v>
       </c>
       <c r="N11">
-        <v>1.076343915062423</v>
+        <v>0.9195933689058609</v>
       </c>
       <c r="O11">
-        <v>0.7630116272921368</v>
+        <v>1.064224078968316</v>
       </c>
       <c r="P11">
-        <v>1.369092992709313</v>
+        <v>1.150203106387019</v>
       </c>
       <c r="Q11">
-        <v>0.8785174949912566</v>
+        <v>1.005681654178922</v>
       </c>
       <c r="R11">
-        <v>1.271509966827016</v>
+        <v>1.0733331938933</v>
       </c>
       <c r="S11">
-        <v>1.244069782703001</v>
+        <v>1.082515147387856</v>
       </c>
       <c r="T11">
-        <v>1.271509966827016</v>
+        <v>1.0733331938933</v>
       </c>
       <c r="U11">
-        <v>1.202138315792856</v>
+        <v>1.041784702767357</v>
       </c>
       <c r="V11">
-        <v>1.17697943564677</v>
+        <v>1.017346435995058</v>
       </c>
       <c r="W11">
-        <v>1.09376795573866</v>
+        <v>1.020071534151227</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.390943221059859</v>
+        <v>2.04800510740337</v>
       </c>
       <c r="D12">
-        <v>0.7496960998991572</v>
+        <v>0.3799363193779295</v>
       </c>
       <c r="E12">
-        <v>0.8202803881058941</v>
+        <v>0.4303393436879847</v>
       </c>
       <c r="F12">
-        <v>0.8240117180484204</v>
+        <v>0.5219362927658436</v>
       </c>
       <c r="G12">
-        <v>0.9043788752551901</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="H12">
-        <v>0.9043788752551901</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="I12">
-        <v>0.9043788752551901</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="J12">
-        <v>3.108518671464549</v>
+        <v>9.011782766051748</v>
       </c>
       <c r="K12">
-        <v>0.8591405548877017</v>
+        <v>0.4441354832478719</v>
       </c>
       <c r="L12">
-        <v>0.8803454469679551</v>
+        <v>0.5034976880201288</v>
       </c>
       <c r="M12">
-        <v>3.108518671464549</v>
+        <v>9.011782766051748</v>
       </c>
       <c r="N12">
-        <v>0.9043788752551901</v>
+        <v>0.4399749998396892</v>
       </c>
       <c r="O12">
-        <v>0.8591405548877017</v>
+        <v>0.4441354832478719</v>
       </c>
       <c r="P12">
-        <v>1.983829613176125</v>
+        <v>4.72795912464981</v>
       </c>
       <c r="Q12">
-        <v>0.8415761364680611</v>
+        <v>0.4830358880068578</v>
       </c>
       <c r="R12">
-        <v>1.624012700535814</v>
+        <v>3.298631083046436</v>
       </c>
       <c r="S12">
-        <v>1.597223648133557</v>
+        <v>3.325951514021821</v>
       </c>
       <c r="T12">
-        <v>1.624012700535814</v>
+        <v>3.298631083046436</v>
       </c>
       <c r="U12">
-        <v>1.424012454913965</v>
+        <v>2.604457385476288</v>
       </c>
       <c r="V12">
-        <v>1.32008573898221</v>
+        <v>2.171560908348968</v>
       </c>
       <c r="W12">
-        <v>1.192164371961091</v>
+        <v>1.722451000049321</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6886390299208103</v>
+        <v>1.273978319227537</v>
       </c>
       <c r="D13">
-        <v>0.9800701920045574</v>
+        <v>0.9698675999846321</v>
       </c>
       <c r="E13">
-        <v>1.258935602700319</v>
+        <v>0.8435518402024655</v>
       </c>
       <c r="F13">
-        <v>0.7575743379882698</v>
+        <v>0.9940233626903766</v>
       </c>
       <c r="G13">
-        <v>1.409249399703346</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="H13">
-        <v>1.409249399703346</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="I13">
-        <v>1.409249399703346</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="J13">
-        <v>0.692334958022255</v>
+        <v>1.97517435812649</v>
       </c>
       <c r="K13">
-        <v>1.274253656135463</v>
+        <v>0.7630116272921368</v>
       </c>
       <c r="L13">
-        <v>0.8876369946711401</v>
+        <v>0.8541926233232205</v>
       </c>
       <c r="M13">
-        <v>0.692334958022255</v>
+        <v>1.97517435812649</v>
       </c>
       <c r="N13">
-        <v>1.409249399703346</v>
+        <v>1.076343915062423</v>
       </c>
       <c r="O13">
-        <v>1.274253656135463</v>
+        <v>0.7630116272921368</v>
       </c>
       <c r="P13">
-        <v>0.9832943070788589</v>
+        <v>1.369092992709313</v>
       </c>
       <c r="Q13">
-        <v>1.015913997061866</v>
+        <v>0.8785174949912566</v>
       </c>
       <c r="R13">
-        <v>1.125279337953688</v>
+        <v>1.271509966827016</v>
       </c>
       <c r="S13">
-        <v>0.9080543173819958</v>
+        <v>1.244069782703001</v>
       </c>
       <c r="T13">
-        <v>1.125279337953688</v>
+        <v>1.271509966827016</v>
       </c>
       <c r="U13">
-        <v>1.033353087962333</v>
+        <v>1.202138315792856</v>
       </c>
       <c r="V13">
-        <v>1.108532350310536</v>
+        <v>1.17697943564677</v>
       </c>
       <c r="W13">
-        <v>0.99358677139327</v>
+        <v>1.09376795573866</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.707476000000005</v>
+        <v>1.390943221059859</v>
       </c>
       <c r="D14">
-        <v>0.004003170599999996</v>
+        <v>0.7496960998991572</v>
       </c>
       <c r="E14">
-        <v>0.002383200199999999</v>
+        <v>0.8202803881058941</v>
       </c>
       <c r="F14">
-        <v>0.1790270599999998</v>
+        <v>0.8240117180484204</v>
       </c>
       <c r="G14">
-        <v>-0.003255679799999996</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="H14">
-        <v>-0.003255679799999996</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="I14">
-        <v>-0.003255679799999996</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="J14">
-        <v>15.308083</v>
+        <v>3.108518671464549</v>
       </c>
       <c r="K14">
-        <v>0.0006486686400000005</v>
+        <v>0.8591405548877017</v>
       </c>
       <c r="L14">
-        <v>0.1110801600000001</v>
+        <v>0.8803454469679551</v>
       </c>
       <c r="M14">
-        <v>15.308083</v>
+        <v>3.108518671464549</v>
       </c>
       <c r="N14">
-        <v>-0.003255679799999996</v>
+        <v>0.9043788752551901</v>
       </c>
       <c r="O14">
-        <v>0.0006486686400000005</v>
+        <v>0.8591405548877017</v>
       </c>
       <c r="P14">
-        <v>7.654365834320001</v>
+        <v>1.983829613176125</v>
       </c>
       <c r="Q14">
-        <v>0.08983786431999988</v>
+        <v>0.8415761364680611</v>
       </c>
       <c r="R14">
-        <v>5.101825329613334</v>
+        <v>1.624012700535814</v>
       </c>
       <c r="S14">
-        <v>5.162586242880001</v>
+        <v>1.597223648133557</v>
       </c>
       <c r="T14">
-        <v>5.101825329613334</v>
+        <v>1.624012700535814</v>
       </c>
       <c r="U14">
-        <v>3.87112576221</v>
+        <v>1.424012454913965</v>
       </c>
       <c r="V14">
-        <v>3.096249473808</v>
+        <v>1.32008573898221</v>
       </c>
       <c r="W14">
-        <v>2.288680697455001</v>
+        <v>1.192164371961091</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.707476</v>
+        <v>0.6886390299208103</v>
       </c>
       <c r="D15">
-        <v>0.0040031706</v>
+        <v>0.9800701920045574</v>
       </c>
       <c r="E15">
-        <v>0.0023832002</v>
+        <v>1.258935602700319</v>
       </c>
       <c r="F15">
-        <v>0.17902706</v>
+        <v>0.7575743379882698</v>
       </c>
       <c r="G15">
-        <v>-0.0032556798</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="H15">
-        <v>-0.0032556798</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="I15">
-        <v>-0.0032556798</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="J15">
-        <v>15.308083</v>
+        <v>0.692334958022255</v>
       </c>
       <c r="K15">
-        <v>0.0006486686500000001</v>
+        <v>1.274253656135463</v>
       </c>
       <c r="L15">
-        <v>0.11108016</v>
+        <v>0.8876369946711401</v>
       </c>
       <c r="M15">
-        <v>15.308083</v>
+        <v>0.692334958022255</v>
       </c>
       <c r="N15">
-        <v>-0.0032556798</v>
+        <v>1.409249399703346</v>
       </c>
       <c r="O15">
-        <v>0.0006486686500000001</v>
+        <v>1.274253656135463</v>
       </c>
       <c r="P15">
-        <v>7.654365834325</v>
+        <v>0.9832943070788589</v>
       </c>
       <c r="Q15">
-        <v>0.08983786432499999</v>
+        <v>1.015913997061866</v>
       </c>
       <c r="R15">
-        <v>5.101825329616666</v>
+        <v>1.125279337953688</v>
       </c>
       <c r="S15">
-        <v>5.162586242883333</v>
+        <v>0.9080543173819958</v>
       </c>
       <c r="T15">
-        <v>5.101825329616666</v>
+        <v>1.125279337953688</v>
       </c>
       <c r="U15">
-        <v>3.871125762212499</v>
+        <v>1.033353087962333</v>
       </c>
       <c r="V15">
-        <v>3.096249473809999</v>
+        <v>1.108532350310536</v>
       </c>
       <c r="W15">
-        <v>2.28868069745625</v>
+        <v>0.99358677139327</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.707476</v>
+        <v>2.707476000000005</v>
       </c>
       <c r="D16">
-        <v>0.0040031706</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="E16">
-        <v>0.0023832002</v>
+        <v>0.002383200199999999</v>
       </c>
       <c r="F16">
-        <v>0.17902706</v>
+        <v>0.1790270599999998</v>
       </c>
       <c r="G16">
-        <v>-0.0032556798</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="H16">
-        <v>-0.0032556798</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="I16">
-        <v>-0.0032556798</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="J16">
         <v>15.308083</v>
       </c>
       <c r="K16">
-        <v>0.0006486686500000001</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="L16">
-        <v>0.11108016</v>
+        <v>0.1110801600000001</v>
       </c>
       <c r="M16">
         <v>15.308083</v>
       </c>
       <c r="N16">
-        <v>-0.0032556798</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="O16">
-        <v>0.0006486686500000001</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="P16">
-        <v>7.654365834325</v>
+        <v>7.654365834320001</v>
       </c>
       <c r="Q16">
-        <v>0.08983786432499999</v>
+        <v>0.08983786431999988</v>
       </c>
       <c r="R16">
-        <v>5.101825329616666</v>
+        <v>5.101825329613334</v>
       </c>
       <c r="S16">
-        <v>5.162586242883333</v>
+        <v>5.162586242880001</v>
       </c>
       <c r="T16">
-        <v>5.101825329616666</v>
+        <v>5.101825329613334</v>
       </c>
       <c r="U16">
-        <v>3.871125762212499</v>
+        <v>3.87112576221</v>
       </c>
       <c r="V16">
-        <v>3.096249473809999</v>
+        <v>3.096249473808</v>
       </c>
       <c r="W16">
-        <v>2.28868069745625</v>
+        <v>2.288680697455001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.29532771</v>
+        <v>2.707476</v>
       </c>
       <c r="D17">
-        <v>0.12273799</v>
+        <v>0.0040031706</v>
       </c>
       <c r="E17">
-        <v>0.48503886</v>
+        <v>0.0023832002</v>
       </c>
       <c r="F17">
-        <v>0.3653806</v>
+        <v>0.17902706</v>
       </c>
       <c r="G17">
-        <v>0.002431345</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H17">
-        <v>0.002431345</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="I17">
-        <v>0.002431345</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="J17">
-        <v>0.028143529</v>
+        <v>15.308083</v>
       </c>
       <c r="K17">
-        <v>1.6038159</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L17">
-        <v>3.5297467</v>
+        <v>0.11108016</v>
       </c>
       <c r="M17">
-        <v>0.028143529</v>
+        <v>15.308083</v>
       </c>
       <c r="N17">
-        <v>0.002431345</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="O17">
-        <v>1.6038159</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="P17">
-        <v>0.8159797145000001</v>
+        <v>7.654365834325</v>
       </c>
       <c r="Q17">
-        <v>0.98459825</v>
+        <v>0.08983786432499999</v>
       </c>
       <c r="R17">
-        <v>0.5447969246666667</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="S17">
-        <v>0.6657800096666667</v>
+        <v>5.162586242883333</v>
       </c>
       <c r="T17">
-        <v>0.5447969246666667</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="U17">
-        <v>0.4999428435</v>
+        <v>3.871125762212499</v>
       </c>
       <c r="V17">
-        <v>0.4004405438</v>
+        <v>3.096249473809999</v>
       </c>
       <c r="W17">
-        <v>0.8040778292499999</v>
+        <v>2.28868069745625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.565122554460275</v>
+        <v>2.707476</v>
       </c>
       <c r="D18">
-        <v>0.06343907497260275</v>
+        <v>0.0040031706</v>
       </c>
       <c r="E18">
-        <v>0.5303198361758906</v>
+        <v>0.0023832002</v>
       </c>
       <c r="F18">
-        <v>0.4277807186301369</v>
+        <v>0.17902706</v>
       </c>
       <c r="G18">
-        <v>0.001251438003835616</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H18">
-        <v>0.001251438003835616</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="I18">
-        <v>0.001251438003835616</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="J18">
-        <v>3.781065092736985</v>
+        <v>15.308083</v>
       </c>
       <c r="K18">
-        <v>1.78551079483926</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L18">
-        <v>1.79988401589041</v>
+        <v>0.11108016</v>
       </c>
       <c r="M18">
-        <v>3.781065092736985</v>
+        <v>15.308083</v>
       </c>
       <c r="N18">
-        <v>0.001251438003835616</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="O18">
-        <v>1.78551079483926</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="P18">
-        <v>2.783287943788123</v>
+        <v>7.654365834325</v>
       </c>
       <c r="Q18">
-        <v>1.106645756734699</v>
+        <v>0.08983786432499999</v>
       </c>
       <c r="R18">
-        <v>1.855942441860027</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="S18">
-        <v>1.998118868735461</v>
+        <v>5.162586242883333</v>
       </c>
       <c r="T18">
-        <v>1.855942441860027</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="U18">
-        <v>1.498902011052555</v>
+        <v>3.871125762212499</v>
       </c>
       <c r="V18">
-        <v>1.199371896442811</v>
+        <v>3.096249473809999</v>
       </c>
       <c r="W18">
-        <v>1.244296690713675</v>
+        <v>2.28868069745625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.610215453626316</v>
+        <v>0.29532771</v>
       </c>
       <c r="D19">
-        <v>0.06109292085263159</v>
+        <v>0.12273799</v>
       </c>
       <c r="E19">
-        <v>0.5094802321252631</v>
+        <v>0.48503886</v>
       </c>
       <c r="F19">
-        <v>0.4179614952631579</v>
+        <v>0.3653806</v>
       </c>
       <c r="G19">
-        <v>0.001073525432631579</v>
+        <v>0.002431345</v>
       </c>
       <c r="H19">
-        <v>0.001073525432631579</v>
+        <v>0.002431345</v>
       </c>
       <c r="I19">
-        <v>0.001073525432631579</v>
+        <v>0.002431345</v>
       </c>
       <c r="J19">
-        <v>4.236078957497369</v>
+        <v>0.028143529</v>
       </c>
       <c r="K19">
-        <v>1.715055710909737</v>
+        <v>1.6038159</v>
       </c>
       <c r="L19">
-        <v>1.733220705789474</v>
+        <v>3.5297467</v>
       </c>
       <c r="M19">
-        <v>4.236078957497369</v>
+        <v>0.028143529</v>
       </c>
       <c r="N19">
-        <v>0.001073525432631579</v>
+        <v>0.002431345</v>
       </c>
       <c r="O19">
-        <v>1.715055710909737</v>
+        <v>1.6038159</v>
       </c>
       <c r="P19">
-        <v>2.975567334203553</v>
+        <v>0.8159797145000001</v>
       </c>
       <c r="Q19">
-        <v>1.066508603086447</v>
+        <v>0.98459825</v>
       </c>
       <c r="R19">
-        <v>1.984069397946579</v>
+        <v>0.5447969246666667</v>
       </c>
       <c r="S19">
-        <v>2.123032054556754</v>
+        <v>0.6657800096666667</v>
       </c>
       <c r="T19">
-        <v>1.984069397946579</v>
+        <v>0.5447969246666667</v>
       </c>
       <c r="U19">
-        <v>1.592542422275724</v>
+        <v>0.4999428435</v>
       </c>
       <c r="V19">
-        <v>1.274248642907105</v>
+        <v>0.4004405438</v>
       </c>
       <c r="W19">
-        <v>1.285522375187072</v>
+        <v>0.8040778292499999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.610215453626316</v>
+        <v>1.565122554460275</v>
       </c>
       <c r="D20">
-        <v>0.06109292085263159</v>
+        <v>0.06343907497260275</v>
       </c>
       <c r="E20">
-        <v>0.5094802321252631</v>
+        <v>0.5303198361758906</v>
       </c>
       <c r="F20">
-        <v>0.4179614952631579</v>
+        <v>0.4277807186301369</v>
       </c>
       <c r="G20">
-        <v>0.001073525432631579</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="H20">
-        <v>0.001073525432631579</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="I20">
-        <v>0.001073525432631579</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="J20">
-        <v>4.236078957496842</v>
+        <v>3.781065092736985</v>
       </c>
       <c r="K20">
-        <v>1.715055710909737</v>
+        <v>1.78551079483926</v>
       </c>
       <c r="L20">
-        <v>1.733220705789474</v>
+        <v>1.79988401589041</v>
       </c>
       <c r="M20">
-        <v>4.236078957496842</v>
+        <v>3.781065092736985</v>
       </c>
       <c r="N20">
-        <v>0.001073525432631579</v>
+        <v>0.001251438003835616</v>
       </c>
       <c r="O20">
-        <v>1.715055710909737</v>
+        <v>1.78551079483926</v>
       </c>
       <c r="P20">
-        <v>2.975567334203289</v>
+        <v>2.783287943788123</v>
       </c>
       <c r="Q20">
-        <v>1.066508603086447</v>
+        <v>1.106645756734699</v>
       </c>
       <c r="R20">
-        <v>1.984069397946403</v>
+        <v>1.855942441860027</v>
       </c>
       <c r="S20">
-        <v>2.123032054556579</v>
+        <v>1.998118868735461</v>
       </c>
       <c r="T20">
-        <v>1.984069397946403</v>
+        <v>1.855942441860027</v>
       </c>
       <c r="U20">
-        <v>1.592542422275592</v>
+        <v>1.498902011052555</v>
       </c>
       <c r="V20">
-        <v>1.274248642907</v>
+        <v>1.199371896442811</v>
       </c>
       <c r="W20">
-        <v>1.285522375187007</v>
+        <v>1.244296690713675</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4245048572305005</v>
+        <v>1.610215453626316</v>
       </c>
       <c r="D21">
-        <v>0.4796082259608624</v>
+        <v>0.06109292085263159</v>
       </c>
       <c r="E21">
-        <v>1.688650531238298</v>
+        <v>0.5094802321252631</v>
       </c>
       <c r="F21">
-        <v>0.6200218931135497</v>
+        <v>0.4179614952631579</v>
       </c>
       <c r="G21">
-        <v>0.06967064365041069</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="H21">
-        <v>0.06967064365041069</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="I21">
-        <v>0.06967064365041069</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="J21">
-        <v>0.08778695144515751</v>
+        <v>4.236078957497369</v>
       </c>
       <c r="K21">
-        <v>2.479441576350061</v>
+        <v>1.715055710909737</v>
       </c>
       <c r="L21">
-        <v>1.436600523399709</v>
+        <v>1.733220705789474</v>
       </c>
       <c r="M21">
-        <v>0.08778695144515751</v>
+        <v>4.236078957497369</v>
       </c>
       <c r="N21">
-        <v>0.06967064365041069</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="O21">
-        <v>2.479441576350061</v>
+        <v>1.715055710909737</v>
       </c>
       <c r="P21">
-        <v>1.283614263897609</v>
+        <v>2.975567334203553</v>
       </c>
       <c r="Q21">
-        <v>1.549731734731805</v>
+        <v>1.066508603086447</v>
       </c>
       <c r="R21">
-        <v>0.8789663904818763</v>
+        <v>1.984069397946579</v>
       </c>
       <c r="S21">
-        <v>1.062416806969589</v>
+        <v>2.123032054556754</v>
       </c>
       <c r="T21">
-        <v>0.8789663904818763</v>
+        <v>1.984069397946579</v>
       </c>
       <c r="U21">
-        <v>0.8142302661397947</v>
+        <v>1.592542422275724</v>
       </c>
       <c r="V21">
-        <v>0.6653183416419178</v>
+        <v>1.274248642907105</v>
       </c>
       <c r="W21">
-        <v>0.9107856502985686</v>
+        <v>1.285522375187072</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.14296945523506</v>
+        <v>1.610215453626316</v>
       </c>
       <c r="D22">
-        <v>1.452558459160359</v>
+        <v>0.06109292085263159</v>
       </c>
       <c r="E22">
-        <v>0.7770676009839536</v>
+        <v>0.5094802321252631</v>
       </c>
       <c r="F22">
-        <v>1.278324178475013</v>
+        <v>0.4179614952631579</v>
       </c>
       <c r="G22">
-        <v>1.232729222016997</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="H22">
-        <v>1.232729222016997</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="I22">
-        <v>1.232729222016997</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="J22">
-        <v>1.050513637669476</v>
+        <v>4.236078957496842</v>
       </c>
       <c r="K22">
-        <v>0.3204352799556485</v>
+        <v>1.715055710909737</v>
       </c>
       <c r="L22">
-        <v>0.698709861847687</v>
+        <v>1.733220705789474</v>
       </c>
       <c r="M22">
-        <v>1.050513637669476</v>
+        <v>4.236078957496842</v>
       </c>
       <c r="N22">
-        <v>1.232729222016997</v>
+        <v>0.001073525432631579</v>
       </c>
       <c r="O22">
-        <v>0.3204352799556485</v>
+        <v>1.715055710909737</v>
       </c>
       <c r="P22">
-        <v>0.6854744588125622</v>
+        <v>2.975567334203289</v>
       </c>
       <c r="Q22">
-        <v>0.7993797292153307</v>
+        <v>1.066508603086447</v>
       </c>
       <c r="R22">
-        <v>0.8678927132140405</v>
+        <v>1.984069397946403</v>
       </c>
       <c r="S22">
-        <v>0.8830910320333792</v>
+        <v>2.123032054556579</v>
       </c>
       <c r="T22">
-        <v>0.8678927132140405</v>
+        <v>1.984069397946403</v>
       </c>
       <c r="U22">
-        <v>0.9705005795292836</v>
+        <v>1.592542422275592</v>
       </c>
       <c r="V22">
-        <v>1.022946308026826</v>
+        <v>1.274248642907</v>
       </c>
       <c r="W22">
-        <v>0.9941634619180243</v>
+        <v>1.285522375187007</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.660876651418285</v>
+        <v>0.4245048572305005</v>
       </c>
       <c r="D23">
-        <v>1.427669694193638</v>
+        <v>0.4796082259608624</v>
       </c>
       <c r="E23">
-        <v>1.061782037455428</v>
+        <v>1.688650531238298</v>
       </c>
       <c r="F23">
-        <v>1.270796651127378</v>
+        <v>0.6200218931135497</v>
       </c>
       <c r="G23">
-        <v>1.776642826673861</v>
+        <v>0.06967064365041069</v>
       </c>
       <c r="H23">
-        <v>1.776642826673861</v>
+        <v>0.06967064365041069</v>
       </c>
       <c r="I23">
-        <v>1.776642826673861</v>
+        <v>0.06967064365041069</v>
       </c>
       <c r="J23">
-        <v>0.08773681507702411</v>
+        <v>0.08778695144515751</v>
       </c>
       <c r="K23">
-        <v>0.3218564699133815</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="L23">
-        <v>0.6156475120409252</v>
+        <v>1.436600523399709</v>
       </c>
       <c r="M23">
-        <v>0.08773681507702411</v>
+        <v>0.08778695144515751</v>
       </c>
       <c r="N23">
-        <v>1.776642826673861</v>
+        <v>0.06967064365041069</v>
       </c>
       <c r="O23">
-        <v>0.3218564699133815</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="P23">
-        <v>0.2047966424952028</v>
+        <v>1.283614263897609</v>
       </c>
       <c r="Q23">
-        <v>0.7963265605203798</v>
+        <v>1.549731734731805</v>
       </c>
       <c r="R23">
-        <v>0.7287453705547554</v>
+        <v>0.8789663904818763</v>
       </c>
       <c r="S23">
-        <v>0.5601299787059278</v>
+        <v>1.062416806969589</v>
       </c>
       <c r="T23">
-        <v>0.7287453705547554</v>
+        <v>0.8789663904818763</v>
       </c>
       <c r="U23">
-        <v>0.8642581906979111</v>
+        <v>0.8142302661397947</v>
       </c>
       <c r="V23">
-        <v>1.046735117893101</v>
+        <v>0.6653183416419178</v>
       </c>
       <c r="W23">
-        <v>0.9028760822374901</v>
+        <v>0.9107856502985686</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7775764663439729</v>
+        <v>1.14296945523506</v>
       </c>
       <c r="D24">
-        <v>0.6616939008335981</v>
+        <v>1.452558459160359</v>
       </c>
       <c r="E24">
-        <v>1.19400673911063</v>
+        <v>0.7770676009839536</v>
       </c>
       <c r="F24">
-        <v>0.4024563136100975</v>
+        <v>1.278324178475013</v>
       </c>
       <c r="G24">
-        <v>1.386083954800485</v>
+        <v>1.232729222016997</v>
       </c>
       <c r="H24">
-        <v>1.386083954800485</v>
+        <v>1.232729222016997</v>
       </c>
       <c r="I24">
-        <v>1.386083954800485</v>
+        <v>1.232729222016997</v>
       </c>
       <c r="J24">
-        <v>1.045772899733318</v>
+        <v>1.050513637669476</v>
       </c>
       <c r="K24">
-        <v>1.715653053211375</v>
+        <v>0.3204352799556485</v>
       </c>
       <c r="L24">
-        <v>1.168360903391125</v>
+        <v>0.698709861847687</v>
       </c>
       <c r="M24">
-        <v>1.045772899733318</v>
+        <v>1.050513637669476</v>
       </c>
       <c r="N24">
-        <v>1.386083954800485</v>
+        <v>1.232729222016997</v>
       </c>
       <c r="O24">
-        <v>1.715653053211375</v>
+        <v>0.3204352799556485</v>
       </c>
       <c r="P24">
-        <v>1.380712976472346</v>
+        <v>0.6854744588125622</v>
       </c>
       <c r="Q24">
-        <v>1.059054683410736</v>
+        <v>0.7993797292153307</v>
       </c>
       <c r="R24">
-        <v>1.382503302581726</v>
+        <v>0.8678927132140405</v>
       </c>
       <c r="S24">
-        <v>1.05462742218493</v>
+        <v>0.8830910320333792</v>
       </c>
       <c r="T24">
-        <v>1.382503302581726</v>
+        <v>0.8678927132140405</v>
       </c>
       <c r="U24">
-        <v>1.137491555338819</v>
+        <v>0.9705005795292836</v>
       </c>
       <c r="V24">
-        <v>1.187210035231152</v>
+        <v>1.022946308026826</v>
       </c>
       <c r="W24">
-        <v>1.043950528879325</v>
+        <v>0.9941634619180243</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4245048572305006</v>
+        <v>0.660876651418285</v>
       </c>
       <c r="D25">
-        <v>0.4796082259608624</v>
+        <v>1.427669694193638</v>
       </c>
       <c r="E25">
-        <v>1.688650531238298</v>
+        <v>1.061782037455428</v>
       </c>
       <c r="F25">
-        <v>0.6200218931135497</v>
+        <v>1.270796651127378</v>
       </c>
       <c r="G25">
-        <v>0.0696706436504106</v>
+        <v>1.776642826673861</v>
       </c>
       <c r="H25">
-        <v>0.0696706436504106</v>
+        <v>1.776642826673861</v>
       </c>
       <c r="I25">
-        <v>0.0696706436504106</v>
+        <v>1.776642826673861</v>
       </c>
       <c r="J25">
-        <v>0.08778695144335412</v>
+        <v>0.08773681507702411</v>
       </c>
       <c r="K25">
-        <v>2.479441576350061</v>
+        <v>0.3218564699133815</v>
       </c>
       <c r="L25">
-        <v>1.436600523399709</v>
+        <v>0.6156475120409252</v>
       </c>
       <c r="M25">
-        <v>0.08778695144335412</v>
+        <v>0.08773681507702411</v>
       </c>
       <c r="N25">
-        <v>0.0696706436504106</v>
+        <v>1.776642826673861</v>
       </c>
       <c r="O25">
-        <v>2.479441576350061</v>
+        <v>0.3218564699133815</v>
       </c>
       <c r="P25">
-        <v>1.283614263896707</v>
+        <v>0.2047966424952028</v>
       </c>
       <c r="Q25">
-        <v>1.549731734731805</v>
+        <v>0.7963265605203798</v>
       </c>
       <c r="R25">
-        <v>0.8789663904812751</v>
+        <v>0.7287453705547554</v>
       </c>
       <c r="S25">
-        <v>1.062416806968988</v>
+        <v>0.5601299787059278</v>
       </c>
       <c r="T25">
-        <v>0.8789663904812751</v>
+        <v>0.7287453705547554</v>
       </c>
       <c r="U25">
-        <v>0.8142302661393438</v>
+        <v>0.8642581906979111</v>
       </c>
       <c r="V25">
-        <v>0.6653183416415571</v>
+        <v>1.046735117893101</v>
       </c>
       <c r="W25">
-        <v>0.9107856502983431</v>
+        <v>0.9028760822374901</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.14296945523506</v>
+        <v>0.7775764663439729</v>
       </c>
       <c r="D26">
-        <v>1.45255845916036</v>
+        <v>0.6616939008335981</v>
       </c>
       <c r="E26">
-        <v>0.7770676009839534</v>
+        <v>1.19400673911063</v>
       </c>
       <c r="F26">
-        <v>1.278324178475013</v>
+        <v>0.4024563136100975</v>
       </c>
       <c r="G26">
-        <v>1.232729222016998</v>
+        <v>1.386083954800485</v>
       </c>
       <c r="H26">
-        <v>1.232729222016998</v>
+        <v>1.386083954800485</v>
       </c>
       <c r="I26">
-        <v>1.232729222016998</v>
+        <v>1.386083954800485</v>
       </c>
       <c r="J26">
-        <v>1.050513637669339</v>
+        <v>1.045772899733318</v>
       </c>
       <c r="K26">
-        <v>0.3204352799556483</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="L26">
-        <v>0.698709861847687</v>
+        <v>1.168360903391125</v>
       </c>
       <c r="M26">
-        <v>1.050513637669339</v>
+        <v>1.045772899733318</v>
       </c>
       <c r="N26">
-        <v>1.232729222016998</v>
+        <v>1.386083954800485</v>
       </c>
       <c r="O26">
-        <v>0.3204352799556483</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="P26">
-        <v>0.6854744588124938</v>
+        <v>1.380712976472346</v>
       </c>
       <c r="Q26">
-        <v>0.7993797292153305</v>
+        <v>1.059054683410736</v>
       </c>
       <c r="R26">
-        <v>0.8678927132139952</v>
+        <v>1.382503302581726</v>
       </c>
       <c r="S26">
-        <v>0.8830910320333335</v>
+        <v>1.05462742218493</v>
       </c>
       <c r="T26">
-        <v>0.867892713213995</v>
+        <v>1.382503302581726</v>
       </c>
       <c r="U26">
-        <v>0.9705005795292494</v>
+        <v>1.137491555338819</v>
       </c>
       <c r="V26">
-        <v>1.022946308026799</v>
+        <v>1.187210035231152</v>
       </c>
       <c r="W26">
-        <v>0.9941634619180073</v>
+        <v>1.043950528879325</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8928320473508142</v>
+        <v>0.4245048572305006</v>
       </c>
       <c r="D27">
-        <v>1.022730233556913</v>
+        <v>0.4796082259608624</v>
       </c>
       <c r="E27">
-        <v>0.8541498648614197</v>
+        <v>1.688650531238298</v>
       </c>
       <c r="F27">
-        <v>1.055887478948314</v>
+        <v>0.6200218931135497</v>
       </c>
       <c r="G27">
-        <v>0.5794592082418267</v>
+        <v>0.0696706436504106</v>
       </c>
       <c r="H27">
-        <v>0.5794592082418267</v>
+        <v>0.0696706436504106</v>
       </c>
       <c r="I27">
-        <v>0.5794592082418267</v>
+        <v>0.0696706436504106</v>
       </c>
       <c r="J27">
-        <v>1.148692971632562</v>
+        <v>0.08778695144335412</v>
       </c>
       <c r="K27">
-        <v>0.5824803981642404</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="L27">
-        <v>1.555219637067031</v>
+        <v>1.436600523399709</v>
       </c>
       <c r="M27">
-        <v>1.148692971632562</v>
+        <v>0.08778695144335412</v>
       </c>
       <c r="N27">
-        <v>0.5794592082418267</v>
+        <v>0.0696706436504106</v>
       </c>
       <c r="O27">
-        <v>0.5824803981642404</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="P27">
-        <v>0.8655866848984013</v>
+        <v>1.283614263896707</v>
       </c>
       <c r="Q27">
-        <v>0.8191839385562772</v>
+        <v>1.549731734731805</v>
       </c>
       <c r="R27">
-        <v>0.7702108593462098</v>
+        <v>0.8789663904812751</v>
       </c>
       <c r="S27">
-        <v>0.9290202829150389</v>
+        <v>1.062416806968988</v>
       </c>
       <c r="T27">
-        <v>0.7702108593462098</v>
+        <v>0.8789663904812751</v>
       </c>
       <c r="U27">
-        <v>0.8416300142467359</v>
+        <v>0.8142302661393438</v>
       </c>
       <c r="V27">
-        <v>0.7891958530457541</v>
+        <v>0.6653183416415571</v>
       </c>
       <c r="W27">
-        <v>0.9614314799778902</v>
+        <v>0.9107856502983431</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8377801767605091</v>
+        <v>1.14296945523506</v>
       </c>
       <c r="D28">
-        <v>0.832097806296764</v>
+        <v>1.45255845916036</v>
       </c>
       <c r="E28">
-        <v>0.7703521159836741</v>
+        <v>0.7770676009839534</v>
       </c>
       <c r="F28">
-        <v>0.7078989533830953</v>
+        <v>1.278324178475013</v>
       </c>
       <c r="G28">
-        <v>0.7051303642389112</v>
+        <v>1.232729222016998</v>
       </c>
       <c r="H28">
-        <v>0.7051303642389112</v>
+        <v>1.232729222016998</v>
       </c>
       <c r="I28">
-        <v>0.7051303642389112</v>
+        <v>1.232729222016998</v>
       </c>
       <c r="J28">
-        <v>0.8677869340826457</v>
+        <v>1.050513637669339</v>
       </c>
       <c r="K28">
-        <v>1.515416701784269</v>
+        <v>0.3204352799556483</v>
       </c>
       <c r="L28">
-        <v>1.595464814861386</v>
+        <v>0.698709861847687</v>
       </c>
       <c r="M28">
-        <v>0.8677869340826457</v>
+        <v>1.050513637669339</v>
       </c>
       <c r="N28">
-        <v>0.7051303642389112</v>
+        <v>1.232729222016998</v>
       </c>
       <c r="O28">
-        <v>1.515416701784269</v>
+        <v>0.3204352799556483</v>
       </c>
       <c r="P28">
-        <v>1.191601817933458</v>
+        <v>0.6854744588124938</v>
       </c>
       <c r="Q28">
-        <v>1.111657827583682</v>
+        <v>0.7993797292153305</v>
       </c>
       <c r="R28">
-        <v>1.029444666701942</v>
+        <v>0.8678927132139952</v>
       </c>
       <c r="S28">
-        <v>1.030367529750003</v>
+        <v>0.8830910320333335</v>
       </c>
       <c r="T28">
-        <v>1.029444666701942</v>
+        <v>0.867892713213995</v>
       </c>
       <c r="U28">
-        <v>0.9490582383722304</v>
+        <v>0.9705005795292494</v>
       </c>
       <c r="V28">
-        <v>0.9002726635455666</v>
+        <v>1.022946308026799</v>
       </c>
       <c r="W28">
-        <v>0.9789909834239068</v>
+        <v>0.9941634619180073</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.8928320473508142</v>
+      </c>
+      <c r="D29">
+        <v>1.022730233556913</v>
+      </c>
+      <c r="E29">
+        <v>0.8541498648614197</v>
+      </c>
+      <c r="F29">
+        <v>1.055887478948314</v>
+      </c>
+      <c r="G29">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="H29">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="I29">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="J29">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="K29">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="L29">
+        <v>1.555219637067031</v>
+      </c>
+      <c r="M29">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="N29">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="O29">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="P29">
+        <v>0.8655866848984013</v>
+      </c>
+      <c r="Q29">
+        <v>0.8191839385562772</v>
+      </c>
+      <c r="R29">
+        <v>0.7702108593462098</v>
+      </c>
+      <c r="S29">
+        <v>0.9290202829150389</v>
+      </c>
+      <c r="T29">
+        <v>0.7702108593462098</v>
+      </c>
+      <c r="U29">
+        <v>0.8416300142467359</v>
+      </c>
+      <c r="V29">
+        <v>0.7891958530457541</v>
+      </c>
+      <c r="W29">
+        <v>0.9614314799778902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8377801767605091</v>
+      </c>
+      <c r="D30">
+        <v>0.832097806296764</v>
+      </c>
+      <c r="E30">
+        <v>0.7703521159836741</v>
+      </c>
+      <c r="F30">
+        <v>0.7078989533830953</v>
+      </c>
+      <c r="G30">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="H30">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="I30">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="J30">
+        <v>0.8677869340826457</v>
+      </c>
+      <c r="K30">
+        <v>1.515416701784269</v>
+      </c>
+      <c r="L30">
+        <v>1.595464814861386</v>
+      </c>
+      <c r="M30">
+        <v>0.8677869340826457</v>
+      </c>
+      <c r="N30">
+        <v>0.7051303642389112</v>
+      </c>
+      <c r="O30">
+        <v>1.515416701784269</v>
+      </c>
+      <c r="P30">
+        <v>1.191601817933458</v>
+      </c>
+      <c r="Q30">
+        <v>1.111657827583682</v>
+      </c>
+      <c r="R30">
+        <v>1.029444666701942</v>
+      </c>
+      <c r="S30">
+        <v>1.030367529750003</v>
+      </c>
+      <c r="T30">
+        <v>1.029444666701942</v>
+      </c>
+      <c r="U30">
+        <v>0.9490582383722304</v>
+      </c>
+      <c r="V30">
+        <v>0.9002726635455666</v>
+      </c>
+      <c r="W30">
+        <v>0.9789909834239068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.2683739323448412</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9487979639580104</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9584673584257501</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.7359292240733223</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.020657967640932</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.020657967640932</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.020657967640932</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.01398267068274775</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.615793327821739</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.61362507861986</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.01398267068274775</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.020657967640932</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.615793327821739</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.8148879992522435</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.175861275947531</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.8834779887151397</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.7885684075259364</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.8834779887151397</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.8465907975546854</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.8814042315719348</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.8969534404459005</v>
       </c>
     </row>
